--- a/database/industries/felezat/fameli/product/monthly.xlsx
+++ b/database/industries/felezat/fameli/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fameli\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1E296B-BB1A-4E12-8310-89EC520EDE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6990"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +181,12 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +464,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -475,7 +476,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -522,6 +523,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +575,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,17 +743,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -773,7 +808,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -830,7 +865,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -887,7 +922,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -942,7 +977,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1034,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1091,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1111,7 +1146,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1323,7 +1358,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1415,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1389,157 +1424,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>7878</v>
+        <v>9574</v>
       </c>
       <c r="F11" s="11">
-        <v>7145</v>
+        <v>1455</v>
       </c>
       <c r="G11" s="11">
-        <v>9574</v>
+        <v>8133</v>
       </c>
       <c r="H11" s="11">
-        <v>1455</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>8133</v>
+        <v>10773</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K11" s="11">
-        <v>10773</v>
+        <v>2004</v>
       </c>
       <c r="L11" s="11">
-        <v>20</v>
+        <v>3561</v>
       </c>
       <c r="M11" s="11">
-        <v>2004</v>
+        <v>22647</v>
       </c>
       <c r="N11" s="11">
-        <v>3561</v>
+        <v>3706</v>
       </c>
       <c r="O11" s="11">
-        <v>22647</v>
+        <v>11007</v>
       </c>
       <c r="P11" s="11">
-        <v>3706</v>
+        <v>5548</v>
       </c>
       <c r="Q11" s="11">
-        <v>11007</v>
+        <v>19977</v>
       </c>
       <c r="R11" s="11">
-        <v>5548</v>
+        <v>16197</v>
       </c>
       <c r="S11" s="11">
-        <v>19977</v>
+        <v>6154</v>
       </c>
       <c r="T11" s="11">
-        <v>16197</v>
+        <v>20658</v>
       </c>
       <c r="U11" s="11">
-        <v>6154</v>
+        <v>27632</v>
       </c>
       <c r="V11" s="11">
-        <v>20658</v>
+        <v>0</v>
       </c>
       <c r="W11" s="11">
-        <v>27632</v>
+        <v>0</v>
       </c>
       <c r="X11" s="11">
-        <v>0</v>
+        <v>34675</v>
       </c>
       <c r="Y11" s="11">
-        <v>0</v>
+        <v>25133</v>
       </c>
       <c r="Z11" s="11">
-        <v>34675</v>
+        <v>4451</v>
       </c>
       <c r="AA11" s="11">
-        <v>25133</v>
+        <v>3665</v>
       </c>
       <c r="AB11" s="11">
-        <v>4451</v>
+        <v>22494</v>
       </c>
       <c r="AC11" s="11">
-        <v>3665</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>22494</v>
+        <v>19180</v>
       </c>
       <c r="AE11" s="11">
-        <v>0</v>
+        <v>20466</v>
       </c>
       <c r="AF11" s="11">
-        <v>19180</v>
+        <v>20599</v>
       </c>
       <c r="AG11" s="11">
-        <v>20466</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>20599</v>
+        <v>26092</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI11" s="11">
-        <v>26092</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>57</v>
+        <v>6256</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>3912</v>
       </c>
       <c r="AK11" s="11">
-        <v>6256</v>
+        <v>2006</v>
       </c>
       <c r="AL11" s="11">
-        <v>3912</v>
+        <v>31256</v>
       </c>
       <c r="AM11" s="11">
-        <v>2006</v>
+        <v>4534</v>
       </c>
       <c r="AN11" s="11">
-        <v>31256</v>
+        <v>44616</v>
       </c>
       <c r="AO11" s="11">
-        <v>4534</v>
+        <v>22847</v>
       </c>
       <c r="AP11" s="11">
-        <v>44616</v>
+        <v>7833</v>
       </c>
       <c r="AQ11" s="11">
-        <v>22847</v>
+        <v>6670</v>
       </c>
       <c r="AR11" s="11">
-        <v>7833</v>
+        <v>829</v>
       </c>
       <c r="AS11" s="11">
-        <v>6670</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>829</v>
+        <v>9811</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU11" s="11">
-        <v>9811</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>57</v>
+        <v>4122</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>9397</v>
       </c>
       <c r="AW11" s="11">
-        <v>4246</v>
+        <v>6663</v>
       </c>
       <c r="AX11" s="11">
-        <v>9397</v>
+        <v>17129</v>
       </c>
       <c r="AY11" s="11">
-        <v>6663</v>
+        <v>11467</v>
       </c>
       <c r="AZ11" s="11">
-        <v>17129</v>
+        <v>15009</v>
       </c>
       <c r="BA11" s="11">
-        <v>11467</v>
+        <v>7119</v>
       </c>
       <c r="BB11" s="11">
-        <v>15009</v>
+        <v>24153</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1548,157 +1583,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>640</v>
+        <v>599</v>
       </c>
       <c r="F12" s="13">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="G12" s="13">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="H12" s="13">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="I12" s="13">
-        <v>648</v>
+        <v>509</v>
       </c>
       <c r="J12" s="13">
-        <v>494</v>
+        <v>716</v>
       </c>
       <c r="K12" s="13">
+        <v>731</v>
+      </c>
+      <c r="L12" s="13">
+        <v>677</v>
+      </c>
+      <c r="M12" s="13">
+        <v>587</v>
+      </c>
+      <c r="N12" s="13">
+        <v>555</v>
+      </c>
+      <c r="O12" s="13">
+        <v>706</v>
+      </c>
+      <c r="P12" s="13">
+        <v>659</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>793</v>
+      </c>
+      <c r="R12" s="13">
+        <v>771</v>
+      </c>
+      <c r="S12" s="13">
+        <v>721</v>
+      </c>
+      <c r="T12" s="13">
+        <v>759</v>
+      </c>
+      <c r="U12" s="13">
+        <v>535</v>
+      </c>
+      <c r="V12" s="13">
+        <v>704</v>
+      </c>
+      <c r="W12" s="13">
+        <v>665</v>
+      </c>
+      <c r="X12" s="13">
+        <v>653</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>571</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>423</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>585</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>488</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>563</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>474</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>459</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>601</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>580</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>679</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>663</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>684</v>
+      </c>
+      <c r="AK12" s="13">
         <v>509</v>
       </c>
-      <c r="L12" s="13">
-        <v>716</v>
-      </c>
-      <c r="M12" s="13">
-        <v>731</v>
-      </c>
-      <c r="N12" s="13">
-        <v>677</v>
-      </c>
-      <c r="O12" s="13">
-        <v>587</v>
-      </c>
-      <c r="P12" s="13">
-        <v>555</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>706</v>
-      </c>
-      <c r="R12" s="13">
-        <v>659</v>
-      </c>
-      <c r="S12" s="13">
-        <v>793</v>
-      </c>
-      <c r="T12" s="13">
-        <v>771</v>
-      </c>
-      <c r="U12" s="13">
-        <v>721</v>
-      </c>
-      <c r="V12" s="13">
-        <v>759</v>
-      </c>
-      <c r="W12" s="13">
-        <v>535</v>
-      </c>
-      <c r="X12" s="13">
-        <v>704</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>665</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>653</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>571</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>423</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>585</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>488</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>563</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>474</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>459</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>601</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>580</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>679</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>663</v>
-      </c>
       <c r="AL12" s="13">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AM12" s="13">
-        <v>509</v>
+        <v>755</v>
       </c>
       <c r="AN12" s="13">
+        <v>735</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>596</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>645</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>804</v>
+      </c>
+      <c r="AR12" s="13">
         <v>686</v>
       </c>
-      <c r="AO12" s="13">
-        <v>755</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>735</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>596</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>645</v>
-      </c>
       <c r="AS12" s="13">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="AT12" s="13">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="AU12" s="13">
-        <v>833</v>
+        <v>589</v>
       </c>
       <c r="AV12" s="13">
-        <v>670</v>
+        <v>579</v>
       </c>
       <c r="AW12" s="13">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="AX12" s="13">
-        <v>579</v>
+        <v>486</v>
       </c>
       <c r="AY12" s="13">
-        <v>552</v>
+        <v>654</v>
       </c>
       <c r="AZ12" s="13">
-        <v>486</v>
+        <v>739</v>
       </c>
       <c r="BA12" s="13">
-        <v>654</v>
+        <v>851</v>
       </c>
       <c r="BB12" s="13">
-        <v>739</v>
+        <v>980</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1707,157 +1742,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>4859000</v>
+        <v>4039000</v>
       </c>
       <c r="F13" s="11">
+        <v>4654000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4710000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3769000</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4224000</v>
+      </c>
+      <c r="J13" s="11">
+        <v>4737000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4865000</v>
+      </c>
+      <c r="L13" s="11">
+        <v>4005000</v>
+      </c>
+      <c r="M13" s="11">
+        <v>4854000</v>
+      </c>
+      <c r="N13" s="11">
+        <v>3957000</v>
+      </c>
+      <c r="O13" s="11">
+        <v>4609000</v>
+      </c>
+      <c r="P13" s="11">
+        <v>4820000</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>4389000</v>
+      </c>
+      <c r="R13" s="11">
+        <v>4579000</v>
+      </c>
+      <c r="S13" s="11">
+        <v>4400000</v>
+      </c>
+      <c r="T13" s="11">
+        <v>4209000</v>
+      </c>
+      <c r="U13" s="11">
+        <v>3920000</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="11">
+        <v>4658000</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>4007000</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>4098000</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>4642000</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>4716000</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>4372000</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>4358000</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>4028000</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>4792000</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>4574000</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>4847000</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>4819000</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>4893000</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>3244000</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>4178000</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>5118000</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>4946000</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>4597000</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>4329000</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>4434000</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>4225000</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>4291000</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>4817</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>4878000</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>9706183</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>3736000</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>4107000</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>4936000</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>4992000</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>4810000</v>
+      </c>
+      <c r="BB13" s="11">
         <v>4724000</v>
       </c>
-      <c r="G13" s="11">
-        <v>4039000</v>
-      </c>
-      <c r="H13" s="11">
-        <v>4654000</v>
-      </c>
-      <c r="I13" s="11">
-        <v>4710000</v>
-      </c>
-      <c r="J13" s="11">
-        <v>3769000</v>
-      </c>
-      <c r="K13" s="11">
-        <v>4224000</v>
-      </c>
-      <c r="L13" s="11">
-        <v>4737000</v>
-      </c>
-      <c r="M13" s="11">
-        <v>4865000</v>
-      </c>
-      <c r="N13" s="11">
-        <v>4005000</v>
-      </c>
-      <c r="O13" s="11">
-        <v>4854000</v>
-      </c>
-      <c r="P13" s="11">
-        <v>3957000</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>4609000</v>
-      </c>
-      <c r="R13" s="11">
-        <v>4820000</v>
-      </c>
-      <c r="S13" s="11">
-        <v>4389000</v>
-      </c>
-      <c r="T13" s="11">
-        <v>4579000</v>
-      </c>
-      <c r="U13" s="11">
-        <v>4400000</v>
-      </c>
-      <c r="V13" s="11">
-        <v>4209000</v>
-      </c>
-      <c r="W13" s="11">
-        <v>3920000</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>4658000</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>4007000</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>4098000</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>4642000</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>4716000</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>4372000</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>4358000</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>4028000</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>4792000</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>4574000</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>4847000</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>4819000</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>4893000</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>3244000</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>4178000</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>5118000</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>4946000</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>4597000</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>4329000</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>4434000</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>4225000</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>4291000</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>4817</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>4878000</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>9706183</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>3736000</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>4107000</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>4936000</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>4992000</v>
-      </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1880,143 +1915,143 @@
       <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>48682</v>
+      </c>
+      <c r="K14" s="13">
+        <v>10613</v>
       </c>
       <c r="L14" s="13">
-        <v>48682</v>
+        <v>39302</v>
       </c>
       <c r="M14" s="13">
-        <v>10613</v>
+        <v>13905</v>
       </c>
       <c r="N14" s="13">
-        <v>39302</v>
+        <v>8181</v>
       </c>
       <c r="O14" s="13">
-        <v>13905</v>
+        <v>10082</v>
       </c>
       <c r="P14" s="13">
-        <v>8181</v>
+        <v>13088</v>
       </c>
       <c r="Q14" s="13">
-        <v>10082</v>
+        <v>35999</v>
       </c>
       <c r="R14" s="13">
-        <v>13088</v>
+        <v>34555</v>
       </c>
       <c r="S14" s="13">
-        <v>35999</v>
+        <v>14117</v>
       </c>
       <c r="T14" s="13">
-        <v>34555</v>
+        <v>20216</v>
       </c>
       <c r="U14" s="13">
-        <v>14117</v>
+        <v>15025</v>
       </c>
       <c r="V14" s="13">
-        <v>20216</v>
+        <v>15921</v>
       </c>
       <c r="W14" s="13">
-        <v>15025</v>
+        <v>17041</v>
       </c>
       <c r="X14" s="13">
-        <v>15921</v>
+        <v>26715</v>
       </c>
       <c r="Y14" s="13">
-        <v>17041</v>
+        <v>50995</v>
       </c>
       <c r="Z14" s="13">
-        <v>26715</v>
+        <v>26230</v>
       </c>
       <c r="AA14" s="13">
-        <v>50995</v>
+        <v>30150</v>
       </c>
       <c r="AB14" s="13">
-        <v>26230</v>
+        <v>28070</v>
       </c>
       <c r="AC14" s="13">
-        <v>30150</v>
+        <v>36798</v>
       </c>
       <c r="AD14" s="13">
-        <v>28070</v>
+        <v>39658</v>
       </c>
       <c r="AE14" s="13">
-        <v>36798</v>
+        <v>55295</v>
       </c>
       <c r="AF14" s="13">
-        <v>39658</v>
+        <v>56666</v>
       </c>
       <c r="AG14" s="13">
-        <v>55295</v>
+        <v>69789</v>
       </c>
       <c r="AH14" s="13">
-        <v>56666</v>
+        <v>64076</v>
       </c>
       <c r="AI14" s="13">
-        <v>69789</v>
+        <v>76833</v>
       </c>
       <c r="AJ14" s="13">
-        <v>64076</v>
+        <v>75162</v>
       </c>
       <c r="AK14" s="13">
-        <v>76833</v>
+        <v>53799</v>
       </c>
       <c r="AL14" s="13">
-        <v>75162</v>
+        <v>46597</v>
       </c>
       <c r="AM14" s="13">
-        <v>53799</v>
+        <v>57281</v>
       </c>
       <c r="AN14" s="13">
-        <v>46597</v>
+        <v>82501</v>
       </c>
       <c r="AO14" s="13">
-        <v>57281</v>
+        <v>81444</v>
       </c>
       <c r="AP14" s="13">
-        <v>82501</v>
+        <v>82195</v>
       </c>
       <c r="AQ14" s="13">
-        <v>81444</v>
+        <v>74975</v>
       </c>
       <c r="AR14" s="13">
-        <v>82195</v>
+        <v>53033</v>
       </c>
       <c r="AS14" s="13">
-        <v>74975</v>
+        <v>70913</v>
       </c>
       <c r="AT14" s="13">
-        <v>53033</v>
+        <v>85882</v>
       </c>
       <c r="AU14" s="13">
-        <v>70913</v>
+        <v>87329</v>
       </c>
       <c r="AV14" s="13">
-        <v>85882</v>
+        <v>77336</v>
       </c>
       <c r="AW14" s="13">
-        <v>87329</v>
+        <v>67514</v>
       </c>
       <c r="AX14" s="13">
-        <v>77336</v>
+        <v>46171</v>
       </c>
       <c r="AY14" s="13">
-        <v>67514</v>
+        <v>86903</v>
       </c>
       <c r="AZ14" s="13">
-        <v>46171</v>
+        <v>88329</v>
       </c>
       <c r="BA14" s="13">
-        <v>86903</v>
+        <v>81468</v>
       </c>
       <c r="BB14" s="13">
-        <v>88329</v>
+        <v>76334</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2025,157 +2060,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>35</v>
+      </c>
+      <c r="F15" s="11">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11">
+        <v>57</v>
+      </c>
+      <c r="H15" s="11">
+        <v>67</v>
+      </c>
+      <c r="I15" s="11">
+        <v>68</v>
+      </c>
+      <c r="J15" s="11">
+        <v>43</v>
+      </c>
+      <c r="K15" s="11">
+        <v>77</v>
+      </c>
+      <c r="L15" s="11">
+        <v>51</v>
+      </c>
+      <c r="M15" s="11">
+        <v>73</v>
+      </c>
+      <c r="N15" s="11">
+        <v>63</v>
+      </c>
+      <c r="O15" s="11">
+        <v>56</v>
+      </c>
+      <c r="P15" s="11">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="11">
         <v>36</v>
       </c>
-      <c r="F15" s="11">
-        <v>38</v>
-      </c>
-      <c r="G15" s="11">
-        <v>35</v>
-      </c>
-      <c r="H15" s="11">
-        <v>34</v>
-      </c>
-      <c r="I15" s="11">
-        <v>57</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
+        <v>87</v>
+      </c>
+      <c r="S15" s="11">
+        <v>89</v>
+      </c>
+      <c r="T15" s="11">
+        <v>55</v>
+      </c>
+      <c r="U15" s="11">
+        <v>58</v>
+      </c>
+      <c r="V15" s="11">
+        <v>66</v>
+      </c>
+      <c r="W15" s="11">
+        <v>64</v>
+      </c>
+      <c r="X15" s="11">
+        <v>83</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>58</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="11">
         <v>67</v>
       </c>
-      <c r="K15" s="11">
-        <v>68</v>
-      </c>
-      <c r="L15" s="11">
-        <v>43</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="AB15" s="11">
+        <v>51</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>52</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>94</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>72</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>53</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>65</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>76</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>72</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>66</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>57</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>92</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>69</v>
+      </c>
+      <c r="AO15" s="11">
         <v>77</v>
       </c>
-      <c r="N15" s="11">
-        <v>51</v>
-      </c>
-      <c r="O15" s="11">
-        <v>73</v>
-      </c>
-      <c r="P15" s="11">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>56</v>
-      </c>
-      <c r="R15" s="11">
-        <v>68</v>
-      </c>
-      <c r="S15" s="11">
-        <v>36</v>
-      </c>
-      <c r="T15" s="11">
-        <v>87</v>
-      </c>
-      <c r="U15" s="11">
-        <v>89</v>
-      </c>
-      <c r="V15" s="11">
-        <v>55</v>
-      </c>
-      <c r="W15" s="11">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11">
+      <c r="AP15" s="11">
+        <v>81</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>61</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>50</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>78</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>102</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>54</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>85</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>61</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>65</v>
+      </c>
+      <c r="AY15" s="11">
         <v>66</v>
       </c>
-      <c r="Y15" s="11">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="11">
+      <c r="AZ15" s="11">
         <v>83</v>
       </c>
-      <c r="AA15" s="11">
-        <v>58</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>63</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>67</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>51</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>52</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>94</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>74</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>72</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>53</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>65</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>76</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>72</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>66</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>57</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>92</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>69</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>77</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>81</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>61</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>50</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>78</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>102</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>54</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>85</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>61</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>65</v>
-      </c>
       <c r="BA15" s="11">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="BB15" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2184,157 +2219,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>107182</v>
+        <v>93932</v>
       </c>
       <c r="F16" s="13">
-        <v>103660</v>
+        <v>102376</v>
       </c>
       <c r="G16" s="13">
-        <v>93932</v>
+        <v>104503</v>
       </c>
       <c r="H16" s="13">
-        <v>102376</v>
+        <v>88089</v>
       </c>
       <c r="I16" s="13">
-        <v>104503</v>
+        <v>90068</v>
       </c>
       <c r="J16" s="13">
-        <v>88089</v>
+        <v>102856</v>
       </c>
       <c r="K16" s="13">
-        <v>90068</v>
+        <v>101564</v>
       </c>
       <c r="L16" s="13">
-        <v>102856</v>
+        <v>95418</v>
       </c>
       <c r="M16" s="13">
-        <v>101564</v>
+        <v>100842</v>
       </c>
       <c r="N16" s="13">
-        <v>95418</v>
+        <v>85376</v>
       </c>
       <c r="O16" s="13">
-        <v>100842</v>
+        <v>107643</v>
       </c>
       <c r="P16" s="13">
-        <v>85376</v>
+        <v>102416</v>
       </c>
       <c r="Q16" s="13">
-        <v>107643</v>
+        <v>100873</v>
       </c>
       <c r="R16" s="13">
-        <v>102416</v>
+        <v>99899</v>
       </c>
       <c r="S16" s="13">
-        <v>100873</v>
+        <v>101751</v>
       </c>
       <c r="T16" s="13">
-        <v>99899</v>
+        <v>95322</v>
       </c>
       <c r="U16" s="13">
-        <v>101751</v>
-      </c>
-      <c r="V16" s="13">
-        <v>95322</v>
+        <v>86167</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W16" s="13">
-        <v>86167</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>100627</v>
       </c>
       <c r="Y16" s="13">
-        <v>0</v>
+        <v>93919</v>
       </c>
       <c r="Z16" s="13">
-        <v>100627</v>
+        <v>89014</v>
       </c>
       <c r="AA16" s="13">
-        <v>93919</v>
+        <v>106617</v>
       </c>
       <c r="AB16" s="13">
-        <v>89014</v>
+        <v>107191</v>
       </c>
       <c r="AC16" s="13">
-        <v>106617</v>
+        <v>97663</v>
       </c>
       <c r="AD16" s="13">
-        <v>107191</v>
+        <v>100965</v>
       </c>
       <c r="AE16" s="13">
-        <v>97663</v>
+        <v>92796</v>
       </c>
       <c r="AF16" s="13">
-        <v>100965</v>
+        <v>100024</v>
       </c>
       <c r="AG16" s="13">
-        <v>92796</v>
+        <v>101965</v>
       </c>
       <c r="AH16" s="13">
-        <v>100024</v>
+        <v>108354</v>
       </c>
       <c r="AI16" s="13">
-        <v>101965</v>
+        <v>108356</v>
       </c>
       <c r="AJ16" s="13">
-        <v>108354</v>
+        <v>106108</v>
       </c>
       <c r="AK16" s="13">
-        <v>108356</v>
+        <v>79658</v>
       </c>
       <c r="AL16" s="13">
-        <v>106108</v>
+        <v>88557</v>
       </c>
       <c r="AM16" s="13">
-        <v>79658</v>
+        <v>115257</v>
       </c>
       <c r="AN16" s="13">
-        <v>88557</v>
+        <v>111829</v>
       </c>
       <c r="AO16" s="13">
-        <v>115257</v>
+        <v>101670</v>
       </c>
       <c r="AP16" s="13">
-        <v>111829</v>
+        <v>104391</v>
       </c>
       <c r="AQ16" s="13">
-        <v>101670</v>
+        <v>105388</v>
       </c>
       <c r="AR16" s="13">
-        <v>104391</v>
+        <v>98269</v>
       </c>
       <c r="AS16" s="13">
-        <v>105388</v>
+        <v>99334</v>
       </c>
       <c r="AT16" s="13">
-        <v>98269</v>
+        <v>111237</v>
       </c>
       <c r="AU16" s="13">
-        <v>99334</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="13">
-        <v>111237</v>
+        <v>216371</v>
       </c>
       <c r="AW16" s="13">
-        <v>0</v>
+        <v>90273</v>
       </c>
       <c r="AX16" s="13">
-        <v>216371</v>
+        <v>86302</v>
       </c>
       <c r="AY16" s="13">
-        <v>90273</v>
+        <v>110966</v>
       </c>
       <c r="AZ16" s="13">
-        <v>86302</v>
+        <v>-3219</v>
       </c>
       <c r="BA16" s="13">
-        <v>110966</v>
+        <v>89625</v>
       </c>
       <c r="BB16" s="13">
-        <v>100151</v>
+        <v>94606</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2343,157 +2378,157 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>20897</v>
+        <v>21475</v>
       </c>
       <c r="F17" s="11">
-        <v>22286</v>
+        <v>20540</v>
       </c>
       <c r="G17" s="11">
-        <v>21475</v>
+        <v>21029</v>
       </c>
       <c r="H17" s="11">
-        <v>20540</v>
+        <v>23404</v>
       </c>
       <c r="I17" s="11">
-        <v>21029</v>
+        <v>23955</v>
       </c>
       <c r="J17" s="11">
-        <v>23404</v>
+        <v>21707</v>
       </c>
       <c r="K17" s="11">
-        <v>23955</v>
+        <v>23438</v>
       </c>
       <c r="L17" s="11">
-        <v>21707</v>
+        <v>22328</v>
       </c>
       <c r="M17" s="11">
-        <v>23438</v>
+        <v>22944</v>
       </c>
       <c r="N17" s="11">
-        <v>22328</v>
+        <v>19973</v>
       </c>
       <c r="O17" s="11">
-        <v>22944</v>
+        <v>22034</v>
       </c>
       <c r="P17" s="11">
-        <v>19973</v>
+        <v>21790</v>
       </c>
       <c r="Q17" s="11">
-        <v>22034</v>
+        <v>19578</v>
       </c>
       <c r="R17" s="11">
-        <v>21790</v>
+        <v>15894</v>
       </c>
       <c r="S17" s="11">
-        <v>19578</v>
+        <v>15702</v>
       </c>
       <c r="T17" s="11">
-        <v>15894</v>
+        <v>18945</v>
       </c>
       <c r="U17" s="11">
-        <v>15702</v>
+        <v>25800</v>
       </c>
       <c r="V17" s="11">
-        <v>18945</v>
+        <v>17961</v>
       </c>
       <c r="W17" s="11">
-        <v>25800</v>
+        <v>25228</v>
       </c>
       <c r="X17" s="11">
-        <v>17961</v>
+        <v>34898</v>
       </c>
       <c r="Y17" s="11">
-        <v>25228</v>
+        <v>33342</v>
       </c>
       <c r="Z17" s="11">
-        <v>34898</v>
+        <v>13350</v>
       </c>
       <c r="AA17" s="11">
-        <v>33342</v>
+        <v>24199</v>
       </c>
       <c r="AB17" s="11">
-        <v>13350</v>
+        <v>22830</v>
       </c>
       <c r="AC17" s="11">
-        <v>24199</v>
+        <v>20567</v>
       </c>
       <c r="AD17" s="11">
-        <v>22830</v>
+        <v>23480</v>
       </c>
       <c r="AE17" s="11">
-        <v>20567</v>
+        <v>24341</v>
       </c>
       <c r="AF17" s="11">
-        <v>23480</v>
+        <v>24667</v>
       </c>
       <c r="AG17" s="11">
-        <v>24341</v>
+        <v>24496</v>
       </c>
       <c r="AH17" s="11">
-        <v>24667</v>
+        <v>24615</v>
       </c>
       <c r="AI17" s="11">
-        <v>24496</v>
+        <v>25373</v>
       </c>
       <c r="AJ17" s="11">
-        <v>24615</v>
+        <v>25591</v>
       </c>
       <c r="AK17" s="11">
-        <v>25373</v>
+        <v>21534</v>
       </c>
       <c r="AL17" s="11">
-        <v>25591</v>
+        <v>19398</v>
       </c>
       <c r="AM17" s="11">
-        <v>21534</v>
+        <v>26818</v>
       </c>
       <c r="AN17" s="11">
-        <v>19398</v>
+        <v>23462</v>
       </c>
       <c r="AO17" s="11">
-        <v>26818</v>
+        <v>23995</v>
       </c>
       <c r="AP17" s="11">
-        <v>23462</v>
+        <v>24560</v>
       </c>
       <c r="AQ17" s="11">
-        <v>23995</v>
+        <v>22698</v>
       </c>
       <c r="AR17" s="11">
-        <v>24560</v>
+        <v>20454</v>
       </c>
       <c r="AS17" s="11">
-        <v>22698</v>
+        <v>25515</v>
       </c>
       <c r="AT17" s="11">
-        <v>20454</v>
+        <v>25145</v>
       </c>
       <c r="AU17" s="11">
-        <v>25515</v>
+        <v>24696</v>
       </c>
       <c r="AV17" s="11">
-        <v>25145</v>
+        <v>25643</v>
       </c>
       <c r="AW17" s="11">
-        <v>24696</v>
+        <v>23682</v>
       </c>
       <c r="AX17" s="11">
-        <v>25643</v>
+        <v>16311</v>
       </c>
       <c r="AY17" s="11">
-        <v>23682</v>
+        <v>27953</v>
       </c>
       <c r="AZ17" s="11">
-        <v>16311</v>
+        <v>25208</v>
       </c>
       <c r="BA17" s="11">
-        <v>27953</v>
+        <v>26013</v>
       </c>
       <c r="BB17" s="11">
-        <v>25208</v>
+        <v>26029</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2502,40 +2537,40 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>4452</v>
+        <v>2258</v>
       </c>
       <c r="F18" s="13">
-        <v>3641</v>
+        <v>1227</v>
       </c>
       <c r="G18" s="13">
-        <v>2258</v>
+        <v>0</v>
       </c>
       <c r="H18" s="13">
-        <v>1227</v>
+        <v>2140</v>
       </c>
       <c r="I18" s="13">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="J18" s="13">
-        <v>2140</v>
+        <v>0</v>
       </c>
       <c r="K18" s="13">
-        <v>4190</v>
+        <v>1930</v>
       </c>
       <c r="L18" s="13">
-        <v>0</v>
+        <v>2942</v>
       </c>
       <c r="M18" s="13">
-        <v>1930</v>
+        <v>453</v>
       </c>
       <c r="N18" s="13">
-        <v>2942</v>
+        <v>307</v>
       </c>
       <c r="O18" s="13">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="P18" s="13">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
@@ -2559,19 +2594,19 @@
         <v>0</v>
       </c>
       <c r="X18" s="13">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="Z18" s="13">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="AA18" s="13">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="13">
         <v>0</v>
@@ -2588,17 +2623,17 @@
       <c r="AG18" s="13">
         <v>0</v>
       </c>
-      <c r="AH18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>57</v>
+      <c r="AH18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
       </c>
       <c r="AL18" s="13">
         <v>0</v>
@@ -2624,11 +2659,11 @@
       <c r="AS18" s="13">
         <v>0</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>0</v>
+      <c r="AT18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV18" s="13" t="s">
         <v>57</v>
@@ -2652,7 +2687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2714,104 +2749,104 @@
       <c r="V19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>57</v>
+      <c r="W19" s="11">
+        <v>40</v>
+      </c>
+      <c r="X19" s="11">
+        <v>40</v>
       </c>
       <c r="Y19" s="11">
+        <v>148</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>160</v>
+      </c>
+      <c r="AB19" s="11">
         <v>40</v>
       </c>
-      <c r="Z19" s="11">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>148</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>0</v>
-      </c>
       <c r="AC19" s="11">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AD19" s="11">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="AE19" s="11">
+        <v>90</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>381</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>99</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI19" s="11">
         <v>194</v>
       </c>
-      <c r="AF19" s="11">
-        <v>59</v>
-      </c>
-      <c r="AG19" s="11">
+      <c r="AJ19" s="11">
+        <v>91</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>87</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>92</v>
+      </c>
+      <c r="AM19" s="11">
         <v>90</v>
       </c>
-      <c r="AH19" s="11">
-        <v>381</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>99</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>194</v>
-      </c>
-      <c r="AL19" s="11">
+      <c r="AN19" s="11">
+        <v>89</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>92</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>96</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>89</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>86</v>
+      </c>
+      <c r="AS19" s="11">
         <v>91</v>
       </c>
-      <c r="AM19" s="11">
-        <v>87</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>92</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>90</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>89</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>92</v>
-      </c>
-      <c r="AR19" s="11">
+      <c r="AT19" s="11">
         <v>96</v>
       </c>
-      <c r="AS19" s="11">
-        <v>89</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>86</v>
-      </c>
       <c r="AU19" s="11">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="AV19" s="11">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="11">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="AX19" s="11">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="AY19" s="11">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AZ19" s="11">
         <v>120</v>
       </c>
       <c r="BA19" s="11">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="BB19" s="11">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2960,17 +2995,17 @@
       <c r="AY20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA20" s="13" t="s">
-        <v>57</v>
+      <c r="AZ20" s="13">
+        <v>513340</v>
+      </c>
+      <c r="BA20" s="13">
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
-        <v>513340</v>
+        <v>39203</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
@@ -3027,7 +3062,7 @@
       <c r="BA21" s="15"/>
       <c r="BB21" s="15"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3093,11 +3128,11 @@
       <c r="X22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>57</v>
+      <c r="Y22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>0</v>
       </c>
       <c r="AA22" s="17">
         <v>0</v>
@@ -3184,164 +3219,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19">
-        <v>5000085</v>
+        <v>4166873</v>
       </c>
       <c r="F23" s="19">
-        <v>4861318</v>
+        <v>4780139</v>
       </c>
       <c r="G23" s="19">
-        <v>4166873</v>
+        <v>4844370</v>
       </c>
       <c r="H23" s="19">
-        <v>4780139</v>
+        <v>3883194</v>
       </c>
       <c r="I23" s="19">
-        <v>4844370</v>
+        <v>4353563</v>
       </c>
       <c r="J23" s="19">
-        <v>3883194</v>
+        <v>4911024</v>
       </c>
       <c r="K23" s="19">
-        <v>4353563</v>
+        <v>5005357</v>
       </c>
       <c r="L23" s="19">
-        <v>4911024</v>
+        <v>4169279</v>
       </c>
       <c r="M23" s="19">
-        <v>5005357</v>
+        <v>5015451</v>
       </c>
       <c r="N23" s="19">
-        <v>4169279</v>
+        <v>4075161</v>
       </c>
       <c r="O23" s="19">
-        <v>5015451</v>
+        <v>4760528</v>
       </c>
       <c r="P23" s="19">
-        <v>4075161</v>
+        <v>4963569</v>
       </c>
       <c r="Q23" s="19">
-        <v>4760528</v>
+        <v>4566256</v>
       </c>
       <c r="R23" s="19">
-        <v>4963569</v>
+        <v>4746403</v>
       </c>
       <c r="S23" s="19">
-        <v>4566256</v>
+        <v>4538534</v>
       </c>
       <c r="T23" s="19">
-        <v>4746403</v>
+        <v>4364955</v>
       </c>
       <c r="U23" s="19">
-        <v>4538534</v>
+        <v>4075217</v>
       </c>
       <c r="V23" s="19">
-        <v>4364955</v>
+        <v>34652</v>
       </c>
       <c r="W23" s="19">
-        <v>4075217</v>
+        <v>43038</v>
       </c>
       <c r="X23" s="19">
-        <v>34652</v>
+        <v>4855876</v>
       </c>
       <c r="Y23" s="19">
-        <v>43038</v>
+        <v>4212090</v>
       </c>
       <c r="Z23" s="19">
-        <v>4855876</v>
+        <v>4231563</v>
       </c>
       <c r="AA23" s="19">
-        <v>4212090</v>
+        <v>4807443</v>
       </c>
       <c r="AB23" s="19">
-        <v>4231563</v>
+        <v>4897164</v>
       </c>
       <c r="AC23" s="19">
-        <v>4807443</v>
+        <v>4527837</v>
       </c>
       <c r="AD23" s="19">
-        <v>4897164</v>
+        <v>4541910</v>
       </c>
       <c r="AE23" s="19">
-        <v>4527837</v>
+        <v>4221521</v>
       </c>
       <c r="AF23" s="19">
-        <v>4541910</v>
+        <v>4995010</v>
       </c>
       <c r="AG23" s="19">
-        <v>4221521</v>
+        <v>4797074</v>
       </c>
       <c r="AH23" s="19">
+        <v>5044789</v>
+      </c>
+      <c r="AI23" s="19">
+        <v>5036751</v>
+      </c>
+      <c r="AJ23" s="19">
+        <v>5104620</v>
+      </c>
+      <c r="AK23" s="19">
+        <v>3401659</v>
+      </c>
+      <c r="AL23" s="19">
+        <v>4364643</v>
+      </c>
+      <c r="AM23" s="19">
+        <v>5322827</v>
+      </c>
+      <c r="AN23" s="19">
+        <v>5209301</v>
+      </c>
+      <c r="AO23" s="19">
+        <v>4827721</v>
+      </c>
+      <c r="AP23" s="19">
+        <v>4548801</v>
+      </c>
+      <c r="AQ23" s="19">
+        <v>4644685</v>
+      </c>
+      <c r="AR23" s="19">
+        <v>4398407</v>
+      </c>
+      <c r="AS23" s="19">
+        <v>4497575</v>
+      </c>
+      <c r="AT23" s="19">
+        <v>227949</v>
+      </c>
+      <c r="AU23" s="19">
         <v>4995010</v>
       </c>
-      <c r="AI23" s="19">
-        <v>4797074</v>
-      </c>
-      <c r="AJ23" s="19">
-        <v>5044789</v>
-      </c>
-      <c r="AK23" s="19">
-        <v>5036751</v>
-      </c>
-      <c r="AL23" s="19">
-        <v>5104620</v>
-      </c>
-      <c r="AM23" s="19">
-        <v>3401659</v>
-      </c>
-      <c r="AN23" s="19">
-        <v>4364643</v>
-      </c>
-      <c r="AO23" s="19">
-        <v>5322827</v>
-      </c>
-      <c r="AP23" s="19">
-        <v>5209301</v>
-      </c>
-      <c r="AQ23" s="19">
-        <v>4827721</v>
-      </c>
-      <c r="AR23" s="19">
-        <v>4548801</v>
-      </c>
-      <c r="AS23" s="19">
-        <v>4644685</v>
-      </c>
-      <c r="AT23" s="19">
-        <v>4398407</v>
-      </c>
-      <c r="AU23" s="19">
-        <v>4497575</v>
-      </c>
       <c r="AV23" s="19">
-        <v>227949</v>
+        <v>10035598</v>
       </c>
       <c r="AW23" s="19">
-        <v>4995010</v>
+        <v>3924864</v>
       </c>
       <c r="AX23" s="19">
-        <v>10035598</v>
+        <v>4273584</v>
       </c>
       <c r="AY23" s="19">
-        <v>3924864</v>
+        <v>5174136</v>
       </c>
       <c r="AZ23" s="19">
-        <v>4273584</v>
+        <v>5631609</v>
       </c>
       <c r="BA23" s="19">
-        <v>5174136</v>
+        <v>5015283</v>
       </c>
       <c r="BB23" s="19">
-        <v>5734979</v>
+        <v>4985525</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3396,7 +3431,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3451,7 +3486,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3506,7 +3541,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>70</v>
       </c>
@@ -3663,7 +3698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3718,7 +3753,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>70</v>
       </c>
@@ -3775,7 +3810,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3784,157 +3819,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>7878</v>
+        <v>9574</v>
       </c>
       <c r="F30" s="11">
-        <v>7145</v>
+        <v>1455</v>
       </c>
       <c r="G30" s="11">
-        <v>9574</v>
+        <v>8133</v>
       </c>
       <c r="H30" s="11">
-        <v>1455</v>
+        <v>9499</v>
       </c>
       <c r="I30" s="11">
-        <v>8133</v>
+        <v>28578</v>
       </c>
       <c r="J30" s="11">
-        <v>9499</v>
+        <v>20</v>
       </c>
       <c r="K30" s="11">
-        <v>28578</v>
+        <v>2004</v>
       </c>
       <c r="L30" s="11">
-        <v>20</v>
+        <v>3561</v>
       </c>
       <c r="M30" s="11">
-        <v>2004</v>
+        <v>22647</v>
       </c>
       <c r="N30" s="11">
-        <v>3561</v>
+        <v>3706</v>
       </c>
       <c r="O30" s="11">
-        <v>22647</v>
+        <v>11007</v>
       </c>
       <c r="P30" s="11">
-        <v>3706</v>
+        <v>5548</v>
       </c>
       <c r="Q30" s="11">
-        <v>11007</v>
+        <v>19977</v>
       </c>
       <c r="R30" s="11">
-        <v>5548</v>
+        <v>16197</v>
       </c>
       <c r="S30" s="11">
-        <v>19977</v>
+        <v>6154</v>
       </c>
       <c r="T30" s="11">
-        <v>16197</v>
+        <v>20658</v>
       </c>
       <c r="U30" s="11">
-        <v>6154</v>
+        <v>27632</v>
       </c>
       <c r="V30" s="11">
-        <v>20658</v>
+        <v>0</v>
       </c>
       <c r="W30" s="11">
-        <v>27632</v>
+        <v>0</v>
       </c>
       <c r="X30" s="11">
-        <v>0</v>
+        <v>34675</v>
       </c>
       <c r="Y30" s="11">
-        <v>0</v>
+        <v>25133</v>
       </c>
       <c r="Z30" s="11">
-        <v>34675</v>
+        <v>4451</v>
       </c>
       <c r="AA30" s="11">
-        <v>25133</v>
+        <v>13665</v>
       </c>
       <c r="AB30" s="11">
-        <v>4451</v>
+        <v>22494</v>
       </c>
       <c r="AC30" s="11">
-        <v>13665</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="11">
-        <v>22494</v>
+        <v>19180</v>
       </c>
       <c r="AE30" s="11">
-        <v>0</v>
+        <v>20466</v>
       </c>
       <c r="AF30" s="11">
-        <v>19180</v>
+        <v>20599</v>
       </c>
       <c r="AG30" s="11">
-        <v>20466</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>20599</v>
+        <v>55208</v>
+      </c>
+      <c r="AH30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI30" s="11">
-        <v>55208</v>
-      </c>
-      <c r="AJ30" s="11" t="s">
-        <v>57</v>
+        <v>6256</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>3912</v>
       </c>
       <c r="AK30" s="11">
-        <v>6256</v>
+        <v>2006</v>
       </c>
       <c r="AL30" s="11">
-        <v>3912</v>
+        <v>31256</v>
       </c>
       <c r="AM30" s="11">
-        <v>2006</v>
+        <v>4534</v>
       </c>
       <c r="AN30" s="11">
-        <v>31256</v>
+        <v>44616</v>
       </c>
       <c r="AO30" s="11">
-        <v>4534</v>
+        <v>22847</v>
       </c>
       <c r="AP30" s="11">
-        <v>44616</v>
+        <v>7833</v>
       </c>
       <c r="AQ30" s="11">
-        <v>22847</v>
+        <v>6670</v>
       </c>
       <c r="AR30" s="11">
-        <v>7833</v>
+        <v>829</v>
       </c>
       <c r="AS30" s="11">
-        <v>6670</v>
-      </c>
-      <c r="AT30" s="11">
-        <v>829</v>
+        <v>9811</v>
+      </c>
+      <c r="AT30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU30" s="11">
-        <v>9811</v>
-      </c>
-      <c r="AV30" s="11" t="s">
-        <v>57</v>
+        <v>4122</v>
+      </c>
+      <c r="AV30" s="11">
+        <v>9397</v>
       </c>
       <c r="AW30" s="11">
-        <v>4246</v>
+        <v>6663</v>
       </c>
       <c r="AX30" s="11">
-        <v>9397</v>
+        <v>17129</v>
       </c>
       <c r="AY30" s="11">
-        <v>6663</v>
+        <v>11467</v>
       </c>
       <c r="AZ30" s="11">
-        <v>17129</v>
+        <v>15009</v>
       </c>
       <c r="BA30" s="11">
-        <v>11467</v>
+        <v>7119</v>
       </c>
       <c r="BB30" s="11">
-        <v>15009</v>
+        <v>24153</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>58</v>
       </c>
@@ -3943,157 +3978,157 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>198</v>
+        <v>527</v>
       </c>
       <c r="F31" s="13">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="G31" s="13">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="H31" s="13">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="I31" s="13">
+        <v>424</v>
+      </c>
+      <c r="J31" s="13">
+        <v>204</v>
+      </c>
+      <c r="K31" s="13">
+        <v>458</v>
+      </c>
+      <c r="L31" s="13">
+        <v>507</v>
+      </c>
+      <c r="M31" s="13">
+        <v>619</v>
+      </c>
+      <c r="N31" s="13">
+        <v>466</v>
+      </c>
+      <c r="O31" s="13">
+        <v>573</v>
+      </c>
+      <c r="P31" s="13">
+        <v>423</v>
+      </c>
+      <c r="Q31" s="13">
         <v>544</v>
       </c>
-      <c r="J31" s="13">
-        <v>398</v>
-      </c>
-      <c r="K31" s="13">
-        <v>424</v>
-      </c>
-      <c r="L31" s="13">
-        <v>204</v>
-      </c>
-      <c r="M31" s="13">
-        <v>458</v>
-      </c>
-      <c r="N31" s="13">
-        <v>507</v>
-      </c>
-      <c r="O31" s="13">
-        <v>619</v>
-      </c>
-      <c r="P31" s="13">
-        <v>466</v>
-      </c>
-      <c r="Q31" s="13">
+      <c r="R31" s="13">
+        <v>449</v>
+      </c>
+      <c r="S31" s="13">
+        <v>552</v>
+      </c>
+      <c r="T31" s="13">
+        <v>670</v>
+      </c>
+      <c r="U31" s="13">
+        <v>550</v>
+      </c>
+      <c r="V31" s="13">
+        <v>130</v>
+      </c>
+      <c r="W31" s="13">
+        <v>630</v>
+      </c>
+      <c r="X31" s="13">
+        <v>1050</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>629</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>409</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>542</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>449</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>502</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>528</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>455</v>
+      </c>
+      <c r="AF31" s="13">
         <v>573</v>
       </c>
-      <c r="R31" s="13">
-        <v>423</v>
-      </c>
-      <c r="S31" s="13">
-        <v>544</v>
-      </c>
-      <c r="T31" s="13">
-        <v>449</v>
-      </c>
-      <c r="U31" s="13">
-        <v>552</v>
-      </c>
-      <c r="V31" s="13">
-        <v>670</v>
-      </c>
-      <c r="W31" s="13">
-        <v>550</v>
-      </c>
-      <c r="X31" s="13">
-        <v>130</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>630</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>1050</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>629</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>409</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>542</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>449</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>502</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>528</v>
-      </c>
       <c r="AG31" s="13">
-        <v>455</v>
+        <v>643</v>
       </c>
       <c r="AH31" s="13">
-        <v>573</v>
+        <v>239</v>
       </c>
       <c r="AI31" s="13">
-        <v>643</v>
+        <v>533</v>
       </c>
       <c r="AJ31" s="13">
-        <v>239</v>
+        <v>623</v>
       </c>
       <c r="AK31" s="13">
-        <v>533</v>
+        <v>372</v>
       </c>
       <c r="AL31" s="13">
-        <v>623</v>
+        <v>569</v>
       </c>
       <c r="AM31" s="13">
-        <v>372</v>
+        <v>728</v>
       </c>
       <c r="AN31" s="13">
-        <v>569</v>
+        <v>430</v>
       </c>
       <c r="AO31" s="13">
-        <v>728</v>
+        <v>598</v>
       </c>
       <c r="AP31" s="13">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AQ31" s="13">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="AR31" s="13">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="AS31" s="13">
-        <v>563</v>
+        <v>750</v>
       </c>
       <c r="AT31" s="13">
-        <v>532</v>
+        <v>269</v>
       </c>
       <c r="AU31" s="13">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="AV31" s="13">
-        <v>269</v>
+        <v>582</v>
       </c>
       <c r="AW31" s="13">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="AX31" s="13">
-        <v>582</v>
+        <v>410</v>
       </c>
       <c r="AY31" s="13">
-        <v>547</v>
+        <v>850</v>
       </c>
       <c r="AZ31" s="13">
-        <v>410</v>
+        <v>745</v>
       </c>
       <c r="BA31" s="13">
-        <v>850</v>
+        <v>715</v>
       </c>
       <c r="BB31" s="13">
-        <v>745</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
@@ -4102,157 +4137,157 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>2420</v>
+        <v>91849</v>
       </c>
       <c r="F32" s="11">
-        <v>106618</v>
+        <v>100163</v>
       </c>
       <c r="G32" s="11">
-        <v>91849</v>
+        <v>11317</v>
       </c>
       <c r="H32" s="11">
-        <v>100163</v>
+        <v>155381</v>
       </c>
       <c r="I32" s="11">
-        <v>11317</v>
+        <v>390743</v>
       </c>
       <c r="J32" s="11">
-        <v>155381</v>
+        <v>0</v>
       </c>
       <c r="K32" s="11">
-        <v>390743</v>
+        <v>0</v>
       </c>
       <c r="L32" s="11">
-        <v>0</v>
+        <v>93612</v>
       </c>
       <c r="M32" s="11">
         <v>0</v>
       </c>
       <c r="N32" s="11">
-        <v>93612</v>
+        <v>174745</v>
       </c>
       <c r="O32" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P32" s="11">
-        <v>174745</v>
+        <v>118716</v>
       </c>
       <c r="Q32" s="11">
-        <v>6</v>
+        <v>99344</v>
       </c>
       <c r="R32" s="11">
-        <v>118716</v>
+        <v>111189</v>
       </c>
       <c r="S32" s="11">
-        <v>99344</v>
+        <v>84542</v>
       </c>
       <c r="T32" s="11">
-        <v>111189</v>
+        <v>72137</v>
       </c>
       <c r="U32" s="11">
-        <v>84542</v>
-      </c>
-      <c r="V32" s="11">
-        <v>72137</v>
-      </c>
-      <c r="W32" s="11">
         <v>355240</v>
       </c>
-      <c r="X32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>57</v>
+      <c r="V32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X32" s="11">
+        <v>75666</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>100645</v>
       </c>
       <c r="Z32" s="11">
-        <v>75666</v>
+        <v>72220</v>
       </c>
       <c r="AA32" s="11">
-        <v>100645</v>
+        <v>13288</v>
       </c>
       <c r="AB32" s="11">
-        <v>72220</v>
+        <v>78634</v>
       </c>
       <c r="AC32" s="11">
-        <v>13288</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="11">
-        <v>78634</v>
+        <v>241685</v>
       </c>
       <c r="AE32" s="11">
-        <v>0</v>
+        <v>10570</v>
       </c>
       <c r="AF32" s="11">
-        <v>241685</v>
+        <v>102529</v>
       </c>
       <c r="AG32" s="11">
-        <v>10570</v>
+        <v>686156</v>
       </c>
       <c r="AH32" s="11">
-        <v>102529</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="11">
-        <v>686156</v>
+        <v>938</v>
       </c>
       <c r="AJ32" s="11">
-        <v>0</v>
+        <v>404758</v>
       </c>
       <c r="AK32" s="11">
-        <v>938</v>
+        <v>42517</v>
       </c>
       <c r="AL32" s="11">
-        <v>404758</v>
+        <v>77347</v>
       </c>
       <c r="AM32" s="11">
-        <v>42517</v>
+        <v>321397</v>
       </c>
       <c r="AN32" s="11">
-        <v>77347</v>
+        <v>82484</v>
       </c>
       <c r="AO32" s="11">
-        <v>321397</v>
+        <v>172462</v>
       </c>
       <c r="AP32" s="11">
-        <v>82484</v>
+        <v>74441</v>
       </c>
       <c r="AQ32" s="11">
-        <v>172462</v>
+        <v>211438</v>
       </c>
       <c r="AR32" s="11">
-        <v>74441</v>
+        <v>186200</v>
       </c>
       <c r="AS32" s="11">
-        <v>211438</v>
+        <v>193595</v>
       </c>
       <c r="AT32" s="11">
-        <v>186200</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="11">
-        <v>193595</v>
+        <v>378724</v>
       </c>
       <c r="AV32" s="11">
-        <v>0</v>
+        <v>45935</v>
       </c>
       <c r="AW32" s="11">
-        <v>349653</v>
+        <v>26597</v>
       </c>
       <c r="AX32" s="11">
-        <v>45935</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="11">
-        <v>26597</v>
+        <v>230828</v>
       </c>
       <c r="AZ32" s="11">
-        <v>0</v>
+        <v>11814</v>
       </c>
       <c r="BA32" s="11">
-        <v>230828</v>
+        <v>722243</v>
       </c>
       <c r="BB32" s="11">
-        <v>11814</v>
+        <v>59002</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>60</v>
       </c>
@@ -4275,143 +4310,143 @@
       <c r="I33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>57</v>
+      <c r="J33" s="13">
+        <v>4863</v>
+      </c>
+      <c r="K33" s="13">
+        <v>18420</v>
       </c>
       <c r="L33" s="13">
-        <v>4863</v>
+        <v>24114</v>
       </c>
       <c r="M33" s="13">
-        <v>18420</v>
+        <v>22877</v>
       </c>
       <c r="N33" s="13">
-        <v>24114</v>
+        <v>20196</v>
       </c>
       <c r="O33" s="13">
-        <v>22877</v>
+        <v>13092</v>
       </c>
       <c r="P33" s="13">
-        <v>20196</v>
+        <v>12135</v>
       </c>
       <c r="Q33" s="13">
-        <v>13092</v>
+        <v>12812</v>
       </c>
       <c r="R33" s="13">
-        <v>12135</v>
+        <v>12363</v>
       </c>
       <c r="S33" s="13">
-        <v>12812</v>
+        <v>12821</v>
       </c>
       <c r="T33" s="13">
-        <v>12363</v>
+        <v>17598</v>
       </c>
       <c r="U33" s="13">
-        <v>12821</v>
+        <v>20158</v>
       </c>
       <c r="V33" s="13">
-        <v>17598</v>
+        <v>6907</v>
       </c>
       <c r="W33" s="13">
-        <v>20158</v>
+        <v>12684</v>
       </c>
       <c r="X33" s="13">
-        <v>6907</v>
+        <v>21061</v>
       </c>
       <c r="Y33" s="13">
-        <v>12684</v>
+        <v>8945</v>
       </c>
       <c r="Z33" s="13">
-        <v>21061</v>
+        <v>30026</v>
       </c>
       <c r="AA33" s="13">
-        <v>8945</v>
+        <v>24333</v>
       </c>
       <c r="AB33" s="13">
-        <v>30026</v>
+        <v>14417</v>
       </c>
       <c r="AC33" s="13">
-        <v>24333</v>
+        <v>10633</v>
       </c>
       <c r="AD33" s="13">
-        <v>14417</v>
+        <v>64784</v>
       </c>
       <c r="AE33" s="13">
-        <v>10633</v>
+        <v>61745</v>
       </c>
       <c r="AF33" s="13">
-        <v>64784</v>
+        <v>63149</v>
       </c>
       <c r="AG33" s="13">
-        <v>61745</v>
+        <v>87069</v>
       </c>
       <c r="AH33" s="13">
-        <v>63149</v>
+        <v>35532</v>
       </c>
       <c r="AI33" s="13">
-        <v>87069</v>
+        <v>84182</v>
       </c>
       <c r="AJ33" s="13">
-        <v>35532</v>
+        <v>66703</v>
       </c>
       <c r="AK33" s="13">
-        <v>84182</v>
+        <v>38353</v>
       </c>
       <c r="AL33" s="13">
-        <v>66703</v>
+        <v>56153</v>
       </c>
       <c r="AM33" s="13">
-        <v>38353</v>
+        <v>49476</v>
       </c>
       <c r="AN33" s="13">
-        <v>56153</v>
+        <v>42768</v>
       </c>
       <c r="AO33" s="13">
-        <v>49476</v>
+        <v>66188</v>
       </c>
       <c r="AP33" s="13">
-        <v>42768</v>
+        <v>79385</v>
       </c>
       <c r="AQ33" s="13">
-        <v>66188</v>
+        <v>73605</v>
       </c>
       <c r="AR33" s="13">
-        <v>79385</v>
+        <v>75633</v>
       </c>
       <c r="AS33" s="13">
-        <v>73605</v>
+        <v>78106</v>
       </c>
       <c r="AT33" s="13">
-        <v>75633</v>
+        <v>58540</v>
       </c>
       <c r="AU33" s="13">
-        <v>78106</v>
+        <v>85836</v>
       </c>
       <c r="AV33" s="13">
-        <v>58540</v>
+        <v>76284</v>
       </c>
       <c r="AW33" s="13">
-        <v>85836</v>
+        <v>62325</v>
       </c>
       <c r="AX33" s="13">
-        <v>76284</v>
+        <v>38458</v>
       </c>
       <c r="AY33" s="13">
-        <v>62325</v>
+        <v>61127</v>
       </c>
       <c r="AZ33" s="13">
-        <v>38458</v>
+        <v>51110</v>
       </c>
       <c r="BA33" s="13">
-        <v>61127</v>
+        <v>74359</v>
       </c>
       <c r="BB33" s="13">
-        <v>51110</v>
+        <v>66636</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>61</v>
       </c>
@@ -4420,157 +4455,157 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F34" s="11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G34" s="11">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H34" s="11">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I34" s="11">
+        <v>57</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>64</v>
+      </c>
+      <c r="L34" s="11">
+        <v>38</v>
+      </c>
+      <c r="M34" s="11">
+        <v>29</v>
+      </c>
+      <c r="N34" s="11">
+        <v>48</v>
+      </c>
+      <c r="O34" s="11">
+        <v>45</v>
+      </c>
+      <c r="P34" s="11">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="11">
         <v>42</v>
       </c>
-      <c r="J34" s="11">
-        <v>64</v>
-      </c>
-      <c r="K34" s="11">
-        <v>57</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>64</v>
-      </c>
-      <c r="N34" s="11">
+      <c r="R34" s="11">
+        <v>50</v>
+      </c>
+      <c r="S34" s="11">
+        <v>66</v>
+      </c>
+      <c r="T34" s="11">
+        <v>52</v>
+      </c>
+      <c r="U34" s="11">
+        <v>44</v>
+      </c>
+      <c r="V34" s="11">
+        <v>14</v>
+      </c>
+      <c r="W34" s="11">
+        <v>58</v>
+      </c>
+      <c r="X34" s="11">
+        <v>76</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>83</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>50</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>58</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>37</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>65</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>66</v>
+      </c>
+      <c r="AF34" s="11">
         <v>38</v>
       </c>
-      <c r="O34" s="11">
-        <v>29</v>
-      </c>
-      <c r="P34" s="11">
-        <v>48</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>45</v>
-      </c>
-      <c r="R34" s="11">
+      <c r="AG34" s="11">
+        <v>112</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="11">
         <v>44</v>
       </c>
-      <c r="S34" s="11">
-        <v>42</v>
-      </c>
-      <c r="T34" s="11">
-        <v>50</v>
-      </c>
-      <c r="U34" s="11">
-        <v>66</v>
-      </c>
-      <c r="V34" s="11">
+      <c r="AJ34" s="11">
+        <v>119</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>82</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>92</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>76</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>86</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>103</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>93</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>38</v>
+      </c>
+      <c r="AR34" s="11">
         <v>52</v>
       </c>
-      <c r="W34" s="11">
-        <v>44</v>
-      </c>
-      <c r="X34" s="11">
-        <v>14</v>
-      </c>
-      <c r="Y34" s="11">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="11">
-        <v>76</v>
-      </c>
-      <c r="AA34" s="11">
-        <v>83</v>
-      </c>
-      <c r="AB34" s="11">
-        <v>50</v>
-      </c>
-      <c r="AC34" s="11">
-        <v>58</v>
-      </c>
-      <c r="AD34" s="11">
-        <v>37</v>
-      </c>
-      <c r="AE34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>65</v>
-      </c>
-      <c r="AG34" s="11">
-        <v>66</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>38</v>
-      </c>
-      <c r="AI34" s="11">
-        <v>112</v>
-      </c>
-      <c r="AJ34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>44</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>119</v>
-      </c>
-      <c r="AM34" s="11">
-        <v>82</v>
-      </c>
-      <c r="AN34" s="11">
-        <v>92</v>
-      </c>
-      <c r="AO34" s="11">
-        <v>76</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>86</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>103</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>93</v>
-      </c>
       <c r="AS34" s="11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AT34" s="11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AU34" s="11">
         <v>34</v>
       </c>
       <c r="AV34" s="11">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="AW34" s="11">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AX34" s="11">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AY34" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AZ34" s="11">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="BA34" s="11">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="BB34" s="11">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>62</v>
       </c>
@@ -4582,154 +4617,154 @@
         <v>0</v>
       </c>
       <c r="F35" s="13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
       </c>
       <c r="H35" s="13">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="I35" s="13">
-        <v>0</v>
+        <v>1454</v>
       </c>
       <c r="J35" s="13">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>1454</v>
+        <v>68175</v>
       </c>
       <c r="L35" s="13">
-        <v>0</v>
+        <v>19430</v>
       </c>
       <c r="M35" s="13">
-        <v>68175</v>
+        <v>29568</v>
       </c>
       <c r="N35" s="13">
-        <v>19430</v>
+        <v>0</v>
       </c>
       <c r="O35" s="13">
-        <v>29568</v>
+        <v>2776</v>
       </c>
       <c r="P35" s="13">
-        <v>0</v>
+        <v>52157</v>
       </c>
       <c r="Q35" s="13">
-        <v>2776</v>
+        <v>2396</v>
       </c>
       <c r="R35" s="13">
-        <v>52157</v>
+        <v>0</v>
       </c>
       <c r="S35" s="13">
-        <v>2396</v>
+        <v>59953</v>
       </c>
       <c r="T35" s="13">
-        <v>0</v>
+        <v>1072</v>
       </c>
       <c r="U35" s="13">
-        <v>59953</v>
-      </c>
-      <c r="V35" s="13">
-        <v>1072</v>
+        <v>30503</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W35" s="13">
-        <v>30503</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="X35" s="13">
+        <v>3271</v>
       </c>
       <c r="Y35" s="13">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="Z35" s="13">
-        <v>3271</v>
+        <v>3869</v>
       </c>
       <c r="AA35" s="13">
-        <v>1180</v>
+        <v>1387</v>
       </c>
       <c r="AB35" s="13">
-        <v>3869</v>
+        <v>1115</v>
       </c>
       <c r="AC35" s="13">
-        <v>1387</v>
+        <v>466</v>
       </c>
       <c r="AD35" s="13">
-        <v>1115</v>
+        <v>1589</v>
       </c>
       <c r="AE35" s="13">
-        <v>466</v>
+        <v>25194</v>
       </c>
       <c r="AF35" s="13">
-        <v>1589</v>
+        <v>1850</v>
       </c>
       <c r="AG35" s="13">
-        <v>25194</v>
+        <v>2841</v>
       </c>
       <c r="AH35" s="13">
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="13">
-        <v>2841</v>
+        <v>445</v>
       </c>
       <c r="AJ35" s="13">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="AK35" s="13">
-        <v>445</v>
+        <v>3179</v>
       </c>
       <c r="AL35" s="13">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="13">
-        <v>3179</v>
+        <v>1857</v>
       </c>
       <c r="AN35" s="13">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="AO35" s="13">
-        <v>1857</v>
+        <v>1825</v>
       </c>
       <c r="AP35" s="13">
-        <v>952</v>
+        <v>1806</v>
       </c>
       <c r="AQ35" s="13">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="13">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="13">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="AT35" s="13">
         <v>0</v>
       </c>
       <c r="AU35" s="13">
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="13">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="AW35" s="13">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="AX35" s="13">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AY35" s="13">
-        <v>1367</v>
+        <v>1134</v>
       </c>
       <c r="AZ35" s="13">
-        <v>899</v>
+        <v>480</v>
       </c>
       <c r="BA35" s="13">
-        <v>1134</v>
+        <v>1399</v>
       </c>
       <c r="BB35" s="13">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>63</v>
       </c>
@@ -4738,157 +4773,157 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>7185</v>
+        <v>14749</v>
       </c>
       <c r="F36" s="11">
-        <v>6327</v>
+        <v>8861</v>
       </c>
       <c r="G36" s="11">
-        <v>14749</v>
+        <v>4564</v>
       </c>
       <c r="H36" s="11">
-        <v>8861</v>
+        <v>18346</v>
       </c>
       <c r="I36" s="11">
-        <v>4564</v>
+        <v>24431</v>
       </c>
       <c r="J36" s="11">
-        <v>18346</v>
+        <v>3768</v>
       </c>
       <c r="K36" s="11">
-        <v>24431</v>
+        <v>19428</v>
       </c>
       <c r="L36" s="11">
-        <v>3768</v>
+        <v>20644</v>
       </c>
       <c r="M36" s="11">
-        <v>19428</v>
+        <v>17478</v>
       </c>
       <c r="N36" s="11">
-        <v>20644</v>
+        <v>22818</v>
       </c>
       <c r="O36" s="11">
-        <v>17478</v>
+        <v>21586</v>
       </c>
       <c r="P36" s="11">
-        <v>22818</v>
+        <v>13491</v>
       </c>
       <c r="Q36" s="11">
-        <v>21586</v>
+        <v>23941</v>
       </c>
       <c r="R36" s="11">
-        <v>13491</v>
+        <v>29785</v>
       </c>
       <c r="S36" s="11">
-        <v>23941</v>
+        <v>22293</v>
       </c>
       <c r="T36" s="11">
-        <v>29785</v>
+        <v>22385</v>
       </c>
       <c r="U36" s="11">
-        <v>22293</v>
+        <v>21259</v>
       </c>
       <c r="V36" s="11">
-        <v>22385</v>
+        <v>8883</v>
       </c>
       <c r="W36" s="11">
-        <v>21259</v>
+        <v>35061</v>
       </c>
       <c r="X36" s="11">
-        <v>8883</v>
+        <v>32703</v>
       </c>
       <c r="Y36" s="11">
-        <v>35061</v>
+        <v>26695</v>
       </c>
       <c r="Z36" s="11">
-        <v>32703</v>
+        <v>22809</v>
       </c>
       <c r="AA36" s="11">
-        <v>26695</v>
+        <v>27317</v>
       </c>
       <c r="AB36" s="11">
-        <v>22809</v>
+        <v>19840</v>
       </c>
       <c r="AC36" s="11">
-        <v>27317</v>
+        <v>20135</v>
       </c>
       <c r="AD36" s="11">
-        <v>19840</v>
+        <v>22686</v>
       </c>
       <c r="AE36" s="11">
-        <v>20135</v>
+        <v>8180</v>
       </c>
       <c r="AF36" s="11">
-        <v>22686</v>
+        <v>15956</v>
       </c>
       <c r="AG36" s="11">
-        <v>8180</v>
+        <v>30993</v>
       </c>
       <c r="AH36" s="11">
-        <v>15956</v>
+        <v>6222</v>
       </c>
       <c r="AI36" s="11">
-        <v>30993</v>
+        <v>23171</v>
       </c>
       <c r="AJ36" s="11">
-        <v>6222</v>
+        <v>24945</v>
       </c>
       <c r="AK36" s="11">
-        <v>23171</v>
+        <v>33574</v>
       </c>
       <c r="AL36" s="11">
-        <v>24945</v>
+        <v>19343</v>
       </c>
       <c r="AM36" s="11">
-        <v>33574</v>
+        <v>35466</v>
       </c>
       <c r="AN36" s="11">
-        <v>19343</v>
+        <v>21432</v>
       </c>
       <c r="AO36" s="11">
-        <v>35466</v>
+        <v>27878</v>
       </c>
       <c r="AP36" s="11">
-        <v>21432</v>
+        <v>27583</v>
       </c>
       <c r="AQ36" s="11">
-        <v>27878</v>
+        <v>29230</v>
       </c>
       <c r="AR36" s="11">
-        <v>27583</v>
+        <v>31832</v>
       </c>
       <c r="AS36" s="11">
-        <v>29230</v>
+        <v>33740</v>
       </c>
       <c r="AT36" s="11">
-        <v>31832</v>
+        <v>15232</v>
       </c>
       <c r="AU36" s="11">
-        <v>33740</v>
+        <v>27921</v>
       </c>
       <c r="AV36" s="11">
-        <v>15232</v>
+        <v>34477</v>
       </c>
       <c r="AW36" s="11">
-        <v>27921</v>
+        <v>21133</v>
       </c>
       <c r="AX36" s="11">
-        <v>34477</v>
+        <v>16535</v>
       </c>
       <c r="AY36" s="11">
-        <v>21133</v>
+        <v>26341</v>
       </c>
       <c r="AZ36" s="11">
-        <v>16535</v>
+        <v>20125</v>
       </c>
       <c r="BA36" s="11">
-        <v>26341</v>
+        <v>22206</v>
       </c>
       <c r="BB36" s="11">
-        <v>20125</v>
+        <v>21425</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>64</v>
       </c>
@@ -4897,55 +4932,55 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>2543</v>
+        <v>1816</v>
       </c>
       <c r="F37" s="13">
-        <v>2514</v>
+        <v>1894</v>
       </c>
       <c r="G37" s="13">
-        <v>1816</v>
+        <v>879</v>
       </c>
       <c r="H37" s="13">
-        <v>1894</v>
+        <v>3524</v>
       </c>
       <c r="I37" s="13">
-        <v>879</v>
+        <v>2360</v>
       </c>
       <c r="J37" s="13">
-        <v>3524</v>
+        <v>973</v>
       </c>
       <c r="K37" s="13">
-        <v>2360</v>
+        <v>4025</v>
       </c>
       <c r="L37" s="13">
-        <v>973</v>
+        <v>1773</v>
       </c>
       <c r="M37" s="13">
-        <v>4025</v>
+        <v>694</v>
       </c>
       <c r="N37" s="13">
-        <v>1773</v>
+        <v>50</v>
       </c>
       <c r="O37" s="13">
-        <v>694</v>
+        <v>188</v>
       </c>
       <c r="P37" s="13">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="Q37" s="13">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="R37" s="13">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="S37" s="13">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="T37" s="13">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="U37" s="13">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="V37" s="13">
         <v>0</v>
@@ -4957,25 +4992,25 @@
         <v>0</v>
       </c>
       <c r="Y37" s="13">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="Z37" s="13">
         <v>0</v>
       </c>
       <c r="AA37" s="13">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AC37" s="13">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AD37" s="13">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="13">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="13">
         <v>0</v>
@@ -4983,17 +5018,17 @@
       <c r="AG37" s="13">
         <v>0</v>
       </c>
-      <c r="AH37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK37" s="13" t="s">
-        <v>57</v>
+      <c r="AH37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>0</v>
       </c>
       <c r="AL37" s="13">
         <v>0</v>
@@ -5019,11 +5054,11 @@
       <c r="AS37" s="13">
         <v>0</v>
       </c>
-      <c r="AT37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>0</v>
+      <c r="AT37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV37" s="13" t="s">
         <v>57</v>
@@ -5047,7 +5082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>65</v>
       </c>
@@ -5109,104 +5144,104 @@
       <c r="V38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>57</v>
+      <c r="W38" s="11">
+        <v>40</v>
+      </c>
+      <c r="X38" s="11">
+        <v>40</v>
       </c>
       <c r="Y38" s="11">
+        <v>148</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>160</v>
+      </c>
+      <c r="AB38" s="11">
         <v>40</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="AC38" s="11">
+        <v>194</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>59</v>
+      </c>
+      <c r="AE38" s="11">
+        <v>90</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>302</v>
+      </c>
+      <c r="AH38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>294</v>
+      </c>
+      <c r="AJ38" s="11">
+        <v>42</v>
+      </c>
+      <c r="AK38" s="11">
         <v>40</v>
       </c>
-      <c r="AA38" s="11">
+      <c r="AL38" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="11">
+        <v>41</v>
+      </c>
+      <c r="AN38" s="11">
+        <v>335</v>
+      </c>
+      <c r="AO38" s="11">
+        <v>42</v>
+      </c>
+      <c r="AP38" s="11">
+        <v>42</v>
+      </c>
+      <c r="AQ38" s="11">
+        <v>252</v>
+      </c>
+      <c r="AR38" s="11">
+        <v>21</v>
+      </c>
+      <c r="AS38" s="11">
+        <v>65</v>
+      </c>
+      <c r="AT38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="11">
+        <v>145</v>
+      </c>
+      <c r="AV38" s="11">
+        <v>41</v>
+      </c>
+      <c r="AW38" s="11">
+        <v>63</v>
+      </c>
+      <c r="AX38" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AY38" s="11">
+        <v>41</v>
+      </c>
+      <c r="AZ38" s="11">
+        <v>21</v>
+      </c>
+      <c r="BA38" s="11">
+        <v>275</v>
+      </c>
+      <c r="BB38" s="11">
         <v>148</v>
       </c>
-      <c r="AB38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="11">
-        <v>160</v>
-      </c>
-      <c r="AD38" s="11">
-        <v>40</v>
-      </c>
-      <c r="AE38" s="11">
-        <v>194</v>
-      </c>
-      <c r="AF38" s="11">
-        <v>59</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>90</v>
-      </c>
-      <c r="AH38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="11">
-        <v>302</v>
-      </c>
-      <c r="AJ38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK38" s="11">
-        <v>294</v>
-      </c>
-      <c r="AL38" s="11">
-        <v>42</v>
-      </c>
-      <c r="AM38" s="11">
-        <v>40</v>
-      </c>
-      <c r="AN38" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="11">
-        <v>41</v>
-      </c>
-      <c r="AP38" s="11">
-        <v>335</v>
-      </c>
-      <c r="AQ38" s="11">
-        <v>42</v>
-      </c>
-      <c r="AR38" s="11">
-        <v>42</v>
-      </c>
-      <c r="AS38" s="11">
-        <v>252</v>
-      </c>
-      <c r="AT38" s="11">
-        <v>21</v>
-      </c>
-      <c r="AU38" s="11">
-        <v>65</v>
-      </c>
-      <c r="AV38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="11">
-        <v>21</v>
-      </c>
-      <c r="AX38" s="11">
-        <v>41</v>
-      </c>
-      <c r="AY38" s="11">
-        <v>63</v>
-      </c>
-      <c r="AZ38" s="11">
-        <v>-1</v>
-      </c>
-      <c r="BA38" s="11">
-        <v>41</v>
-      </c>
-      <c r="BB38" s="11">
-        <v>21</v>
-      </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>66</v>
       </c>
@@ -5355,17 +5390,17 @@
       <c r="AY39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA39" s="13" t="s">
-        <v>57</v>
+      <c r="AZ39" s="13">
+        <v>513340</v>
+      </c>
+      <c r="BA39" s="13">
+        <v>0</v>
       </c>
       <c r="BB39" s="13">
-        <v>513340</v>
+        <v>39203</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>67</v>
       </c>
@@ -5422,7 +5457,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>68</v>
       </c>
@@ -5488,11 +5523,11 @@
       <c r="X41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y41" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z41" s="17" t="s">
-        <v>57</v>
+      <c r="Y41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>0</v>
       </c>
       <c r="AA41" s="17">
         <v>0</v>
@@ -5579,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>71</v>
       </c>
@@ -5636,7 +5671,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
@@ -5752,14 +5787,14 @@
       <c r="AN43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO43" s="11" t="s">
-        <v>57</v>
+      <c r="AO43" s="11">
+        <v>-326882</v>
       </c>
       <c r="AP43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ43" s="11">
-        <v>-326882</v>
+      <c r="AQ43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR43" s="11" t="s">
         <v>57</v>
@@ -5785,8 +5820,8 @@
       <c r="AY43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ43" s="11" t="s">
-        <v>57</v>
+      <c r="AZ43" s="11">
+        <v>0</v>
       </c>
       <c r="BA43" s="11" t="s">
         <v>57</v>
@@ -5795,7 +5830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>72</v>
       </c>
@@ -5861,11 +5896,11 @@
       <c r="X44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z44" s="19" t="s">
-        <v>57</v>
+      <c r="Y44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="19">
+        <v>0</v>
       </c>
       <c r="AA44" s="19">
         <v>0</v>
@@ -5910,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="AO44" s="19">
-        <v>0</v>
+        <v>-326882</v>
       </c>
       <c r="AP44" s="19">
         <v>0</v>
       </c>
       <c r="AQ44" s="19">
-        <v>-326882</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="19">
         <v>0</v>
@@ -5952,164 +5987,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
-        <v>20281</v>
+        <v>118550</v>
       </c>
       <c r="F45" s="17">
-        <v>122874</v>
+        <v>112831</v>
       </c>
       <c r="G45" s="17">
-        <v>118550</v>
+        <v>25479</v>
       </c>
       <c r="H45" s="17">
-        <v>112831</v>
+        <v>187379</v>
       </c>
       <c r="I45" s="17">
-        <v>25479</v>
+        <v>448047</v>
       </c>
       <c r="J45" s="17">
-        <v>187379</v>
+        <v>9828</v>
       </c>
       <c r="K45" s="17">
-        <v>448047</v>
+        <v>112574</v>
       </c>
       <c r="L45" s="17">
-        <v>9828</v>
+        <v>163679</v>
       </c>
       <c r="M45" s="17">
-        <v>112574</v>
+        <v>93912</v>
       </c>
       <c r="N45" s="17">
-        <v>163679</v>
+        <v>222029</v>
       </c>
       <c r="O45" s="17">
-        <v>93912</v>
+        <v>49273</v>
       </c>
       <c r="P45" s="17">
-        <v>222029</v>
+        <v>202695</v>
       </c>
       <c r="Q45" s="17">
-        <v>49273</v>
+        <v>159351</v>
       </c>
       <c r="R45" s="17">
-        <v>202695</v>
+        <v>170230</v>
       </c>
       <c r="S45" s="17">
-        <v>159351</v>
+        <v>186606</v>
       </c>
       <c r="T45" s="17">
-        <v>170230</v>
+        <v>134572</v>
       </c>
       <c r="U45" s="17">
-        <v>186606</v>
+        <v>455386</v>
       </c>
       <c r="V45" s="17">
-        <v>134572</v>
+        <v>15934</v>
       </c>
       <c r="W45" s="17">
-        <v>455386</v>
+        <v>48473</v>
       </c>
       <c r="X45" s="17">
-        <v>15934</v>
+        <v>168542</v>
       </c>
       <c r="Y45" s="17">
-        <v>48473</v>
+        <v>164445</v>
       </c>
       <c r="Z45" s="17">
-        <v>168542</v>
+        <v>133834</v>
       </c>
       <c r="AA45" s="17">
-        <v>164445</v>
+        <v>80750</v>
       </c>
       <c r="AB45" s="17">
-        <v>133834</v>
+        <v>137085</v>
       </c>
       <c r="AC45" s="17">
-        <v>80750</v>
+        <v>32067</v>
       </c>
       <c r="AD45" s="17">
-        <v>137085</v>
+        <v>350576</v>
       </c>
       <c r="AE45" s="17">
-        <v>32067</v>
+        <v>126766</v>
       </c>
       <c r="AF45" s="17">
-        <v>350576</v>
+        <v>204694</v>
       </c>
       <c r="AG45" s="17">
-        <v>126766</v>
+        <v>863324</v>
       </c>
       <c r="AH45" s="17">
-        <v>204694</v>
+        <v>41993</v>
       </c>
       <c r="AI45" s="17">
-        <v>863324</v>
+        <v>115863</v>
       </c>
       <c r="AJ45" s="17">
-        <v>41993</v>
+        <v>503426</v>
       </c>
       <c r="AK45" s="17">
-        <v>115863</v>
+        <v>120123</v>
       </c>
       <c r="AL45" s="17">
-        <v>503426</v>
+        <v>184761</v>
       </c>
       <c r="AM45" s="17">
-        <v>120123</v>
+        <v>413575</v>
       </c>
       <c r="AN45" s="17">
-        <v>184761</v>
+        <v>193103</v>
       </c>
       <c r="AO45" s="17">
-        <v>413575</v>
+        <v>-34939</v>
       </c>
       <c r="AP45" s="17">
-        <v>193103</v>
+        <v>191621</v>
       </c>
       <c r="AQ45" s="17">
-        <v>-34939</v>
+        <v>321796</v>
       </c>
       <c r="AR45" s="17">
-        <v>191621</v>
+        <v>295099</v>
       </c>
       <c r="AS45" s="17">
-        <v>321796</v>
+        <v>319776</v>
       </c>
       <c r="AT45" s="17">
-        <v>295099</v>
+        <v>74069</v>
       </c>
       <c r="AU45" s="17">
-        <v>319776</v>
+        <v>497382</v>
       </c>
       <c r="AV45" s="17">
-        <v>74069</v>
+        <v>167696</v>
       </c>
       <c r="AW45" s="17">
-        <v>468311</v>
+        <v>118755</v>
       </c>
       <c r="AX45" s="17">
-        <v>167696</v>
+        <v>73519</v>
       </c>
       <c r="AY45" s="17">
-        <v>118755</v>
+        <v>331851</v>
       </c>
       <c r="AZ45" s="17">
-        <v>73519</v>
+        <v>612679</v>
       </c>
       <c r="BA45" s="17">
-        <v>331851</v>
+        <v>828396</v>
       </c>
       <c r="BB45" s="17">
-        <v>612679</v>
+        <v>211495</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6164,7 +6199,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6219,7 +6254,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6274,7 +6309,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>73</v>
       </c>
@@ -6431,7 +6466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6486,7 +6521,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>73</v>
       </c>
@@ -6543,7 +6578,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>55</v>
       </c>
@@ -6552,157 +6587,157 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>166118</v>
+        <v>10923</v>
       </c>
       <c r="F52" s="11">
-        <v>4350</v>
+        <v>1576</v>
       </c>
       <c r="G52" s="11">
-        <v>10923</v>
+        <v>183898</v>
       </c>
       <c r="H52" s="11">
-        <v>1576</v>
+        <v>227465</v>
       </c>
       <c r="I52" s="11">
-        <v>183898</v>
+        <v>361257</v>
       </c>
       <c r="J52" s="11">
-        <v>227465</v>
+        <v>27539</v>
       </c>
       <c r="K52" s="11">
-        <v>361257</v>
+        <v>31911</v>
       </c>
       <c r="L52" s="11">
-        <v>27539</v>
+        <v>200558</v>
       </c>
       <c r="M52" s="11">
-        <v>31911</v>
+        <v>12255</v>
       </c>
       <c r="N52" s="11">
-        <v>200558</v>
+        <v>400803</v>
       </c>
       <c r="O52" s="11">
-        <v>12255</v>
+        <v>232122</v>
       </c>
       <c r="P52" s="11">
-        <v>400803</v>
+        <v>34559</v>
       </c>
       <c r="Q52" s="11">
-        <v>232122</v>
+        <v>9551</v>
       </c>
       <c r="R52" s="11">
-        <v>34559</v>
+        <v>135966</v>
       </c>
       <c r="S52" s="11">
-        <v>9551</v>
+        <v>200924</v>
       </c>
       <c r="T52" s="11">
-        <v>135966</v>
+        <v>299435</v>
       </c>
       <c r="U52" s="11">
-        <v>200924</v>
+        <v>85089</v>
       </c>
       <c r="V52" s="11">
-        <v>299435</v>
+        <v>0</v>
       </c>
       <c r="W52" s="11">
-        <v>85089</v>
+        <v>524</v>
       </c>
       <c r="X52" s="11">
-        <v>0</v>
+        <v>8744</v>
       </c>
       <c r="Y52" s="11">
-        <v>524</v>
+        <v>8690</v>
       </c>
       <c r="Z52" s="11">
-        <v>8744</v>
+        <v>6882</v>
       </c>
       <c r="AA52" s="11">
-        <v>8690</v>
+        <v>14512</v>
       </c>
       <c r="AB52" s="11">
-        <v>6882</v>
+        <v>12533</v>
       </c>
       <c r="AC52" s="11">
-        <v>14512</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="11">
-        <v>12533</v>
+        <v>18626</v>
       </c>
       <c r="AE52" s="11">
-        <v>0</v>
+        <v>43543</v>
       </c>
       <c r="AF52" s="11">
-        <v>18626</v>
+        <v>18446</v>
       </c>
       <c r="AG52" s="11">
-        <v>43543</v>
-      </c>
-      <c r="AH52" s="11">
-        <v>18446</v>
+        <v>53442</v>
+      </c>
+      <c r="AH52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI52" s="11">
-        <v>53442</v>
-      </c>
-      <c r="AJ52" s="11" t="s">
-        <v>57</v>
+        <v>19301</v>
+      </c>
+      <c r="AJ52" s="11">
+        <v>14310</v>
       </c>
       <c r="AK52" s="11">
-        <v>19301</v>
+        <v>7335</v>
       </c>
       <c r="AL52" s="11">
-        <v>14310</v>
+        <v>23307</v>
       </c>
       <c r="AM52" s="11">
-        <v>7335</v>
+        <v>18082</v>
       </c>
       <c r="AN52" s="11">
-        <v>23307</v>
+        <v>24610</v>
       </c>
       <c r="AO52" s="11">
-        <v>18082</v>
+        <v>106504</v>
       </c>
       <c r="AP52" s="11">
-        <v>24610</v>
+        <v>46875</v>
       </c>
       <c r="AQ52" s="11">
-        <v>106504</v>
+        <v>26230</v>
       </c>
       <c r="AR52" s="11">
-        <v>46875</v>
+        <v>5564</v>
       </c>
       <c r="AS52" s="11">
-        <v>26230</v>
-      </c>
-      <c r="AT52" s="11">
-        <v>5564</v>
+        <v>58197</v>
+      </c>
+      <c r="AT52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU52" s="11">
-        <v>58197</v>
-      </c>
-      <c r="AV52" s="11" t="s">
-        <v>57</v>
+        <v>20008</v>
+      </c>
+      <c r="AV52" s="11">
+        <v>41332</v>
       </c>
       <c r="AW52" s="11">
-        <v>758754</v>
+        <v>28752</v>
       </c>
       <c r="AX52" s="11">
-        <v>41332</v>
+        <v>77261</v>
       </c>
       <c r="AY52" s="11">
-        <v>28752</v>
+        <v>42840</v>
       </c>
       <c r="AZ52" s="11">
-        <v>77261</v>
+        <v>66207</v>
       </c>
       <c r="BA52" s="11">
-        <v>42840</v>
+        <v>22731</v>
       </c>
       <c r="BB52" s="11">
-        <v>66207</v>
+        <v>122775</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>58</v>
       </c>
@@ -6711,157 +6746,157 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>87076</v>
+        <v>433071</v>
       </c>
       <c r="F53" s="13">
-        <v>121003</v>
+        <v>296402</v>
       </c>
       <c r="G53" s="13">
-        <v>433071</v>
+        <v>498801</v>
       </c>
       <c r="H53" s="13">
-        <v>296402</v>
+        <v>302018</v>
       </c>
       <c r="I53" s="13">
-        <v>498801</v>
+        <v>379855</v>
       </c>
       <c r="J53" s="13">
-        <v>302018</v>
+        <v>219924</v>
       </c>
       <c r="K53" s="13">
-        <v>379855</v>
+        <v>404666</v>
       </c>
       <c r="L53" s="13">
-        <v>219924</v>
+        <v>530172</v>
       </c>
       <c r="M53" s="13">
-        <v>404666</v>
+        <v>687155</v>
       </c>
       <c r="N53" s="13">
-        <v>530172</v>
+        <v>517498</v>
       </c>
       <c r="O53" s="13">
-        <v>687155</v>
+        <v>611775</v>
       </c>
       <c r="P53" s="13">
-        <v>517498</v>
+        <v>422841</v>
       </c>
       <c r="Q53" s="13">
-        <v>611775</v>
+        <v>448135</v>
       </c>
       <c r="R53" s="13">
-        <v>422841</v>
+        <v>372630</v>
       </c>
       <c r="S53" s="13">
-        <v>448135</v>
+        <v>495615</v>
       </c>
       <c r="T53" s="13">
-        <v>372630</v>
+        <v>714146</v>
       </c>
       <c r="U53" s="13">
-        <v>495615</v>
+        <v>616351</v>
       </c>
       <c r="V53" s="13">
-        <v>714146</v>
+        <v>132475</v>
       </c>
       <c r="W53" s="13">
-        <v>616351</v>
+        <v>660093</v>
       </c>
       <c r="X53" s="13">
-        <v>132475</v>
+        <v>1035801</v>
       </c>
       <c r="Y53" s="13">
-        <v>660093</v>
+        <v>712383</v>
       </c>
       <c r="Z53" s="13">
-        <v>1035801</v>
+        <v>571647</v>
       </c>
       <c r="AA53" s="13">
-        <v>712383</v>
+        <v>965201</v>
       </c>
       <c r="AB53" s="13">
-        <v>571647</v>
+        <v>943988</v>
       </c>
       <c r="AC53" s="13">
-        <v>965201</v>
+        <v>1227208</v>
       </c>
       <c r="AD53" s="13">
-        <v>943988</v>
+        <v>1214238</v>
       </c>
       <c r="AE53" s="13">
-        <v>1227208</v>
+        <v>1288925</v>
       </c>
       <c r="AF53" s="13">
-        <v>1214238</v>
+        <v>1493786</v>
       </c>
       <c r="AG53" s="13">
-        <v>1288925</v>
+        <v>1560935</v>
       </c>
       <c r="AH53" s="13">
-        <v>1493786</v>
+        <v>627567</v>
       </c>
       <c r="AI53" s="13">
-        <v>1560935</v>
+        <v>1259011</v>
       </c>
       <c r="AJ53" s="13">
-        <v>627567</v>
+        <v>1658798</v>
       </c>
       <c r="AK53" s="13">
-        <v>1259011</v>
+        <v>1300440</v>
       </c>
       <c r="AL53" s="13">
-        <v>1658798</v>
+        <v>1915761</v>
       </c>
       <c r="AM53" s="13">
-        <v>1300440</v>
+        <v>3437773</v>
       </c>
       <c r="AN53" s="13">
-        <v>1915761</v>
+        <v>1778820</v>
       </c>
       <c r="AO53" s="13">
-        <v>3437773</v>
+        <v>2900199</v>
       </c>
       <c r="AP53" s="13">
-        <v>1778820</v>
+        <v>1852091</v>
       </c>
       <c r="AQ53" s="13">
-        <v>2900199</v>
+        <v>2744730</v>
       </c>
       <c r="AR53" s="13">
-        <v>1852091</v>
+        <v>2506558</v>
       </c>
       <c r="AS53" s="13">
-        <v>2744730</v>
+        <v>3301399</v>
       </c>
       <c r="AT53" s="13">
-        <v>2506558</v>
+        <v>1259291</v>
       </c>
       <c r="AU53" s="13">
-        <v>3301399</v>
+        <v>2505799</v>
       </c>
       <c r="AV53" s="13">
-        <v>1259291</v>
+        <v>2097296</v>
       </c>
       <c r="AW53" s="13">
-        <v>2505799</v>
+        <v>1882173</v>
       </c>
       <c r="AX53" s="13">
-        <v>2097296</v>
+        <v>1279521</v>
       </c>
       <c r="AY53" s="13">
-        <v>1882173</v>
+        <v>2778111</v>
       </c>
       <c r="AZ53" s="13">
-        <v>1279521</v>
+        <v>2832255</v>
       </c>
       <c r="BA53" s="13">
-        <v>2778111</v>
+        <v>2927757</v>
       </c>
       <c r="BB53" s="13">
-        <v>2832255</v>
+        <v>3895132</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>59</v>
       </c>
@@ -6870,157 +6905,157 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>946</v>
+        <v>63064</v>
       </c>
       <c r="F54" s="11">
-        <v>33098</v>
+        <v>78073</v>
       </c>
       <c r="G54" s="11">
-        <v>63064</v>
+        <v>5864</v>
       </c>
       <c r="H54" s="11">
-        <v>78073</v>
+        <v>128960</v>
       </c>
       <c r="I54" s="11">
-        <v>5864</v>
+        <v>265648</v>
       </c>
       <c r="J54" s="11">
-        <v>128960</v>
+        <v>0</v>
       </c>
       <c r="K54" s="11">
-        <v>265648</v>
+        <v>0</v>
       </c>
       <c r="L54" s="11">
-        <v>0</v>
+        <v>60466</v>
       </c>
       <c r="M54" s="11">
         <v>0</v>
       </c>
       <c r="N54" s="11">
-        <v>60466</v>
+        <v>143647</v>
       </c>
       <c r="O54" s="11">
-        <v>0</v>
+        <v>4489</v>
       </c>
       <c r="P54" s="11">
-        <v>143647</v>
+        <v>94684</v>
       </c>
       <c r="Q54" s="11">
-        <v>4489</v>
+        <v>68286</v>
       </c>
       <c r="R54" s="11">
-        <v>94684</v>
+        <v>73650</v>
       </c>
       <c r="S54" s="11">
-        <v>68286</v>
+        <v>55205</v>
       </c>
       <c r="T54" s="11">
-        <v>73650</v>
+        <v>50176</v>
       </c>
       <c r="U54" s="11">
-        <v>55205</v>
-      </c>
-      <c r="V54" s="11">
-        <v>50176</v>
-      </c>
-      <c r="W54" s="11">
         <v>273589</v>
       </c>
-      <c r="X54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y54" s="11" t="s">
-        <v>57</v>
+      <c r="V54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X54" s="11">
+        <v>62087</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>81388</v>
       </c>
       <c r="Z54" s="11">
-        <v>62087</v>
+        <v>70178</v>
       </c>
       <c r="AA54" s="11">
-        <v>81388</v>
+        <v>19017</v>
       </c>
       <c r="AB54" s="11">
-        <v>70178</v>
+        <v>84994</v>
       </c>
       <c r="AC54" s="11">
-        <v>19017</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="11">
-        <v>84994</v>
+        <v>377091</v>
       </c>
       <c r="AE54" s="11">
-        <v>0</v>
+        <v>24222</v>
       </c>
       <c r="AF54" s="11">
-        <v>377091</v>
+        <v>243060</v>
       </c>
       <c r="AG54" s="11">
-        <v>24222</v>
+        <v>1341096</v>
       </c>
       <c r="AH54" s="11">
-        <v>243060</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="11">
-        <v>1341096</v>
+        <v>2484</v>
       </c>
       <c r="AJ54" s="11">
-        <v>0</v>
+        <v>479952</v>
       </c>
       <c r="AK54" s="11">
-        <v>2484</v>
+        <v>72409</v>
       </c>
       <c r="AL54" s="11">
-        <v>479952</v>
+        <v>115545</v>
       </c>
       <c r="AM54" s="11">
-        <v>72409</v>
+        <v>692234</v>
       </c>
       <c r="AN54" s="11">
-        <v>115545</v>
+        <v>189206</v>
       </c>
       <c r="AO54" s="11">
-        <v>692234</v>
+        <v>375884</v>
       </c>
       <c r="AP54" s="11">
-        <v>189206</v>
+        <v>219398</v>
       </c>
       <c r="AQ54" s="11">
-        <v>375884</v>
+        <v>675514</v>
       </c>
       <c r="AR54" s="11">
-        <v>219398</v>
+        <v>366517</v>
       </c>
       <c r="AS54" s="11">
-        <v>675514</v>
+        <v>472657</v>
       </c>
       <c r="AT54" s="11">
-        <v>366517</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="11">
-        <v>472657</v>
+        <v>948442</v>
       </c>
       <c r="AV54" s="11">
-        <v>0</v>
+        <v>64667</v>
       </c>
       <c r="AW54" s="11">
-        <v>948442</v>
+        <v>75291</v>
       </c>
       <c r="AX54" s="11">
-        <v>64667</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="11">
-        <v>75291</v>
+        <v>574898</v>
       </c>
       <c r="AZ54" s="11">
-        <v>0</v>
+        <v>31683</v>
       </c>
       <c r="BA54" s="11">
-        <v>574898</v>
+        <v>2014136</v>
       </c>
       <c r="BB54" s="11">
-        <v>31683</v>
+        <v>69470</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>60</v>
       </c>
@@ -7043,143 +7078,143 @@
       <c r="I55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>57</v>
+      <c r="J55" s="13">
+        <v>8586</v>
+      </c>
+      <c r="K55" s="13">
+        <v>32257</v>
       </c>
       <c r="L55" s="13">
-        <v>8586</v>
+        <v>42444</v>
       </c>
       <c r="M55" s="13">
-        <v>32257</v>
+        <v>40035</v>
       </c>
       <c r="N55" s="13">
-        <v>42444</v>
+        <v>35515</v>
       </c>
       <c r="O55" s="13">
-        <v>40035</v>
+        <v>23002</v>
       </c>
       <c r="P55" s="13">
-        <v>35515</v>
+        <v>21237</v>
       </c>
       <c r="Q55" s="13">
-        <v>23002</v>
+        <v>22539</v>
       </c>
       <c r="R55" s="13">
-        <v>21237</v>
+        <v>21635</v>
       </c>
       <c r="S55" s="13">
-        <v>22539</v>
+        <v>21966</v>
       </c>
       <c r="T55" s="13">
-        <v>21635</v>
+        <v>22882</v>
       </c>
       <c r="U55" s="13">
-        <v>21966</v>
+        <v>24237</v>
       </c>
       <c r="V55" s="13">
-        <v>22882</v>
+        <v>8289</v>
       </c>
       <c r="W55" s="13">
-        <v>24237</v>
+        <v>15221</v>
       </c>
       <c r="X55" s="13">
-        <v>8289</v>
+        <v>25293</v>
       </c>
       <c r="Y55" s="13">
-        <v>15221</v>
+        <v>10759</v>
       </c>
       <c r="Z55" s="13">
-        <v>25293</v>
+        <v>35858</v>
       </c>
       <c r="AA55" s="13">
-        <v>10759</v>
+        <v>28090</v>
       </c>
       <c r="AB55" s="13">
-        <v>35858</v>
+        <v>15281</v>
       </c>
       <c r="AC55" s="13">
-        <v>28090</v>
+        <v>9727</v>
       </c>
       <c r="AD55" s="13">
-        <v>15281</v>
+        <v>64072</v>
       </c>
       <c r="AE55" s="13">
-        <v>9727</v>
+        <v>59754</v>
       </c>
       <c r="AF55" s="13">
-        <v>64072</v>
+        <v>60956</v>
       </c>
       <c r="AG55" s="13">
-        <v>59754</v>
+        <v>85296</v>
       </c>
       <c r="AH55" s="13">
-        <v>60956</v>
+        <v>69662</v>
       </c>
       <c r="AI55" s="13">
-        <v>85296</v>
+        <v>265175</v>
       </c>
       <c r="AJ55" s="13">
-        <v>69662</v>
+        <v>259503</v>
       </c>
       <c r="AK55" s="13">
-        <v>265175</v>
+        <v>151456</v>
       </c>
       <c r="AL55" s="13">
-        <v>259503</v>
+        <v>214109</v>
       </c>
       <c r="AM55" s="13">
-        <v>151456</v>
+        <v>195750</v>
       </c>
       <c r="AN55" s="13">
-        <v>214109</v>
+        <v>216902</v>
       </c>
       <c r="AO55" s="13">
-        <v>195750</v>
+        <v>396433</v>
       </c>
       <c r="AP55" s="13">
-        <v>216902</v>
+        <v>475155</v>
       </c>
       <c r="AQ55" s="13">
-        <v>396433</v>
+        <v>487486</v>
       </c>
       <c r="AR55" s="13">
-        <v>475155</v>
+        <v>472291</v>
       </c>
       <c r="AS55" s="13">
-        <v>487486</v>
+        <v>554459</v>
       </c>
       <c r="AT55" s="13">
-        <v>472291</v>
+        <v>560441</v>
       </c>
       <c r="AU55" s="13">
-        <v>554459</v>
+        <v>929998</v>
       </c>
       <c r="AV55" s="13">
-        <v>560441</v>
+        <v>1064038</v>
       </c>
       <c r="AW55" s="13">
-        <v>929998</v>
+        <v>921918</v>
       </c>
       <c r="AX55" s="13">
-        <v>1064038</v>
+        <v>565372</v>
       </c>
       <c r="AY55" s="13">
-        <v>921918</v>
+        <v>916476</v>
       </c>
       <c r="AZ55" s="13">
-        <v>565372</v>
+        <v>765012</v>
       </c>
       <c r="BA55" s="13">
-        <v>916476</v>
+        <v>838802</v>
       </c>
       <c r="BB55" s="13">
-        <v>765012</v>
+        <v>671482</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>61</v>
       </c>
@@ -7188,157 +7223,157 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>239927</v>
+        <v>485101</v>
       </c>
       <c r="F56" s="11">
-        <v>126882</v>
+        <v>221578</v>
       </c>
       <c r="G56" s="11">
-        <v>485101</v>
+        <v>481845</v>
       </c>
       <c r="H56" s="11">
-        <v>221578</v>
+        <v>941112</v>
       </c>
       <c r="I56" s="11">
-        <v>481845</v>
+        <v>801797</v>
       </c>
       <c r="J56" s="11">
-        <v>941112</v>
+        <v>0</v>
       </c>
       <c r="K56" s="11">
-        <v>801797</v>
+        <v>904084</v>
       </c>
       <c r="L56" s="11">
-        <v>0</v>
+        <v>480218</v>
       </c>
       <c r="M56" s="11">
-        <v>904084</v>
+        <v>365348</v>
       </c>
       <c r="N56" s="11">
-        <v>480218</v>
+        <v>668837</v>
       </c>
       <c r="O56" s="11">
-        <v>365348</v>
+        <v>644970</v>
       </c>
       <c r="P56" s="11">
-        <v>668837</v>
+        <v>595036</v>
       </c>
       <c r="Q56" s="11">
-        <v>644970</v>
+        <v>524647</v>
       </c>
       <c r="R56" s="11">
-        <v>595036</v>
+        <v>702651</v>
       </c>
       <c r="S56" s="11">
-        <v>524647</v>
+        <v>930748</v>
       </c>
       <c r="T56" s="11">
-        <v>702651</v>
+        <v>794664</v>
       </c>
       <c r="U56" s="11">
-        <v>930748</v>
+        <v>775266</v>
       </c>
       <c r="V56" s="11">
-        <v>794664</v>
+        <v>232451</v>
       </c>
       <c r="W56" s="11">
-        <v>775266</v>
+        <v>1287639</v>
       </c>
       <c r="X56" s="11">
-        <v>232451</v>
+        <v>2029558</v>
       </c>
       <c r="Y56" s="11">
-        <v>1287639</v>
+        <v>2287734</v>
       </c>
       <c r="Z56" s="11">
-        <v>2029558</v>
+        <v>1757312</v>
       </c>
       <c r="AA56" s="11">
-        <v>2287734</v>
+        <v>2061511</v>
       </c>
       <c r="AB56" s="11">
-        <v>1757312</v>
+        <v>1608740</v>
       </c>
       <c r="AC56" s="11">
-        <v>2061511</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="11">
-        <v>1608740</v>
+        <v>2585740</v>
       </c>
       <c r="AE56" s="11">
-        <v>0</v>
+        <v>2373975</v>
       </c>
       <c r="AF56" s="11">
-        <v>2585740</v>
+        <v>1493423</v>
       </c>
       <c r="AG56" s="11">
-        <v>2373975</v>
+        <v>3760821</v>
       </c>
       <c r="AH56" s="11">
-        <v>1493423</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="11">
-        <v>3760821</v>
+        <v>1384833</v>
       </c>
       <c r="AJ56" s="11">
-        <v>0</v>
+        <v>4038815</v>
       </c>
       <c r="AK56" s="11">
-        <v>1384833</v>
+        <v>2887879</v>
       </c>
       <c r="AL56" s="11">
-        <v>4038815</v>
+        <v>3365323</v>
       </c>
       <c r="AM56" s="11">
-        <v>2887879</v>
+        <v>2577813</v>
       </c>
       <c r="AN56" s="11">
-        <v>3365323</v>
+        <v>3130161</v>
       </c>
       <c r="AO56" s="11">
-        <v>2577813</v>
+        <v>3637703</v>
       </c>
       <c r="AP56" s="11">
-        <v>3130161</v>
+        <v>3467924</v>
       </c>
       <c r="AQ56" s="11">
-        <v>3637703</v>
+        <v>1292211</v>
       </c>
       <c r="AR56" s="11">
-        <v>3467924</v>
+        <v>1891174</v>
       </c>
       <c r="AS56" s="11">
-        <v>1292211</v>
+        <v>1101271</v>
       </c>
       <c r="AT56" s="11">
-        <v>1891174</v>
+        <v>1201201</v>
       </c>
       <c r="AU56" s="11">
-        <v>1101271</v>
+        <v>1294398</v>
       </c>
       <c r="AV56" s="11">
-        <v>1201201</v>
+        <v>2931514</v>
       </c>
       <c r="AW56" s="11">
-        <v>1294398</v>
+        <v>2604493</v>
       </c>
       <c r="AX56" s="11">
-        <v>2931514</v>
+        <v>3136088</v>
       </c>
       <c r="AY56" s="11">
-        <v>2604493</v>
+        <v>2587501</v>
       </c>
       <c r="AZ56" s="11">
-        <v>3136088</v>
+        <v>1369500</v>
       </c>
       <c r="BA56" s="11">
-        <v>2587501</v>
+        <v>2958887</v>
       </c>
       <c r="BB56" s="11">
-        <v>1369500</v>
+        <v>3233344</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>62</v>
       </c>
@@ -7350,154 +7385,154 @@
         <v>0</v>
       </c>
       <c r="F57" s="13">
-        <v>0</v>
+        <v>13405</v>
       </c>
       <c r="G57" s="13">
         <v>0</v>
       </c>
       <c r="H57" s="13">
-        <v>13405</v>
+        <v>23629</v>
       </c>
       <c r="I57" s="13">
-        <v>0</v>
+        <v>209349</v>
       </c>
       <c r="J57" s="13">
-        <v>23629</v>
+        <v>0</v>
       </c>
       <c r="K57" s="13">
-        <v>209349</v>
+        <v>10806569</v>
       </c>
       <c r="L57" s="13">
-        <v>0</v>
+        <v>2879719</v>
       </c>
       <c r="M57" s="13">
-        <v>10806569</v>
+        <v>4317578</v>
       </c>
       <c r="N57" s="13">
-        <v>2879719</v>
+        <v>0</v>
       </c>
       <c r="O57" s="13">
-        <v>4317578</v>
+        <v>486318</v>
       </c>
       <c r="P57" s="13">
-        <v>0</v>
+        <v>7239306</v>
       </c>
       <c r="Q57" s="13">
-        <v>486318</v>
+        <v>345879</v>
       </c>
       <c r="R57" s="13">
-        <v>7239306</v>
+        <v>0</v>
       </c>
       <c r="S57" s="13">
-        <v>345879</v>
+        <v>9584705</v>
       </c>
       <c r="T57" s="13">
-        <v>0</v>
+        <v>159252</v>
       </c>
       <c r="U57" s="13">
-        <v>9584705</v>
-      </c>
-      <c r="V57" s="13">
-        <v>159252</v>
+        <v>4880484</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W57" s="13">
-        <v>4880484</v>
-      </c>
-      <c r="X57" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="X57" s="13">
+        <v>497134</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>-1483589</v>
       </c>
       <c r="Z57" s="13">
-        <v>497134</v>
+        <v>784143</v>
       </c>
       <c r="AA57" s="13">
-        <v>-1483589</v>
+        <v>327946</v>
       </c>
       <c r="AB57" s="13">
-        <v>784143</v>
+        <v>233748</v>
       </c>
       <c r="AC57" s="13">
-        <v>327946</v>
+        <v>136512</v>
       </c>
       <c r="AD57" s="13">
-        <v>233748</v>
+        <v>468331</v>
       </c>
       <c r="AE57" s="13">
-        <v>136512</v>
+        <v>11751930</v>
       </c>
       <c r="AF57" s="13">
-        <v>468331</v>
+        <v>724361</v>
       </c>
       <c r="AG57" s="13">
-        <v>11751930</v>
+        <v>1349631</v>
       </c>
       <c r="AH57" s="13">
-        <v>724361</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="13">
-        <v>1349631</v>
+        <v>212845</v>
       </c>
       <c r="AJ57" s="13">
-        <v>0</v>
+        <v>1042584</v>
       </c>
       <c r="AK57" s="13">
-        <v>212845</v>
+        <v>1477444</v>
       </c>
       <c r="AL57" s="13">
-        <v>1042584</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="13">
-        <v>1477444</v>
+        <v>847938</v>
       </c>
       <c r="AN57" s="13">
-        <v>0</v>
+        <v>398958</v>
       </c>
       <c r="AO57" s="13">
-        <v>847938</v>
+        <v>807112</v>
       </c>
       <c r="AP57" s="13">
-        <v>398958</v>
+        <v>873760</v>
       </c>
       <c r="AQ57" s="13">
-        <v>807112</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="13">
-        <v>873760</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="13">
-        <v>0</v>
+        <v>1822503</v>
       </c>
       <c r="AT57" s="13">
         <v>0</v>
       </c>
       <c r="AU57" s="13">
-        <v>1822503</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="13">
-        <v>0</v>
+        <v>524398</v>
       </c>
       <c r="AW57" s="13">
-        <v>0</v>
+        <v>694239</v>
       </c>
       <c r="AX57" s="13">
-        <v>524398</v>
+        <v>404208</v>
       </c>
       <c r="AY57" s="13">
-        <v>694239</v>
+        <v>501848</v>
       </c>
       <c r="AZ57" s="13">
-        <v>404208</v>
+        <v>226763</v>
       </c>
       <c r="BA57" s="13">
-        <v>501848</v>
+        <v>621871</v>
       </c>
       <c r="BB57" s="13">
-        <v>226763</v>
+        <v>-180</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>63</v>
       </c>
@@ -7506,157 +7541,157 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>2425489</v>
+        <v>8530183</v>
       </c>
       <c r="F58" s="11">
-        <v>3090018</v>
+        <v>4872208</v>
       </c>
       <c r="G58" s="11">
-        <v>8530183</v>
+        <v>2489406</v>
       </c>
       <c r="H58" s="11">
-        <v>4872208</v>
+        <v>9416492</v>
       </c>
       <c r="I58" s="11">
-        <v>2489406</v>
+        <v>15085336</v>
       </c>
       <c r="J58" s="11">
-        <v>9416492</v>
+        <v>2435499</v>
       </c>
       <c r="K58" s="11">
-        <v>15085336</v>
+        <v>12796371</v>
       </c>
       <c r="L58" s="11">
-        <v>2435499</v>
+        <v>14373482</v>
       </c>
       <c r="M58" s="11">
-        <v>12796371</v>
+        <v>11843347</v>
       </c>
       <c r="N58" s="11">
-        <v>14373482</v>
+        <v>15285567</v>
       </c>
       <c r="O58" s="11">
-        <v>11843347</v>
+        <v>13802886</v>
       </c>
       <c r="P58" s="11">
-        <v>15285567</v>
+        <v>8706788</v>
       </c>
       <c r="Q58" s="11">
-        <v>13802886</v>
+        <v>15312900</v>
       </c>
       <c r="R58" s="11">
-        <v>8706788</v>
+        <v>20462043</v>
       </c>
       <c r="S58" s="11">
-        <v>15312900</v>
+        <v>15774274</v>
       </c>
       <c r="T58" s="11">
-        <v>20462043</v>
+        <v>16665938</v>
       </c>
       <c r="U58" s="11">
-        <v>15774274</v>
+        <v>15632324</v>
       </c>
       <c r="V58" s="11">
-        <v>16665938</v>
+        <v>6208025</v>
       </c>
       <c r="W58" s="11">
-        <v>15632324</v>
+        <v>25741905</v>
       </c>
       <c r="X58" s="11">
-        <v>6208025</v>
+        <v>26133439</v>
       </c>
       <c r="Y58" s="11">
-        <v>25741905</v>
+        <v>24506188</v>
       </c>
       <c r="Z58" s="11">
-        <v>26133439</v>
+        <v>25827072</v>
       </c>
       <c r="AA58" s="11">
-        <v>24506188</v>
+        <v>39224608</v>
       </c>
       <c r="AB58" s="11">
-        <v>25827072</v>
+        <v>29807915</v>
       </c>
       <c r="AC58" s="11">
-        <v>39224608</v>
+        <v>33896217</v>
       </c>
       <c r="AD58" s="11">
-        <v>29807915</v>
+        <v>43979808</v>
       </c>
       <c r="AE58" s="11">
-        <v>33896217</v>
+        <v>16372723</v>
       </c>
       <c r="AF58" s="11">
-        <v>43979808</v>
+        <v>30741940</v>
       </c>
       <c r="AG58" s="11">
-        <v>16372723</v>
+        <v>66778722</v>
       </c>
       <c r="AH58" s="11">
-        <v>30741940</v>
+        <v>13310717</v>
       </c>
       <c r="AI58" s="11">
-        <v>66778722</v>
+        <v>51344382</v>
       </c>
       <c r="AJ58" s="11">
-        <v>13310717</v>
+        <v>58163501</v>
       </c>
       <c r="AK58" s="11">
-        <v>51344382</v>
+        <v>70923594</v>
       </c>
       <c r="AL58" s="11">
-        <v>58163501</v>
+        <v>42708038</v>
       </c>
       <c r="AM58" s="11">
-        <v>70923594</v>
+        <v>78790683</v>
       </c>
       <c r="AN58" s="11">
-        <v>42708038</v>
+        <v>47155826</v>
       </c>
       <c r="AO58" s="11">
-        <v>78790683</v>
+        <v>66714172</v>
       </c>
       <c r="AP58" s="11">
-        <v>47155826</v>
+        <v>65729984</v>
       </c>
       <c r="AQ58" s="11">
-        <v>66714172</v>
+        <v>70129728</v>
       </c>
       <c r="AR58" s="11">
-        <v>65729984</v>
+        <v>79404023</v>
       </c>
       <c r="AS58" s="11">
-        <v>70129728</v>
+        <v>88672888</v>
       </c>
       <c r="AT58" s="11">
-        <v>79404023</v>
+        <v>40003845</v>
       </c>
       <c r="AU58" s="11">
-        <v>88672888</v>
+        <v>74775505</v>
       </c>
       <c r="AV58" s="11">
-        <v>40003845</v>
+        <v>90151268</v>
       </c>
       <c r="AW58" s="11">
-        <v>74775505</v>
+        <v>54258612</v>
       </c>
       <c r="AX58" s="11">
-        <v>90151268</v>
+        <v>41209768</v>
       </c>
       <c r="AY58" s="11">
-        <v>54258612</v>
+        <v>60837437</v>
       </c>
       <c r="AZ58" s="11">
-        <v>41209768</v>
+        <v>46687849</v>
       </c>
       <c r="BA58" s="11">
-        <v>60837437</v>
+        <v>52274183</v>
       </c>
       <c r="BB58" s="11">
-        <v>46687849</v>
+        <v>52251542</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>64</v>
       </c>
@@ -7665,55 +7700,55 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>1149682</v>
+        <v>1057850</v>
       </c>
       <c r="F59" s="13">
-        <v>1421527</v>
+        <v>1094629</v>
       </c>
       <c r="G59" s="13">
-        <v>1057850</v>
+        <v>458824</v>
       </c>
       <c r="H59" s="13">
-        <v>1094629</v>
+        <v>1792193</v>
       </c>
       <c r="I59" s="13">
-        <v>458824</v>
+        <v>1619329</v>
       </c>
       <c r="J59" s="13">
-        <v>1792193</v>
+        <v>679390</v>
       </c>
       <c r="K59" s="13">
-        <v>1619329</v>
+        <v>2869663</v>
       </c>
       <c r="L59" s="13">
-        <v>679390</v>
+        <v>1248934</v>
       </c>
       <c r="M59" s="13">
-        <v>2869663</v>
+        <v>476254</v>
       </c>
       <c r="N59" s="13">
-        <v>1248934</v>
+        <v>35004</v>
       </c>
       <c r="O59" s="13">
-        <v>476254</v>
+        <v>128932</v>
       </c>
       <c r="P59" s="13">
-        <v>35004</v>
+        <v>120504</v>
       </c>
       <c r="Q59" s="13">
-        <v>128932</v>
+        <v>196665</v>
       </c>
       <c r="R59" s="13">
-        <v>120504</v>
+        <v>135619</v>
       </c>
       <c r="S59" s="13">
-        <v>196665</v>
+        <v>160294</v>
       </c>
       <c r="T59" s="13">
-        <v>135619</v>
+        <v>0</v>
       </c>
       <c r="U59" s="13">
-        <v>160294</v>
+        <v>0</v>
       </c>
       <c r="V59" s="13">
         <v>0</v>
@@ -7725,25 +7760,25 @@
         <v>0</v>
       </c>
       <c r="Y59" s="13">
-        <v>0</v>
+        <v>1000713</v>
       </c>
       <c r="Z59" s="13">
         <v>0</v>
       </c>
       <c r="AA59" s="13">
-        <v>1000713</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="13">
-        <v>0</v>
+        <v>97094</v>
       </c>
       <c r="AC59" s="13">
-        <v>0</v>
+        <v>228397</v>
       </c>
       <c r="AD59" s="13">
-        <v>97094</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="13">
-        <v>228397</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="13">
         <v>0</v>
@@ -7751,17 +7786,17 @@
       <c r="AG59" s="13">
         <v>0</v>
       </c>
-      <c r="AH59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK59" s="13" t="s">
-        <v>57</v>
+      <c r="AH59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="13">
+        <v>0</v>
       </c>
       <c r="AL59" s="13">
         <v>0</v>
@@ -7787,11 +7822,11 @@
       <c r="AS59" s="13">
         <v>0</v>
       </c>
-      <c r="AT59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU59" s="13">
-        <v>0</v>
+      <c r="AT59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV59" s="13" t="s">
         <v>57</v>
@@ -7815,7 +7850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>65</v>
       </c>
@@ -7877,104 +7912,104 @@
       <c r="V60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>57</v>
+      <c r="W60" s="11">
+        <v>53207</v>
+      </c>
+      <c r="X60" s="11">
+        <v>45036</v>
       </c>
       <c r="Y60" s="11">
-        <v>53207</v>
+        <v>318244</v>
       </c>
       <c r="Z60" s="11">
-        <v>45036</v>
+        <v>-3722</v>
       </c>
       <c r="AA60" s="11">
-        <v>318244</v>
+        <v>222760</v>
       </c>
       <c r="AB60" s="11">
-        <v>-3722</v>
+        <v>78722</v>
       </c>
       <c r="AC60" s="11">
-        <v>222760</v>
+        <v>512304</v>
       </c>
       <c r="AD60" s="11">
-        <v>78722</v>
+        <v>157984</v>
       </c>
       <c r="AE60" s="11">
-        <v>512304</v>
+        <v>277397</v>
       </c>
       <c r="AF60" s="11">
-        <v>157984</v>
+        <v>7818</v>
       </c>
       <c r="AG60" s="11">
-        <v>277397</v>
-      </c>
-      <c r="AH60" s="11">
-        <v>7818</v>
+        <v>777922</v>
+      </c>
+      <c r="AH60" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI60" s="11">
-        <v>777922</v>
-      </c>
-      <c r="AJ60" s="11" t="s">
-        <v>57</v>
+        <v>892834</v>
+      </c>
+      <c r="AJ60" s="11">
+        <v>143375</v>
       </c>
       <c r="AK60" s="11">
-        <v>892834</v>
+        <v>617863</v>
       </c>
       <c r="AL60" s="11">
-        <v>143375</v>
+        <v>39403</v>
       </c>
       <c r="AM60" s="11">
-        <v>617863</v>
+        <v>180385</v>
       </c>
       <c r="AN60" s="11">
-        <v>39403</v>
+        <v>1535800</v>
       </c>
       <c r="AO60" s="11">
-        <v>180385</v>
+        <v>196586</v>
       </c>
       <c r="AP60" s="11">
-        <v>1535800</v>
+        <v>186293</v>
       </c>
       <c r="AQ60" s="11">
-        <v>196586</v>
+        <v>1233248</v>
       </c>
       <c r="AR60" s="11">
-        <v>186293</v>
+        <v>97703</v>
       </c>
       <c r="AS60" s="11">
-        <v>1233248</v>
+        <v>272464</v>
       </c>
       <c r="AT60" s="11">
-        <v>97703</v>
+        <v>0</v>
       </c>
       <c r="AU60" s="11">
-        <v>272464</v>
+        <v>845480</v>
       </c>
       <c r="AV60" s="11">
-        <v>0</v>
+        <v>217436</v>
       </c>
       <c r="AW60" s="11">
-        <v>106734</v>
+        <v>291423</v>
       </c>
       <c r="AX60" s="11">
-        <v>217436</v>
+        <v>-19978</v>
       </c>
       <c r="AY60" s="11">
-        <v>291423</v>
+        <v>177696</v>
       </c>
       <c r="AZ60" s="11">
-        <v>-19978</v>
+        <v>116811</v>
       </c>
       <c r="BA60" s="11">
-        <v>177696</v>
+        <v>1840170</v>
       </c>
       <c r="BB60" s="11">
-        <v>116811</v>
+        <v>1125278</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>66</v>
       </c>
@@ -8123,17 +8158,17 @@
       <c r="AY61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA61" s="13" t="s">
-        <v>57</v>
+      <c r="AZ61" s="13">
+        <v>743246</v>
+      </c>
+      <c r="BA61" s="13">
+        <v>0</v>
       </c>
       <c r="BB61" s="13">
-        <v>743246</v>
+        <v>44989</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>75</v>
       </c>
@@ -8190,7 +8225,7 @@
       <c r="BA62" s="15"/>
       <c r="BB62" s="15"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
         <v>68</v>
       </c>
@@ -8258,11 +8293,11 @@
       <c r="X63" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y63" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z63" s="17" t="s">
-        <v>57</v>
+      <c r="Y63" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="17">
+        <v>0</v>
       </c>
       <c r="AA63" s="17">
         <v>0</v>
@@ -8349,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>76</v>
       </c>
@@ -8406,7 +8441,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>59</v>
       </c>
@@ -8522,14 +8557,14 @@
       <c r="AN65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP65" s="11" t="s">
-        <v>57</v>
+      <c r="AO65" s="11">
+        <v>-350335</v>
+      </c>
+      <c r="AP65" s="11">
+        <v>0</v>
       </c>
       <c r="AQ65" s="11">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="11">
         <v>0</v>
@@ -8537,11 +8572,11 @@
       <c r="AS65" s="11">
         <v>0</v>
       </c>
-      <c r="AT65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="11">
-        <v>0</v>
+      <c r="AT65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV65" s="11" t="s">
         <v>57</v>
@@ -8555,17 +8590,17 @@
       <c r="AY65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB65" s="11" t="s">
-        <v>57</v>
+      <c r="AZ65" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB65" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="18" t="s">
         <v>72</v>
       </c>
@@ -8633,11 +8668,11 @@
       <c r="X66" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y66" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z66" s="19" t="s">
-        <v>57</v>
+      <c r="Y66" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="19">
+        <v>0</v>
       </c>
       <c r="AA66" s="19">
         <v>0</v>
@@ -8682,13 +8717,13 @@
         <v>0</v>
       </c>
       <c r="AO66" s="19">
-        <v>0</v>
+        <v>-350335</v>
       </c>
       <c r="AP66" s="19">
         <v>0</v>
       </c>
       <c r="AQ66" s="19">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="19">
         <v>0</v>
@@ -8724,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>77</v>
       </c>
@@ -8781,7 +8816,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>78</v>
       </c>
@@ -8849,11 +8884,11 @@
       <c r="X68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z68" s="11" t="s">
-        <v>57</v>
+      <c r="Y68" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="11">
+        <v>0</v>
       </c>
       <c r="AA68" s="11">
         <v>0</v>
@@ -8940,164 +8975,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19">
-        <v>4069238</v>
+        <v>10580192</v>
       </c>
       <c r="F69" s="19">
-        <v>4796878</v>
+        <v>6577871</v>
       </c>
       <c r="G69" s="19">
-        <v>10580192</v>
+        <v>4118638</v>
       </c>
       <c r="H69" s="19">
-        <v>6577871</v>
+        <v>12831869</v>
       </c>
       <c r="I69" s="19">
-        <v>4118638</v>
+        <v>18722571</v>
       </c>
       <c r="J69" s="19">
-        <v>12831869</v>
+        <v>3370938</v>
       </c>
       <c r="K69" s="19">
-        <v>18722571</v>
+        <v>27845521</v>
       </c>
       <c r="L69" s="19">
-        <v>3370938</v>
+        <v>19815993</v>
       </c>
       <c r="M69" s="19">
-        <v>27845521</v>
+        <v>17741972</v>
       </c>
       <c r="N69" s="19">
-        <v>19815993</v>
+        <v>17086871</v>
       </c>
       <c r="O69" s="19">
-        <v>17741972</v>
+        <v>15934494</v>
       </c>
       <c r="P69" s="19">
-        <v>17086871</v>
+        <v>17234955</v>
       </c>
       <c r="Q69" s="19">
-        <v>15934494</v>
+        <v>16928602</v>
       </c>
       <c r="R69" s="19">
-        <v>17234955</v>
+        <v>21904194</v>
       </c>
       <c r="S69" s="19">
-        <v>16928602</v>
+        <v>27223731</v>
       </c>
       <c r="T69" s="19">
-        <v>21904194</v>
+        <v>18706493</v>
       </c>
       <c r="U69" s="19">
-        <v>27223731</v>
+        <v>22287340</v>
       </c>
       <c r="V69" s="19">
-        <v>18706493</v>
+        <v>6581240</v>
       </c>
       <c r="W69" s="19">
-        <v>22287340</v>
+        <v>27758589</v>
       </c>
       <c r="X69" s="19">
-        <v>6581240</v>
+        <v>29837092</v>
       </c>
       <c r="Y69" s="19">
-        <v>27758589</v>
+        <v>27442510</v>
       </c>
       <c r="Z69" s="19">
-        <v>29837092</v>
+        <v>29049370</v>
       </c>
       <c r="AA69" s="19">
-        <v>27442510</v>
+        <v>42863645</v>
       </c>
       <c r="AB69" s="19">
-        <v>29049370</v>
+        <v>32883015</v>
       </c>
       <c r="AC69" s="19">
-        <v>42863645</v>
+        <v>36010365</v>
       </c>
       <c r="AD69" s="19">
-        <v>32883015</v>
+        <v>48865890</v>
       </c>
       <c r="AE69" s="19">
-        <v>36010365</v>
+        <v>32192469</v>
       </c>
       <c r="AF69" s="19">
-        <v>48865890</v>
+        <v>34783790</v>
       </c>
       <c r="AG69" s="19">
-        <v>32192469</v>
+        <v>75707865</v>
       </c>
       <c r="AH69" s="19">
-        <v>34783790</v>
+        <v>14007946</v>
       </c>
       <c r="AI69" s="19">
-        <v>75707865</v>
+        <v>55380865</v>
       </c>
       <c r="AJ69" s="19">
-        <v>14007946</v>
+        <v>65800838</v>
       </c>
       <c r="AK69" s="19">
-        <v>55380865</v>
+        <v>77438420</v>
       </c>
       <c r="AL69" s="19">
-        <v>65800838</v>
+        <v>48381486</v>
       </c>
       <c r="AM69" s="19">
-        <v>77438420</v>
+        <v>86740658</v>
       </c>
       <c r="AN69" s="19">
-        <v>48381486</v>
+        <v>54430283</v>
       </c>
       <c r="AO69" s="19">
-        <v>86740658</v>
+        <v>74784258</v>
       </c>
       <c r="AP69" s="19">
-        <v>54430283</v>
+        <v>72851480</v>
       </c>
       <c r="AQ69" s="19">
-        <v>74784258</v>
+        <v>76589147</v>
       </c>
       <c r="AR69" s="19">
-        <v>72851480</v>
+        <v>84743830</v>
       </c>
       <c r="AS69" s="19">
-        <v>76589147</v>
+        <v>96255838</v>
       </c>
       <c r="AT69" s="19">
-        <v>84743830</v>
+        <v>43024778</v>
       </c>
       <c r="AU69" s="19">
-        <v>96255838</v>
+        <v>81319630</v>
       </c>
       <c r="AV69" s="19">
-        <v>43024778</v>
+        <v>97091949</v>
       </c>
       <c r="AW69" s="19">
-        <v>81319630</v>
+        <v>60756901</v>
       </c>
       <c r="AX69" s="19">
-        <v>97091949</v>
+        <v>46652240</v>
       </c>
       <c r="AY69" s="19">
-        <v>60756901</v>
+        <v>68416807</v>
       </c>
       <c r="AZ69" s="19">
-        <v>46652240</v>
+        <v>52839326</v>
       </c>
       <c r="BA69" s="19">
-        <v>68416807</v>
+        <v>63498537</v>
       </c>
       <c r="BB69" s="19">
-        <v>52839326</v>
+        <v>61413832</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -9152,7 +9187,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9207,7 +9242,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9262,7 +9297,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>79</v>
       </c>
@@ -9419,7 +9454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9474,7 +9509,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>80</v>
       </c>
@@ -9531,7 +9566,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>55</v>
       </c>
@@ -9540,157 +9575,157 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>21086316</v>
+        <v>1140902</v>
       </c>
       <c r="F76" s="11">
-        <v>608817</v>
+        <v>1083162</v>
       </c>
       <c r="G76" s="11">
-        <v>1140902</v>
+        <v>22611337</v>
       </c>
       <c r="H76" s="11">
-        <v>1083162</v>
+        <v>23946205</v>
       </c>
       <c r="I76" s="11">
-        <v>22611337</v>
+        <v>12641088</v>
       </c>
       <c r="J76" s="11">
-        <v>23946205</v>
+        <v>1376950000</v>
       </c>
       <c r="K76" s="11">
-        <v>12641088</v>
+        <v>15923653</v>
       </c>
       <c r="L76" s="11">
-        <v>1376950000</v>
+        <v>56320696</v>
       </c>
       <c r="M76" s="11">
-        <v>15923653</v>
+        <v>541131</v>
       </c>
       <c r="N76" s="11">
-        <v>56320696</v>
+        <v>108149757</v>
       </c>
       <c r="O76" s="11">
-        <v>541131</v>
+        <v>21088580</v>
       </c>
       <c r="P76" s="11">
-        <v>108149757</v>
+        <v>6229092</v>
       </c>
       <c r="Q76" s="11">
-        <v>21088580</v>
+        <v>478100</v>
       </c>
       <c r="R76" s="11">
-        <v>6229092</v>
+        <v>8394518</v>
       </c>
       <c r="S76" s="11">
-        <v>478100</v>
+        <v>32649334</v>
       </c>
       <c r="T76" s="11">
-        <v>8394518</v>
+        <v>14494869</v>
       </c>
       <c r="U76" s="11">
-        <v>32649334</v>
-      </c>
-      <c r="V76" s="11">
-        <v>14494869</v>
-      </c>
-      <c r="W76" s="11">
         <v>3079365</v>
       </c>
-      <c r="X76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y76" s="11" t="s">
-        <v>57</v>
+      <c r="V76" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W76" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X76" s="11">
+        <v>252170</v>
+      </c>
+      <c r="Y76" s="11">
+        <v>345761</v>
       </c>
       <c r="Z76" s="11">
-        <v>252170</v>
+        <v>1546169</v>
       </c>
       <c r="AA76" s="11">
-        <v>345761</v>
+        <v>1061983</v>
       </c>
       <c r="AB76" s="11">
-        <v>1546169</v>
-      </c>
-      <c r="AC76" s="11">
-        <v>1061983</v>
+        <v>557171</v>
+      </c>
+      <c r="AC76" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD76" s="11">
-        <v>557171</v>
-      </c>
-      <c r="AE76" s="11" t="s">
-        <v>57</v>
+        <v>971116</v>
+      </c>
+      <c r="AE76" s="11">
+        <v>2127577</v>
       </c>
       <c r="AF76" s="11">
-        <v>971116</v>
+        <v>895480</v>
       </c>
       <c r="AG76" s="11">
-        <v>2127577</v>
-      </c>
-      <c r="AH76" s="11">
-        <v>895480</v>
+        <v>968012</v>
+      </c>
+      <c r="AH76" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI76" s="11">
-        <v>968012</v>
-      </c>
-      <c r="AJ76" s="11" t="s">
-        <v>57</v>
+        <v>3085198</v>
+      </c>
+      <c r="AJ76" s="11">
+        <v>3657975</v>
       </c>
       <c r="AK76" s="11">
-        <v>3085198</v>
+        <v>3656530</v>
       </c>
       <c r="AL76" s="11">
-        <v>3657975</v>
+        <v>745681</v>
       </c>
       <c r="AM76" s="11">
-        <v>3656530</v>
+        <v>3988090</v>
       </c>
       <c r="AN76" s="11">
-        <v>745681</v>
+        <v>551596</v>
       </c>
       <c r="AO76" s="11">
-        <v>3988090</v>
+        <v>4661619</v>
       </c>
       <c r="AP76" s="11">
-        <v>551596</v>
+        <v>5984297</v>
       </c>
       <c r="AQ76" s="11">
-        <v>4661619</v>
+        <v>3932534</v>
       </c>
       <c r="AR76" s="11">
-        <v>5984297</v>
+        <v>6711701</v>
       </c>
       <c r="AS76" s="11">
-        <v>3932534</v>
-      </c>
-      <c r="AT76" s="11">
-        <v>6711701</v>
+        <v>5931811</v>
+      </c>
+      <c r="AT76" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU76" s="11">
-        <v>5931811</v>
-      </c>
-      <c r="AV76" s="11" t="s">
-        <v>57</v>
+        <v>4853954</v>
+      </c>
+      <c r="AV76" s="11">
+        <v>4398425</v>
       </c>
       <c r="AW76" s="11">
-        <v>178698540</v>
+        <v>4315173</v>
       </c>
       <c r="AX76" s="11">
-        <v>4398425</v>
+        <v>4510538</v>
       </c>
       <c r="AY76" s="11">
-        <v>4315173</v>
+        <v>3735938</v>
       </c>
       <c r="AZ76" s="11">
-        <v>4510538</v>
+        <v>4411153</v>
       </c>
       <c r="BA76" s="11">
-        <v>3735938</v>
+        <v>3193005</v>
       </c>
       <c r="BB76" s="11">
-        <v>4411153</v>
+        <v>5083219</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>58</v>
       </c>
@@ -9699,157 +9734,157 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>439777778</v>
+        <v>821766603</v>
       </c>
       <c r="F77" s="13">
-        <v>469003876</v>
+        <v>842051136</v>
       </c>
       <c r="G77" s="13">
-        <v>821766603</v>
+        <v>916913603</v>
       </c>
       <c r="H77" s="13">
-        <v>842051136</v>
+        <v>758839196</v>
       </c>
       <c r="I77" s="13">
-        <v>916913603</v>
+        <v>895884434</v>
       </c>
       <c r="J77" s="13">
-        <v>758839196</v>
+        <v>1078058824</v>
       </c>
       <c r="K77" s="13">
-        <v>895884434</v>
+        <v>883550218</v>
       </c>
       <c r="L77" s="13">
-        <v>1078058824</v>
+        <v>1045704142</v>
       </c>
       <c r="M77" s="13">
-        <v>883550218</v>
+        <v>1110105008</v>
       </c>
       <c r="N77" s="13">
-        <v>1045704142</v>
+        <v>1110510730</v>
       </c>
       <c r="O77" s="13">
-        <v>1110105008</v>
+        <v>1067670157</v>
       </c>
       <c r="P77" s="13">
-        <v>1110510730</v>
+        <v>999624113</v>
       </c>
       <c r="Q77" s="13">
-        <v>1067670157</v>
+        <v>823777574</v>
       </c>
       <c r="R77" s="13">
-        <v>999624113</v>
+        <v>829910913</v>
       </c>
       <c r="S77" s="13">
-        <v>823777574</v>
+        <v>897853261</v>
       </c>
       <c r="T77" s="13">
-        <v>829910913</v>
+        <v>1065889552</v>
       </c>
       <c r="U77" s="13">
-        <v>897853261</v>
+        <v>1120638182</v>
       </c>
       <c r="V77" s="13">
-        <v>1065889552</v>
+        <v>1019038462</v>
       </c>
       <c r="W77" s="13">
-        <v>1120638182</v>
+        <v>1047766667</v>
       </c>
       <c r="X77" s="13">
-        <v>1019038462</v>
+        <v>986477143</v>
       </c>
       <c r="Y77" s="13">
-        <v>1047766667</v>
+        <v>1132564388</v>
       </c>
       <c r="Z77" s="13">
-        <v>986477143</v>
+        <v>1397669927</v>
       </c>
       <c r="AA77" s="13">
-        <v>1132564388</v>
+        <v>1780813653</v>
       </c>
       <c r="AB77" s="13">
-        <v>1397669927</v>
+        <v>2102423163</v>
       </c>
       <c r="AC77" s="13">
-        <v>1780813653</v>
+        <v>2444637450</v>
       </c>
       <c r="AD77" s="13">
-        <v>2102423163</v>
+        <v>2299693182</v>
       </c>
       <c r="AE77" s="13">
-        <v>2444637450</v>
+        <v>2832802198</v>
       </c>
       <c r="AF77" s="13">
-        <v>2299693182</v>
+        <v>2606956370</v>
       </c>
       <c r="AG77" s="13">
-        <v>2832802198</v>
+        <v>2427581649</v>
       </c>
       <c r="AH77" s="13">
-        <v>2606956370</v>
+        <v>2625803347</v>
       </c>
       <c r="AI77" s="13">
-        <v>2427581649</v>
+        <v>2362121951</v>
       </c>
       <c r="AJ77" s="13">
-        <v>2625803347</v>
+        <v>2662597111</v>
       </c>
       <c r="AK77" s="13">
-        <v>2362121951</v>
+        <v>3495806452</v>
       </c>
       <c r="AL77" s="13">
-        <v>2662597111</v>
+        <v>3366891037</v>
       </c>
       <c r="AM77" s="13">
-        <v>3495806452</v>
+        <v>4722215659</v>
       </c>
       <c r="AN77" s="13">
-        <v>3366891037</v>
+        <v>4136790698</v>
       </c>
       <c r="AO77" s="13">
-        <v>4722215659</v>
+        <v>4849831104</v>
       </c>
       <c r="AP77" s="13">
-        <v>4136790698</v>
+        <v>4228518265</v>
       </c>
       <c r="AQ77" s="13">
-        <v>4849831104</v>
+        <v>4875186501</v>
       </c>
       <c r="AR77" s="13">
-        <v>4228518265</v>
+        <v>4711575188</v>
       </c>
       <c r="AS77" s="13">
-        <v>4875186501</v>
+        <v>4401865333</v>
       </c>
       <c r="AT77" s="13">
-        <v>4711575188</v>
+        <v>4681379182</v>
       </c>
       <c r="AU77" s="13">
-        <v>4401865333</v>
+        <v>4176331667</v>
       </c>
       <c r="AV77" s="13">
-        <v>4681379182</v>
+        <v>3603601375</v>
       </c>
       <c r="AW77" s="13">
-        <v>4176331667</v>
+        <v>3440901280</v>
       </c>
       <c r="AX77" s="13">
-        <v>3603601375</v>
+        <v>3120782927</v>
       </c>
       <c r="AY77" s="13">
-        <v>3440901280</v>
+        <v>3268365882</v>
       </c>
       <c r="AZ77" s="13">
-        <v>3120782927</v>
+        <v>3801684564</v>
       </c>
       <c r="BA77" s="13">
-        <v>3268365882</v>
+        <v>4094765035</v>
       </c>
       <c r="BB77" s="13">
-        <v>3801684564</v>
+        <v>4631548157</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>59</v>
       </c>
@@ -9858,157 +9893,157 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>390909</v>
+        <v>686605</v>
       </c>
       <c r="F78" s="11">
-        <v>310435</v>
+        <v>779459</v>
       </c>
       <c r="G78" s="11">
-        <v>686605</v>
+        <v>518159</v>
       </c>
       <c r="H78" s="11">
-        <v>779459</v>
+        <v>829960</v>
       </c>
       <c r="I78" s="11">
-        <v>518159</v>
+        <v>679854</v>
       </c>
       <c r="J78" s="11">
-        <v>829960</v>
+        <v>0</v>
       </c>
       <c r="K78" s="11">
-        <v>679854</v>
+        <v>0</v>
       </c>
       <c r="L78" s="11">
-        <v>0</v>
+        <v>645921</v>
       </c>
       <c r="M78" s="11">
         <v>0</v>
       </c>
       <c r="N78" s="11">
-        <v>645921</v>
+        <v>822038</v>
       </c>
       <c r="O78" s="11">
-        <v>0</v>
+        <v>748166667</v>
       </c>
       <c r="P78" s="11">
-        <v>822038</v>
+        <v>797567</v>
       </c>
       <c r="Q78" s="11">
-        <v>748166667</v>
+        <v>687369</v>
       </c>
       <c r="R78" s="11">
-        <v>797567</v>
+        <v>662386</v>
       </c>
       <c r="S78" s="11">
-        <v>687369</v>
+        <v>652989</v>
       </c>
       <c r="T78" s="11">
-        <v>662386</v>
+        <v>695565</v>
       </c>
       <c r="U78" s="11">
-        <v>652989</v>
-      </c>
-      <c r="V78" s="11">
-        <v>695565</v>
-      </c>
-      <c r="W78" s="11">
         <v>770153</v>
       </c>
-      <c r="X78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y78" s="11" t="s">
-        <v>57</v>
+      <c r="V78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W78" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X78" s="11">
+        <v>820540</v>
+      </c>
+      <c r="Y78" s="11">
+        <v>808664</v>
       </c>
       <c r="Z78" s="11">
-        <v>820540</v>
+        <v>971725</v>
       </c>
       <c r="AA78" s="11">
-        <v>808664</v>
+        <v>1431141</v>
       </c>
       <c r="AB78" s="11">
-        <v>971725</v>
-      </c>
-      <c r="AC78" s="11">
-        <v>1431141</v>
+        <v>1080881</v>
+      </c>
+      <c r="AC78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD78" s="11">
-        <v>1080881</v>
-      </c>
-      <c r="AE78" s="11" t="s">
-        <v>57</v>
+        <v>1560258</v>
+      </c>
+      <c r="AE78" s="11">
+        <v>2291580</v>
       </c>
       <c r="AF78" s="11">
-        <v>1560258</v>
+        <v>2370646</v>
       </c>
       <c r="AG78" s="11">
-        <v>2291580</v>
-      </c>
-      <c r="AH78" s="11">
-        <v>2370646</v>
+        <v>1954506</v>
+      </c>
+      <c r="AH78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI78" s="11">
-        <v>1954506</v>
-      </c>
-      <c r="AJ78" s="11" t="s">
-        <v>57</v>
+        <v>2648188</v>
+      </c>
+      <c r="AJ78" s="11">
+        <v>1185775</v>
       </c>
       <c r="AK78" s="11">
-        <v>2648188</v>
+        <v>1703060</v>
       </c>
       <c r="AL78" s="11">
-        <v>1185775</v>
+        <v>1493852</v>
       </c>
       <c r="AM78" s="11">
-        <v>1703060</v>
+        <v>2153828</v>
       </c>
       <c r="AN78" s="11">
-        <v>1493852</v>
+        <v>2293851</v>
       </c>
       <c r="AO78" s="11">
-        <v>2153828</v>
+        <v>2179518</v>
       </c>
       <c r="AP78" s="11">
-        <v>2293851</v>
+        <v>2947274</v>
       </c>
       <c r="AQ78" s="11">
-        <v>2179518</v>
+        <v>3194856</v>
       </c>
       <c r="AR78" s="11">
-        <v>2947274</v>
+        <v>1968405</v>
       </c>
       <c r="AS78" s="11">
-        <v>3194856</v>
-      </c>
-      <c r="AT78" s="11">
-        <v>1968405</v>
+        <v>2441473</v>
+      </c>
+      <c r="AT78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU78" s="11">
-        <v>2441473</v>
-      </c>
-      <c r="AV78" s="11" t="s">
-        <v>57</v>
+        <v>2504309</v>
+      </c>
+      <c r="AV78" s="11">
+        <v>1407794</v>
       </c>
       <c r="AW78" s="11">
-        <v>2712524</v>
-      </c>
-      <c r="AX78" s="11">
-        <v>1407794</v>
+        <v>2830808</v>
+      </c>
+      <c r="AX78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY78" s="11">
-        <v>2830808</v>
-      </c>
-      <c r="AZ78" s="11" t="s">
-        <v>57</v>
+        <v>2490590</v>
+      </c>
+      <c r="AZ78" s="11">
+        <v>2681818</v>
       </c>
       <c r="BA78" s="11">
-        <v>2490590</v>
+        <v>2788723</v>
       </c>
       <c r="BB78" s="11">
-        <v>2681818</v>
+        <v>1177418</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>60</v>
       </c>
@@ -10031,143 +10066,143 @@
       <c r="I79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="13" t="s">
-        <v>57</v>
+      <c r="J79" s="13">
+        <v>1765577</v>
+      </c>
+      <c r="K79" s="13">
+        <v>1751194</v>
       </c>
       <c r="L79" s="13">
-        <v>1765577</v>
+        <v>1760139</v>
       </c>
       <c r="M79" s="13">
-        <v>1751194</v>
+        <v>1750011</v>
       </c>
       <c r="N79" s="13">
-        <v>1760139</v>
+        <v>1758517</v>
       </c>
       <c r="O79" s="13">
-        <v>1750011</v>
+        <v>1756951</v>
       </c>
       <c r="P79" s="13">
-        <v>1758517</v>
+        <v>1750062</v>
       </c>
       <c r="Q79" s="13">
-        <v>1756951</v>
+        <v>1759210</v>
       </c>
       <c r="R79" s="13">
-        <v>1750062</v>
+        <v>1749980</v>
       </c>
       <c r="S79" s="13">
-        <v>1759210</v>
+        <v>1713283</v>
       </c>
       <c r="T79" s="13">
-        <v>1749980</v>
+        <v>1300261</v>
       </c>
       <c r="U79" s="13">
-        <v>1713283</v>
+        <v>1202351</v>
       </c>
       <c r="V79" s="13">
-        <v>1300261</v>
+        <v>1200087</v>
       </c>
       <c r="W79" s="13">
-        <v>1202351</v>
+        <v>1200016</v>
       </c>
       <c r="X79" s="13">
-        <v>1200087</v>
+        <v>1200940</v>
       </c>
       <c r="Y79" s="13">
-        <v>1200016</v>
+        <v>1202795</v>
       </c>
       <c r="Z79" s="13">
-        <v>1200940</v>
+        <v>1194232</v>
       </c>
       <c r="AA79" s="13">
-        <v>1202795</v>
+        <v>1154399</v>
       </c>
       <c r="AB79" s="13">
-        <v>1194232</v>
+        <v>1059929</v>
       </c>
       <c r="AC79" s="13">
-        <v>1154399</v>
+        <v>914794</v>
       </c>
       <c r="AD79" s="13">
-        <v>1059929</v>
+        <v>989010</v>
       </c>
       <c r="AE79" s="13">
-        <v>914794</v>
+        <v>967754</v>
       </c>
       <c r="AF79" s="13">
-        <v>989010</v>
+        <v>965273</v>
       </c>
       <c r="AG79" s="13">
-        <v>967754</v>
+        <v>979637</v>
       </c>
       <c r="AH79" s="13">
-        <v>965273</v>
+        <v>1960543</v>
       </c>
       <c r="AI79" s="13">
-        <v>979637</v>
+        <v>3150020</v>
       </c>
       <c r="AJ79" s="13">
-        <v>1960543</v>
+        <v>3890425</v>
       </c>
       <c r="AK79" s="13">
-        <v>3150020</v>
+        <v>3949000</v>
       </c>
       <c r="AL79" s="13">
-        <v>3890425</v>
+        <v>3812957</v>
       </c>
       <c r="AM79" s="13">
-        <v>3949000</v>
+        <v>3956464</v>
       </c>
       <c r="AN79" s="13">
-        <v>3812957</v>
+        <v>5071596</v>
       </c>
       <c r="AO79" s="13">
-        <v>3956464</v>
+        <v>5989500</v>
       </c>
       <c r="AP79" s="13">
-        <v>5071596</v>
+        <v>5985451</v>
       </c>
       <c r="AQ79" s="13">
-        <v>5989500</v>
+        <v>6623001</v>
       </c>
       <c r="AR79" s="13">
-        <v>5985451</v>
+        <v>6244510</v>
       </c>
       <c r="AS79" s="13">
-        <v>6623001</v>
+        <v>7098802</v>
       </c>
       <c r="AT79" s="13">
-        <v>6244510</v>
+        <v>9573642</v>
       </c>
       <c r="AU79" s="13">
-        <v>7098802</v>
+        <v>10834592</v>
       </c>
       <c r="AV79" s="13">
-        <v>9573642</v>
+        <v>13948377</v>
       </c>
       <c r="AW79" s="13">
-        <v>10834592</v>
+        <v>14792106</v>
       </c>
       <c r="AX79" s="13">
-        <v>13948377</v>
+        <v>14701024</v>
       </c>
       <c r="AY79" s="13">
-        <v>14792106</v>
+        <v>14992982</v>
       </c>
       <c r="AZ79" s="13">
-        <v>14701024</v>
+        <v>14967951</v>
       </c>
       <c r="BA79" s="13">
-        <v>14992982</v>
+        <v>11280437</v>
       </c>
       <c r="BB79" s="13">
-        <v>14967951</v>
+        <v>10076865</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>61</v>
       </c>
@@ -10176,157 +10211,157 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>4209245614</v>
+        <v>13860028571</v>
       </c>
       <c r="F80" s="11">
-        <v>10573500000</v>
+        <v>13848625000</v>
       </c>
       <c r="G80" s="11">
-        <v>13860028571</v>
+        <v>11472500000</v>
       </c>
       <c r="H80" s="11">
-        <v>13848625000</v>
+        <v>14704875000</v>
       </c>
       <c r="I80" s="11">
-        <v>11472500000</v>
+        <v>14066614035</v>
       </c>
       <c r="J80" s="11">
-        <v>14704875000</v>
+        <v>0</v>
       </c>
       <c r="K80" s="11">
-        <v>14066614035</v>
+        <v>14126312500</v>
       </c>
       <c r="L80" s="11">
-        <v>0</v>
+        <v>12637315789</v>
       </c>
       <c r="M80" s="11">
-        <v>14126312500</v>
+        <v>12598206897</v>
       </c>
       <c r="N80" s="11">
-        <v>12637315789</v>
+        <v>13934104167</v>
       </c>
       <c r="O80" s="11">
-        <v>12598206897</v>
+        <v>14332666667</v>
       </c>
       <c r="P80" s="11">
-        <v>13934104167</v>
+        <v>13523545455</v>
       </c>
       <c r="Q80" s="11">
-        <v>14332666667</v>
+        <v>12491595238</v>
       </c>
       <c r="R80" s="11">
-        <v>13523545455</v>
+        <v>14053020000</v>
       </c>
       <c r="S80" s="11">
-        <v>12491595238</v>
+        <v>14102242424</v>
       </c>
       <c r="T80" s="11">
-        <v>14053020000</v>
+        <v>15282000000</v>
       </c>
       <c r="U80" s="11">
-        <v>14102242424</v>
+        <v>17619681818</v>
       </c>
       <c r="V80" s="11">
-        <v>15282000000</v>
+        <v>16603642857</v>
       </c>
       <c r="W80" s="11">
-        <v>17619681818</v>
+        <v>22200672414</v>
       </c>
       <c r="X80" s="11">
-        <v>16603642857</v>
+        <v>26704710526</v>
       </c>
       <c r="Y80" s="11">
-        <v>22200672414</v>
+        <v>27563060241</v>
       </c>
       <c r="Z80" s="11">
-        <v>26704710526</v>
+        <v>35146240000</v>
       </c>
       <c r="AA80" s="11">
-        <v>27563060241</v>
+        <v>35543293103</v>
       </c>
       <c r="AB80" s="11">
-        <v>35146240000</v>
-      </c>
-      <c r="AC80" s="11">
-        <v>35543293103</v>
+        <v>43479459459</v>
+      </c>
+      <c r="AC80" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD80" s="11">
-        <v>43479459459</v>
-      </c>
-      <c r="AE80" s="11" t="s">
-        <v>57</v>
+        <v>39780615385</v>
+      </c>
+      <c r="AE80" s="11">
+        <v>35969318182</v>
       </c>
       <c r="AF80" s="11">
-        <v>39780615385</v>
+        <v>39300605263</v>
       </c>
       <c r="AG80" s="11">
-        <v>35969318182</v>
-      </c>
-      <c r="AH80" s="11">
-        <v>39300605263</v>
+        <v>33578758929</v>
+      </c>
+      <c r="AH80" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI80" s="11">
-        <v>33578758929</v>
-      </c>
-      <c r="AJ80" s="11" t="s">
-        <v>57</v>
+        <v>31473477273</v>
+      </c>
+      <c r="AJ80" s="11">
+        <v>33939621849</v>
       </c>
       <c r="AK80" s="11">
-        <v>31473477273</v>
+        <v>35218036585</v>
       </c>
       <c r="AL80" s="11">
-        <v>33939621849</v>
+        <v>36579597826</v>
       </c>
       <c r="AM80" s="11">
-        <v>35218036585</v>
+        <v>33918592105</v>
       </c>
       <c r="AN80" s="11">
-        <v>36579597826</v>
+        <v>36397220930</v>
       </c>
       <c r="AO80" s="11">
-        <v>33918592105</v>
+        <v>35317504854</v>
       </c>
       <c r="AP80" s="11">
-        <v>36397220930</v>
+        <v>37289505376</v>
       </c>
       <c r="AQ80" s="11">
-        <v>35317504854</v>
+        <v>34005552632</v>
       </c>
       <c r="AR80" s="11">
-        <v>37289505376</v>
+        <v>36368730769</v>
       </c>
       <c r="AS80" s="11">
-        <v>34005552632</v>
+        <v>32390323529</v>
       </c>
       <c r="AT80" s="11">
-        <v>36368730769</v>
+        <v>42900035714</v>
       </c>
       <c r="AU80" s="11">
-        <v>32390323529</v>
+        <v>38070529412</v>
       </c>
       <c r="AV80" s="11">
-        <v>42900035714</v>
+        <v>37583512821</v>
       </c>
       <c r="AW80" s="11">
-        <v>38070529412</v>
+        <v>43408216667</v>
       </c>
       <c r="AX80" s="11">
-        <v>37583512821</v>
+        <v>35236943820</v>
       </c>
       <c r="AY80" s="11">
-        <v>43408216667</v>
+        <v>41071444444</v>
       </c>
       <c r="AZ80" s="11">
-        <v>35236943820</v>
+        <v>39128571429</v>
       </c>
       <c r="BA80" s="11">
-        <v>41071444444</v>
+        <v>36986087500</v>
       </c>
       <c r="BB80" s="11">
-        <v>39128571429</v>
+        <v>37164873563</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>62</v>
       </c>
@@ -10338,154 +10373,154 @@
         <v>0</v>
       </c>
       <c r="F81" s="13">
-        <v>0</v>
+        <v>148944444</v>
       </c>
       <c r="G81" s="13">
         <v>0</v>
       </c>
       <c r="H81" s="13">
-        <v>148944444</v>
+        <v>141491018</v>
       </c>
       <c r="I81" s="13">
-        <v>0</v>
+        <v>143981431</v>
       </c>
       <c r="J81" s="13">
-        <v>141491018</v>
+        <v>0</v>
       </c>
       <c r="K81" s="13">
-        <v>143981431</v>
+        <v>158512197</v>
       </c>
       <c r="L81" s="13">
-        <v>0</v>
+        <v>148209933</v>
       </c>
       <c r="M81" s="13">
-        <v>158512197</v>
+        <v>146021983</v>
       </c>
       <c r="N81" s="13">
-        <v>148209933</v>
+        <v>0</v>
       </c>
       <c r="O81" s="13">
-        <v>146021983</v>
+        <v>175186599</v>
       </c>
       <c r="P81" s="13">
-        <v>0</v>
+        <v>138798359</v>
       </c>
       <c r="Q81" s="13">
-        <v>175186599</v>
+        <v>144356845</v>
       </c>
       <c r="R81" s="13">
-        <v>138798359</v>
+        <v>0</v>
       </c>
       <c r="S81" s="13">
-        <v>144356845</v>
+        <v>159870315</v>
       </c>
       <c r="T81" s="13">
-        <v>0</v>
+        <v>148555970</v>
       </c>
       <c r="U81" s="13">
-        <v>159870315</v>
-      </c>
-      <c r="V81" s="13">
-        <v>148555970</v>
-      </c>
-      <c r="W81" s="13">
         <v>160000131</v>
       </c>
-      <c r="X81" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y81" s="13" t="s">
-        <v>57</v>
+      <c r="V81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X81" s="13">
+        <v>151982268</v>
+      </c>
+      <c r="Y81" s="13">
+        <v>-1257278814</v>
       </c>
       <c r="Z81" s="13">
-        <v>151982268</v>
+        <v>202673301</v>
       </c>
       <c r="AA81" s="13">
-        <v>-1257278814</v>
+        <v>236442682</v>
       </c>
       <c r="AB81" s="13">
-        <v>202673301</v>
+        <v>209639462</v>
       </c>
       <c r="AC81" s="13">
-        <v>236442682</v>
+        <v>292944206</v>
       </c>
       <c r="AD81" s="13">
-        <v>209639462</v>
+        <v>294733166</v>
       </c>
       <c r="AE81" s="13">
-        <v>292944206</v>
+        <v>466457490</v>
       </c>
       <c r="AF81" s="13">
-        <v>294733166</v>
+        <v>391546486</v>
       </c>
       <c r="AG81" s="13">
-        <v>466457490</v>
-      </c>
-      <c r="AH81" s="13">
-        <v>391546486</v>
+        <v>475054910</v>
+      </c>
+      <c r="AH81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI81" s="13">
-        <v>475054910</v>
-      </c>
-      <c r="AJ81" s="13" t="s">
-        <v>57</v>
+        <v>478303371</v>
+      </c>
+      <c r="AJ81" s="13">
+        <v>448616179</v>
       </c>
       <c r="AK81" s="13">
-        <v>478303371</v>
-      </c>
-      <c r="AL81" s="13">
-        <v>448616179</v>
+        <v>464751180</v>
+      </c>
+      <c r="AL81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM81" s="13">
-        <v>464751180</v>
-      </c>
-      <c r="AN81" s="13" t="s">
-        <v>57</v>
+        <v>456617124</v>
+      </c>
+      <c r="AN81" s="13">
+        <v>419073529</v>
       </c>
       <c r="AO81" s="13">
-        <v>456617124</v>
+        <v>442253151</v>
       </c>
       <c r="AP81" s="13">
-        <v>419073529</v>
-      </c>
-      <c r="AQ81" s="13">
-        <v>442253151</v>
-      </c>
-      <c r="AR81" s="13">
         <v>483809524</v>
       </c>
-      <c r="AS81" s="13" t="s">
-        <v>57</v>
+      <c r="AQ81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS81" s="13">
+        <v>495919184</v>
       </c>
       <c r="AT81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU81" s="13">
-        <v>495919184</v>
-      </c>
-      <c r="AV81" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW81" s="13" t="s">
-        <v>57</v>
+      <c r="AU81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV81" s="13">
+        <v>581372506</v>
+      </c>
+      <c r="AW81" s="13">
+        <v>507855889</v>
       </c>
       <c r="AX81" s="13">
-        <v>581372506</v>
+        <v>449619577</v>
       </c>
       <c r="AY81" s="13">
-        <v>507855889</v>
+        <v>442546737</v>
       </c>
       <c r="AZ81" s="13">
-        <v>449619577</v>
+        <v>472422917</v>
       </c>
       <c r="BA81" s="13">
-        <v>442546737</v>
-      </c>
-      <c r="BB81" s="13">
-        <v>472422917</v>
+        <v>444511079</v>
+      </c>
+      <c r="BB81" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>63</v>
       </c>
@@ -10494,157 +10529,157 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>337576757</v>
+        <v>578356702</v>
       </c>
       <c r="F82" s="11">
-        <v>488385965</v>
+        <v>549848550</v>
       </c>
       <c r="G82" s="11">
-        <v>578356702</v>
+        <v>545443909</v>
       </c>
       <c r="H82" s="11">
-        <v>549848550</v>
+        <v>513272212</v>
       </c>
       <c r="I82" s="11">
-        <v>545443909</v>
+        <v>617466989</v>
       </c>
       <c r="J82" s="11">
-        <v>513272212</v>
+        <v>646363854</v>
       </c>
       <c r="K82" s="11">
-        <v>617466989</v>
+        <v>658656115</v>
       </c>
       <c r="L82" s="11">
-        <v>646363854</v>
+        <v>696254699</v>
       </c>
       <c r="M82" s="11">
-        <v>658656115</v>
+        <v>677614544</v>
       </c>
       <c r="N82" s="11">
-        <v>696254699</v>
+        <v>669890744</v>
       </c>
       <c r="O82" s="11">
-        <v>677614544</v>
+        <v>639436950</v>
       </c>
       <c r="P82" s="11">
-        <v>669890744</v>
+        <v>645377511</v>
       </c>
       <c r="Q82" s="11">
-        <v>639436950</v>
+        <v>639609874</v>
       </c>
       <c r="R82" s="11">
-        <v>645377511</v>
+        <v>686991539</v>
       </c>
       <c r="S82" s="11">
-        <v>639609874</v>
+        <v>707588660</v>
       </c>
       <c r="T82" s="11">
-        <v>686991539</v>
+        <v>744513648</v>
       </c>
       <c r="U82" s="11">
-        <v>707588660</v>
+        <v>735327344</v>
       </c>
       <c r="V82" s="11">
-        <v>744513648</v>
+        <v>698865811</v>
       </c>
       <c r="W82" s="11">
-        <v>735327344</v>
+        <v>734203388</v>
       </c>
       <c r="X82" s="11">
-        <v>698865811</v>
+        <v>799114424</v>
       </c>
       <c r="Y82" s="11">
-        <v>734203388</v>
+        <v>918006668</v>
       </c>
       <c r="Z82" s="11">
-        <v>799114424</v>
+        <v>1132319348</v>
       </c>
       <c r="AA82" s="11">
-        <v>918006668</v>
+        <v>1435904675</v>
       </c>
       <c r="AB82" s="11">
-        <v>1132319348</v>
+        <v>1502415071</v>
       </c>
       <c r="AC82" s="11">
-        <v>1435904675</v>
+        <v>1683447579</v>
       </c>
       <c r="AD82" s="11">
-        <v>1502415071</v>
+        <v>1938632108</v>
       </c>
       <c r="AE82" s="11">
-        <v>1683447579</v>
+        <v>2001555379</v>
       </c>
       <c r="AF82" s="11">
-        <v>1938632108</v>
+        <v>1926669591</v>
       </c>
       <c r="AG82" s="11">
-        <v>2001555379</v>
+        <v>2154638854</v>
       </c>
       <c r="AH82" s="11">
-        <v>1926669591</v>
+        <v>2139298779</v>
       </c>
       <c r="AI82" s="11">
-        <v>2154638854</v>
+        <v>2215889776</v>
       </c>
       <c r="AJ82" s="11">
-        <v>2139298779</v>
+        <v>2331669713</v>
       </c>
       <c r="AK82" s="11">
-        <v>2215889776</v>
+        <v>2112455888</v>
       </c>
       <c r="AL82" s="11">
-        <v>2331669713</v>
+        <v>2207932482</v>
       </c>
       <c r="AM82" s="11">
-        <v>2112455888</v>
+        <v>2221583573</v>
       </c>
       <c r="AN82" s="11">
-        <v>2207932482</v>
+        <v>2200253173</v>
       </c>
       <c r="AO82" s="11">
-        <v>2221583573</v>
+        <v>2393075974</v>
       </c>
       <c r="AP82" s="11">
-        <v>2200253173</v>
+        <v>2382988942</v>
       </c>
       <c r="AQ82" s="11">
-        <v>2393075974</v>
+        <v>2399238043</v>
       </c>
       <c r="AR82" s="11">
-        <v>2382988942</v>
+        <v>2494471695</v>
       </c>
       <c r="AS82" s="11">
-        <v>2399238043</v>
+        <v>2628123533</v>
       </c>
       <c r="AT82" s="11">
-        <v>2494471695</v>
+        <v>2626302849</v>
       </c>
       <c r="AU82" s="11">
-        <v>2628123533</v>
+        <v>2678109846</v>
       </c>
       <c r="AV82" s="11">
-        <v>2626302849</v>
+        <v>2614823448</v>
       </c>
       <c r="AW82" s="11">
-        <v>2678109846</v>
+        <v>2567482705</v>
       </c>
       <c r="AX82" s="11">
-        <v>2614823448</v>
+        <v>2492275053</v>
       </c>
       <c r="AY82" s="11">
-        <v>2567482705</v>
+        <v>2309610000</v>
       </c>
       <c r="AZ82" s="11">
-        <v>2492275053</v>
+        <v>2319893118</v>
       </c>
       <c r="BA82" s="11">
-        <v>2309610000</v>
+        <v>2354056696</v>
       </c>
       <c r="BB82" s="11">
-        <v>2319893118</v>
+        <v>2438811762</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>64</v>
       </c>
@@ -10653,86 +10688,86 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>452096736</v>
+        <v>582516520</v>
       </c>
       <c r="F83" s="13">
-        <v>565444312</v>
+        <v>577945618</v>
       </c>
       <c r="G83" s="13">
-        <v>582516520</v>
+        <v>521984073</v>
       </c>
       <c r="H83" s="13">
-        <v>577945618</v>
+        <v>508567821</v>
       </c>
       <c r="I83" s="13">
-        <v>521984073</v>
+        <v>686156356</v>
       </c>
       <c r="J83" s="13">
-        <v>508567821</v>
+        <v>698242549</v>
       </c>
       <c r="K83" s="13">
-        <v>686156356</v>
+        <v>712959752</v>
       </c>
       <c r="L83" s="13">
-        <v>698242549</v>
+        <v>704418500</v>
       </c>
       <c r="M83" s="13">
-        <v>712959752</v>
+        <v>686244957</v>
       </c>
       <c r="N83" s="13">
-        <v>704418500</v>
+        <v>700080000</v>
       </c>
       <c r="O83" s="13">
-        <v>686244957</v>
+        <v>685808511</v>
       </c>
       <c r="P83" s="13">
-        <v>700080000</v>
+        <v>665767956</v>
       </c>
       <c r="Q83" s="13">
-        <v>685808511</v>
+        <v>666661017</v>
       </c>
       <c r="R83" s="13">
-        <v>665767956</v>
+        <v>688421320</v>
       </c>
       <c r="S83" s="13">
-        <v>666661017</v>
+        <v>712417778</v>
       </c>
       <c r="T83" s="13">
-        <v>688421320</v>
+        <v>0</v>
       </c>
       <c r="U83" s="13">
-        <v>712417778</v>
-      </c>
-      <c r="V83" s="13">
-        <v>0</v>
-      </c>
-      <c r="W83" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>57</v>
+      <c r="Y83" s="13">
+        <v>1013893617</v>
       </c>
       <c r="Z83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA83" s="13">
-        <v>1013893617</v>
-      </c>
-      <c r="AB83" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC83" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD83" s="13">
+      <c r="AA83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB83" s="13">
         <v>1645661017</v>
       </c>
-      <c r="AE83" s="13">
+      <c r="AC83" s="13">
         <v>1667131387</v>
       </c>
+      <c r="AD83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE83" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AF83" s="13" t="s">
         <v>57</v>
       </c>
@@ -10803,7 +10838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>65</v>
       </c>
@@ -10865,104 +10900,104 @@
       <c r="V84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>57</v>
+      <c r="W84" s="11">
+        <v>1330175000</v>
+      </c>
+      <c r="X84" s="11">
+        <v>1125900000</v>
       </c>
       <c r="Y84" s="11">
-        <v>1330175000</v>
-      </c>
-      <c r="Z84" s="11">
-        <v>1125900000</v>
+        <v>2150297297</v>
+      </c>
+      <c r="Z84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA84" s="11">
-        <v>2150297297</v>
-      </c>
-      <c r="AB84" s="11" t="s">
-        <v>57</v>
+        <v>1392250000</v>
+      </c>
+      <c r="AB84" s="11">
+        <v>1968050000</v>
       </c>
       <c r="AC84" s="11">
-        <v>1392250000</v>
+        <v>2640742268</v>
       </c>
       <c r="AD84" s="11">
-        <v>1968050000</v>
+        <v>2677694915</v>
       </c>
       <c r="AE84" s="11">
-        <v>2640742268</v>
-      </c>
-      <c r="AF84" s="11">
-        <v>2677694915</v>
+        <v>3082188889</v>
+      </c>
+      <c r="AF84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG84" s="11">
-        <v>3082188889</v>
+        <v>2575900662</v>
       </c>
       <c r="AH84" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AI84" s="11">
-        <v>2575900662</v>
-      </c>
-      <c r="AJ84" s="11" t="s">
-        <v>57</v>
+        <v>3036850340</v>
+      </c>
+      <c r="AJ84" s="11">
+        <v>3413690476</v>
       </c>
       <c r="AK84" s="11">
-        <v>3036850340</v>
+        <v>15446575000</v>
       </c>
       <c r="AL84" s="11">
-        <v>3413690476</v>
+        <v>39403000000</v>
       </c>
       <c r="AM84" s="11">
-        <v>15446575000</v>
+        <v>4399634146</v>
       </c>
       <c r="AN84" s="11">
-        <v>39403000000</v>
+        <v>4584477612</v>
       </c>
       <c r="AO84" s="11">
-        <v>4399634146</v>
+        <v>4680619048</v>
       </c>
       <c r="AP84" s="11">
-        <v>4584477612</v>
+        <v>4435547619</v>
       </c>
       <c r="AQ84" s="11">
-        <v>4680619048</v>
+        <v>4893841270</v>
       </c>
       <c r="AR84" s="11">
-        <v>4435547619</v>
+        <v>4652523810</v>
       </c>
       <c r="AS84" s="11">
-        <v>4893841270</v>
-      </c>
-      <c r="AT84" s="11">
-        <v>4652523810</v>
+        <v>4191753846</v>
+      </c>
+      <c r="AT84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU84" s="11">
-        <v>4191753846</v>
-      </c>
-      <c r="AV84" s="11" t="s">
-        <v>57</v>
+        <v>5830896552</v>
+      </c>
+      <c r="AV84" s="11">
+        <v>5303317073</v>
       </c>
       <c r="AW84" s="11">
-        <v>5082571429</v>
+        <v>4625761905</v>
       </c>
       <c r="AX84" s="11">
-        <v>5303317073</v>
+        <v>19978000000</v>
       </c>
       <c r="AY84" s="11">
-        <v>4625761905</v>
+        <v>4334048780</v>
       </c>
       <c r="AZ84" s="11">
-        <v>19978000000</v>
+        <v>5562428571</v>
       </c>
       <c r="BA84" s="11">
-        <v>4334048780</v>
+        <v>6691527273</v>
       </c>
       <c r="BB84" s="11">
-        <v>5562428571</v>
+        <v>7603229730</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>66</v>
       </c>
@@ -11111,14 +11146,14 @@
       <c r="AY85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ85" s="13" t="s">
-        <v>57</v>
+      <c r="AZ85" s="13">
+        <v>1447863</v>
       </c>
       <c r="BA85" s="13" t="s">
         <v>57</v>
       </c>
       <c r="BB85" s="13">
-        <v>1447863</v>
+        <v>1147591</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/fameli/product/monthly.xlsx
+++ b/database/industries/felezat/fameli/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="83">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3238,154 +3238,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>0</v>
+        <v>10773</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>10773</v>
+        <v>20</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>20</v>
+        <v>2004</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>2004</v>
+        <v>3561</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>3561</v>
+        <v>22647</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>22647</v>
+        <v>3706</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>3706</v>
+        <v>11007</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>11007</v>
+        <v>5548</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>5548</v>
+        <v>19977</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>19977</v>
+        <v>16197</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>16197</v>
+        <v>6154</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>6154</v>
+        <v>20658</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>20658</v>
+        <v>27632</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>27632</v>
+        <v>0</v>
       </c>
       <c r="S11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>0</v>
+        <v>34675</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>34675</v>
+        <v>25133</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>25133</v>
+        <v>4451</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>4451</v>
+        <v>3665</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>3665</v>
+        <v>22494</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>22494</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>0</v>
+        <v>19180</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>19180</v>
+        <v>20466</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>20466</v>
+        <v>20599</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>20599</v>
-      </c>
-      <c r="AD11" s="12" t="n">
         <v>26092</v>
       </c>
-      <c r="AE11" s="13" t="s">
-        <v>57</v>
+      <c r="AD11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>6256</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>6256</v>
+        <v>3912</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>3912</v>
+        <v>2006</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>2006</v>
+        <v>31256</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>31256</v>
+        <v>4534</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>4534</v>
+        <v>44616</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>44616</v>
+        <v>22847</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>22847</v>
+        <v>7833</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>7833</v>
+        <v>6670</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>6670</v>
+        <v>829</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>829</v>
-      </c>
-      <c r="AP11" s="13" t="n">
         <v>9811</v>
       </c>
-      <c r="AQ11" s="13" t="s">
-        <v>57</v>
+      <c r="AP11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>4246</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>4246</v>
+        <v>9397</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>9397</v>
+        <v>6663</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>6663</v>
+        <v>17129</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>17129</v>
+        <v>11467</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>11467</v>
+        <v>15009</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>15009</v>
+        <v>7119</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>7119</v>
+        <v>24153</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>24153</v>
+        <v>8912</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>8912</v>
+        <v>12140</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>12140</v>
+        <v>15070</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>15070</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,154 +3397,154 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="F12" s="15" t="n">
+        <v>716</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>731</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>677</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>587</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>555</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>706</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>659</v>
+      </c>
+      <c r="M12" s="15" t="n">
+        <v>793</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>771</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <v>721</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v>759</v>
+      </c>
+      <c r="Q12" s="15" t="n">
+        <v>535</v>
+      </c>
+      <c r="R12" s="15" t="n">
+        <v>704</v>
+      </c>
+      <c r="S12" s="15" t="n">
+        <v>665</v>
+      </c>
+      <c r="T12" s="15" t="n">
+        <v>653</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <v>571</v>
+      </c>
+      <c r="V12" s="15" t="n">
+        <v>423</v>
+      </c>
+      <c r="W12" s="15" t="n">
+        <v>585</v>
+      </c>
+      <c r="X12" s="15" t="n">
+        <v>488</v>
+      </c>
+      <c r="Y12" s="15" t="n">
+        <v>563</v>
+      </c>
+      <c r="Z12" s="15" t="n">
+        <v>474</v>
+      </c>
+      <c r="AA12" s="15" t="n">
+        <v>459</v>
+      </c>
+      <c r="AB12" s="15" t="n">
+        <v>601</v>
+      </c>
+      <c r="AC12" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="AD12" s="15" t="n">
+        <v>679</v>
+      </c>
+      <c r="AE12" s="15" t="n">
+        <v>663</v>
+      </c>
+      <c r="AF12" s="15" t="n">
+        <v>684</v>
+      </c>
+      <c r="AG12" s="15" t="n">
         <v>509</v>
       </c>
-      <c r="G12" s="15" t="n">
-        <v>716</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>731</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>677</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>587</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>555</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>706</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>659</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <v>793</v>
-      </c>
-      <c r="O12" s="15" t="n">
-        <v>771</v>
-      </c>
-      <c r="P12" s="15" t="n">
-        <v>721</v>
-      </c>
-      <c r="Q12" s="15" t="n">
-        <v>759</v>
-      </c>
-      <c r="R12" s="15" t="n">
-        <v>535</v>
-      </c>
-      <c r="S12" s="15" t="n">
-        <v>704</v>
-      </c>
-      <c r="T12" s="15" t="n">
-        <v>665</v>
-      </c>
-      <c r="U12" s="15" t="n">
-        <v>653</v>
-      </c>
-      <c r="V12" s="15" t="n">
-        <v>571</v>
-      </c>
-      <c r="W12" s="15" t="n">
-        <v>423</v>
-      </c>
-      <c r="X12" s="15" t="n">
-        <v>585</v>
-      </c>
-      <c r="Y12" s="15" t="n">
-        <v>488</v>
-      </c>
-      <c r="Z12" s="15" t="n">
-        <v>563</v>
-      </c>
-      <c r="AA12" s="15" t="n">
-        <v>474</v>
-      </c>
-      <c r="AB12" s="15" t="n">
-        <v>459</v>
-      </c>
-      <c r="AC12" s="15" t="n">
-        <v>601</v>
-      </c>
-      <c r="AD12" s="15" t="n">
-        <v>580</v>
-      </c>
-      <c r="AE12" s="15" t="n">
-        <v>679</v>
-      </c>
-      <c r="AF12" s="15" t="n">
-        <v>663</v>
-      </c>
-      <c r="AG12" s="15" t="n">
-        <v>684</v>
-      </c>
       <c r="AH12" s="15" t="n">
-        <v>509</v>
+        <v>686</v>
       </c>
       <c r="AI12" s="15" t="n">
+        <v>755</v>
+      </c>
+      <c r="AJ12" s="15" t="n">
+        <v>735</v>
+      </c>
+      <c r="AK12" s="15" t="n">
+        <v>596</v>
+      </c>
+      <c r="AL12" s="15" t="n">
+        <v>645</v>
+      </c>
+      <c r="AM12" s="15" t="n">
+        <v>804</v>
+      </c>
+      <c r="AN12" s="15" t="n">
         <v>686</v>
       </c>
-      <c r="AJ12" s="15" t="n">
-        <v>755</v>
-      </c>
-      <c r="AK12" s="15" t="n">
-        <v>735</v>
-      </c>
-      <c r="AL12" s="15" t="n">
-        <v>596</v>
-      </c>
-      <c r="AM12" s="15" t="n">
-        <v>645</v>
-      </c>
-      <c r="AN12" s="15" t="n">
-        <v>804</v>
-      </c>
       <c r="AO12" s="15" t="n">
-        <v>686</v>
+        <v>833</v>
       </c>
       <c r="AP12" s="15" t="n">
-        <v>833</v>
+        <v>670</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>670</v>
+        <v>589</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>486</v>
+        <v>654</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>654</v>
+        <v>739</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>739</v>
+        <v>851</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>851</v>
+        <v>980</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>980</v>
+        <v>1025</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>1025</v>
+        <v>1252</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>1253</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,154 +3556,154 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>3769000</v>
+        <v>4224000</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>4224000</v>
+        <v>4737000</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>4737000</v>
+        <v>4865000</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>4865000</v>
+        <v>4005000</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>4005000</v>
+        <v>4854000</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>4854000</v>
+        <v>3957000</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>3957000</v>
+        <v>4609000</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>4609000</v>
+        <v>4820000</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>4820000</v>
+        <v>4389000</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>4389000</v>
+        <v>4579000</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>4579000</v>
+        <v>4400000</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>4400000</v>
+        <v>4209000</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>4209000</v>
-      </c>
-      <c r="R13" s="13" t="n">
         <v>3920000</v>
       </c>
+      <c r="R13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="13" t="s">
-        <v>57</v>
+      <c r="T13" s="13" t="n">
+        <v>4658000</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>4658000</v>
+        <v>4007000</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>4007000</v>
+        <v>4098000</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>4098000</v>
+        <v>4642000</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>4642000</v>
+        <v>4716000</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>4716000</v>
+        <v>4372000</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>4372000</v>
+        <v>4358000</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>4358000</v>
+        <v>4028000</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>4028000</v>
+        <v>4792000</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>4792000</v>
+        <v>4574000</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>4574000</v>
+        <v>4847000</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>4847000</v>
+        <v>4819000</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>4819000</v>
+        <v>4893000</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>4893000</v>
+        <v>3244000</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>3244000</v>
+        <v>4178000</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>4178000</v>
+        <v>5118000</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>5118000</v>
+        <v>4946000</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>4946000</v>
+        <v>4597000</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>4597000</v>
+        <v>4329000</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>4329000</v>
+        <v>4434000</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>4434000</v>
+        <v>4225000</v>
       </c>
       <c r="AO13" s="13" t="n">
+        <v>4291000</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>4817</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>4878000</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>9706183</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>3736000</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>4107000</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>4936000</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>4992000</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>4810000</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>4724000</v>
+      </c>
+      <c r="AY13" s="13" t="n">
+        <v>4163000</v>
+      </c>
+      <c r="AZ13" s="13" t="n">
         <v>4225000</v>
       </c>
-      <c r="AP13" s="13" t="n">
-        <v>4291000</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>4817</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>4878000</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>9706183</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>3736000</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>4107000</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>4936000</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>4992000</v>
-      </c>
-      <c r="AX13" s="13" t="n">
-        <v>4810000</v>
-      </c>
-      <c r="AY13" s="13" t="n">
-        <v>4724000</v>
-      </c>
-      <c r="AZ13" s="13" t="n">
-        <v>4163000</v>
-      </c>
       <c r="BA13" s="13" t="n">
-        <v>4225000</v>
+        <v>4218000</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>4218000</v>
+        <v>5082000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,152 +3717,152 @@
       <c r="E14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>57</v>
+      <c r="F14" s="16" t="n">
+        <v>48682</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>48682</v>
+        <v>10613</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>10613</v>
+        <v>39302</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>39302</v>
+        <v>13905</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>13905</v>
+        <v>8181</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>8181</v>
+        <v>10082</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>10082</v>
+        <v>13088</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>13088</v>
+        <v>35999</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>35999</v>
+        <v>34555</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>34555</v>
+        <v>14117</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>14117</v>
+        <v>20216</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>20216</v>
+        <v>15025</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>15025</v>
+        <v>15921</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>15921</v>
+        <v>17041</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>17041</v>
+        <v>26715</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>26715</v>
+        <v>50995</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>50995</v>
+        <v>26230</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>26230</v>
+        <v>30150</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>30150</v>
+        <v>28070</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>28070</v>
+        <v>36798</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>36798</v>
+        <v>39658</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>39658</v>
+        <v>55295</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>55295</v>
+        <v>56666</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>56666</v>
+        <v>69789</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>69789</v>
+        <v>64076</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>64076</v>
+        <v>76833</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>76833</v>
+        <v>75162</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>75162</v>
+        <v>53799</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>53799</v>
+        <v>46597</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>46597</v>
+        <v>57281</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>57281</v>
+        <v>82501</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>82501</v>
+        <v>81444</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>81444</v>
+        <v>82195</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>82195</v>
+        <v>74975</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>74975</v>
+        <v>53033</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>53033</v>
+        <v>70913</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>70913</v>
+        <v>85882</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>85882</v>
+        <v>87329</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>87329</v>
+        <v>77336</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>77336</v>
+        <v>67514</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>67514</v>
+        <v>46171</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>46171</v>
+        <v>86903</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>86903</v>
+        <v>88329</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>88329</v>
+        <v>81468</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>81468</v>
+        <v>76334</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>76334</v>
+        <v>69226</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>69226</v>
+        <v>59830</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>59830</v>
+        <v>61404</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>61404</v>
+        <v>67113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,154 +3874,154 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>73</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="K15" s="13" t="n">
+        <v>56</v>
+      </c>
+      <c r="L15" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="M15" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="N15" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="O15" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>58</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>58</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="W15" s="13" t="n">
         <v>67</v>
       </c>
-      <c r="F15" s="13" t="n">
-        <v>68</v>
-      </c>
-      <c r="G15" s="13" t="n">
-        <v>43</v>
-      </c>
-      <c r="H15" s="13" t="n">
+      <c r="X15" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>72</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>69</v>
+      </c>
+      <c r="AK15" s="13" t="n">
         <v>77</v>
       </c>
-      <c r="I15" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="J15" s="13" t="n">
-        <v>73</v>
-      </c>
-      <c r="K15" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="L15" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="M15" s="13" t="n">
-        <v>68</v>
-      </c>
-      <c r="N15" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="O15" s="13" t="n">
+      <c r="AL15" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>54</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>88</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AY15" s="13" t="n">
         <v>87</v>
       </c>
-      <c r="P15" s="13" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q15" s="13" t="n">
-        <v>55</v>
-      </c>
-      <c r="R15" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="S15" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>64</v>
-      </c>
-      <c r="U15" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="V15" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="W15" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="X15" s="13" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y15" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z15" s="13" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA15" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="AB15" s="13" t="n">
-        <v>74</v>
-      </c>
-      <c r="AC15" s="13" t="n">
-        <v>72</v>
-      </c>
-      <c r="AD15" s="13" t="n">
-        <v>53</v>
-      </c>
-      <c r="AE15" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF15" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AG15" s="13" t="n">
-        <v>72</v>
-      </c>
-      <c r="AH15" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="AI15" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="AJ15" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="AK15" s="13" t="n">
-        <v>69</v>
-      </c>
-      <c r="AL15" s="13" t="n">
-        <v>77</v>
-      </c>
-      <c r="AM15" s="13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN15" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AO15" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AZ15" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="BA15" s="13" t="n">
+        <v>157</v>
+      </c>
+      <c r="BB15" s="13" t="n">
         <v>78</v>
-      </c>
-      <c r="AQ15" s="13" t="n">
-        <v>102</v>
-      </c>
-      <c r="AR15" s="13" t="n">
-        <v>54</v>
-      </c>
-      <c r="AS15" s="13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AT15" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="AU15" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="AW15" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AX15" s="13" t="n">
-        <v>88</v>
-      </c>
-      <c r="AY15" s="13" t="n">
-        <v>82</v>
-      </c>
-      <c r="AZ15" s="13" t="n">
-        <v>87</v>
-      </c>
-      <c r="BA15" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="BB15" s="13" t="n">
-        <v>157</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,154 +4033,154 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>88089</v>
+        <v>90068</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>90068</v>
+        <v>102856</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>102856</v>
+        <v>101564</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>101564</v>
+        <v>95418</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>95418</v>
+        <v>100842</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>100842</v>
+        <v>85376</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>85376</v>
+        <v>107643</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>107643</v>
+        <v>102416</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>102416</v>
+        <v>100873</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>100873</v>
+        <v>99899</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>99899</v>
+        <v>101751</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>101751</v>
+        <v>95322</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>95322</v>
-      </c>
-      <c r="R16" s="16" t="n">
         <v>86167</v>
       </c>
-      <c r="S16" s="16" t="s">
-        <v>57</v>
+      <c r="R16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T16" s="16" t="n">
-        <v>0</v>
+        <v>100627</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>100627</v>
+        <v>93919</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>93919</v>
+        <v>89014</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>89014</v>
+        <v>106617</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>106617</v>
+        <v>107191</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>107191</v>
+        <v>97663</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>97663</v>
+        <v>100965</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>100965</v>
+        <v>92796</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>92796</v>
+        <v>100024</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>100024</v>
+        <v>101965</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>101965</v>
+        <v>108354</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>108354</v>
+        <v>108356</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>108356</v>
+        <v>106108</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>106108</v>
+        <v>79658</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>79658</v>
+        <v>88557</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>88557</v>
+        <v>115257</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>115257</v>
+        <v>111829</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>111829</v>
+        <v>101670</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>101670</v>
+        <v>104391</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>104391</v>
+        <v>105388</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>105388</v>
+        <v>98269</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>98269</v>
+        <v>99334</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>99334</v>
+        <v>111237</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>111237</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>0</v>
+        <v>216371</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>216371</v>
+        <v>90273</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>90273</v>
+        <v>86302</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>86302</v>
+        <v>110966</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>110966</v>
+        <v>100151</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>100151</v>
+        <v>89625</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>89625</v>
+        <v>94606</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>94606</v>
+        <v>85367</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>85367</v>
+        <v>103230</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>103230</v>
+        <v>99135</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>99135</v>
+        <v>118364</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,154 +4192,154 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="n">
-        <v>23404</v>
+        <v>23955</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>23955</v>
+        <v>21707</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>21707</v>
+        <v>23438</v>
       </c>
       <c r="H17" s="13" t="n">
-        <v>23438</v>
+        <v>22328</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>22328</v>
+        <v>22944</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>22944</v>
+        <v>19973</v>
       </c>
       <c r="K17" s="13" t="n">
-        <v>19973</v>
+        <v>22034</v>
       </c>
       <c r="L17" s="13" t="n">
-        <v>22034</v>
+        <v>21790</v>
       </c>
       <c r="M17" s="13" t="n">
-        <v>21790</v>
+        <v>19578</v>
       </c>
       <c r="N17" s="13" t="n">
-        <v>19578</v>
+        <v>15894</v>
       </c>
       <c r="O17" s="13" t="n">
-        <v>15894</v>
+        <v>15702</v>
       </c>
       <c r="P17" s="13" t="n">
-        <v>15702</v>
+        <v>18945</v>
       </c>
       <c r="Q17" s="13" t="n">
-        <v>18945</v>
+        <v>25800</v>
       </c>
       <c r="R17" s="13" t="n">
-        <v>25800</v>
+        <v>17961</v>
       </c>
       <c r="S17" s="13" t="n">
-        <v>17961</v>
+        <v>25228</v>
       </c>
       <c r="T17" s="13" t="n">
-        <v>25228</v>
+        <v>34898</v>
       </c>
       <c r="U17" s="13" t="n">
-        <v>34898</v>
+        <v>33342</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>33342</v>
+        <v>13350</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>13350</v>
+        <v>24199</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>24199</v>
+        <v>22830</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>22830</v>
+        <v>20567</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>20567</v>
+        <v>23480</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>23480</v>
+        <v>24341</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>24341</v>
+        <v>24667</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>24667</v>
+        <v>24496</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>24496</v>
+        <v>24615</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>24615</v>
+        <v>25373</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>25373</v>
+        <v>25591</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>25591</v>
+        <v>21534</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>21534</v>
+        <v>19398</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>19398</v>
+        <v>26818</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>26818</v>
+        <v>23462</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>23462</v>
+        <v>23995</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>23995</v>
+        <v>24560</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>24560</v>
+        <v>22698</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>22698</v>
+        <v>20454</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>20454</v>
+        <v>25515</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>25515</v>
+        <v>25145</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>25145</v>
+        <v>24696</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>24696</v>
+        <v>25643</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>25643</v>
+        <v>23682</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>23682</v>
+        <v>16311</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>16311</v>
+        <v>27953</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>27953</v>
+        <v>25208</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>25208</v>
+        <v>26013</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>26013</v>
+        <v>26029</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>26029</v>
+        <v>25940</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>25940</v>
+        <v>25875</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>25875</v>
+        <v>27515</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>27515</v>
+        <v>20842</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,25 +4351,25 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="n">
-        <v>2140</v>
+        <v>4190</v>
       </c>
       <c r="F18" s="16" t="n">
-        <v>4190</v>
+        <v>0</v>
       </c>
       <c r="G18" s="16" t="n">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="H18" s="16" t="n">
-        <v>1930</v>
+        <v>2942</v>
       </c>
       <c r="I18" s="16" t="n">
-        <v>2942</v>
+        <v>453</v>
       </c>
       <c r="J18" s="16" t="n">
-        <v>453</v>
+        <v>307</v>
       </c>
       <c r="K18" s="16" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="L18" s="16" t="n">
         <v>0</v>
@@ -4396,16 +4396,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="16" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="U18" s="16" t="n">
-        <v>185</v>
+        <v>924</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>924</v>
+        <v>32</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="X18" s="16" t="n">
         <v>0</v>
@@ -4425,14 +4425,14 @@
       <c r="AC18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="16" t="n">
-        <v>0</v>
+      <c r="AD18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="16" t="s">
-        <v>57</v>
+      <c r="AF18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG18" s="16" t="n">
         <v>0</v>
@@ -4461,8 +4461,8 @@
       <c r="AO18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP18" s="16" t="n">
-        <v>0</v>
+      <c r="AP18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ18" s="16" t="s">
         <v>57</v>
@@ -4551,113 +4551,113 @@
       <c r="R19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="13" t="s">
-        <v>57</v>
+      <c r="S19" s="13" t="n">
+        <v>40</v>
       </c>
       <c r="T19" s="13" t="n">
         <v>40</v>
       </c>
       <c r="U19" s="13" t="n">
+        <v>148</v>
+      </c>
+      <c r="V19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>160</v>
+      </c>
+      <c r="X19" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="V19" s="13" t="n">
-        <v>148</v>
-      </c>
-      <c r="W19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="13" t="n">
-        <v>160</v>
-      </c>
       <c r="Y19" s="13" t="n">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="Z19" s="13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB19" s="13" t="n">
+        <v>381</v>
+      </c>
+      <c r="AC19" s="13" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE19" s="13" t="n">
         <v>194</v>
       </c>
-      <c r="AA19" s="13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AF19" s="13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AI19" s="13" t="n">
         <v>90</v>
       </c>
-      <c r="AC19" s="13" t="n">
-        <v>381</v>
-      </c>
-      <c r="AD19" s="13" t="n">
-        <v>99</v>
-      </c>
-      <c r="AE19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF19" s="13" t="n">
-        <v>194</v>
-      </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AJ19" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="AO19" s="13" t="n">
         <v>91</v>
       </c>
-      <c r="AH19" s="13" t="n">
-        <v>87</v>
-      </c>
-      <c r="AI19" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="AJ19" s="13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="13" t="n">
-        <v>89</v>
-      </c>
-      <c r="AL19" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AP19" s="13" t="n">
         <v>96</v>
-      </c>
-      <c r="AN19" s="13" t="n">
-        <v>89</v>
-      </c>
-      <c r="AO19" s="13" t="n">
-        <v>86</v>
-      </c>
-      <c r="AP19" s="13" t="n">
-        <v>91</v>
       </c>
       <c r="AQ19" s="13" t="n">
         <v>96</v>
       </c>
       <c r="AR19" s="13" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="AT19" s="13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>127</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW19" s="13" t="n">
         <v>119</v>
       </c>
-      <c r="AU19" s="13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AV19" s="13" t="n">
-        <v>127</v>
-      </c>
-      <c r="AW19" s="13" t="n">
-        <v>120</v>
-      </c>
       <c r="AX19" s="13" t="n">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="AZ19" s="13" t="n">
+        <v>169</v>
+      </c>
+      <c r="BA19" s="13" t="n">
+        <v>166</v>
+      </c>
+      <c r="BB19" s="13" t="n">
         <v>167</v>
-      </c>
-      <c r="BA19" s="13" t="n">
-        <v>169</v>
-      </c>
-      <c r="BB19" s="13" t="n">
-        <v>166</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,17 +4806,17 @@
       <c r="AX20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY20" s="16" t="s">
-        <v>57</v>
+      <c r="AY20" s="16" t="n">
+        <v>1253</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>1253</v>
+        <v>1401</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>1401</v>
+        <v>2161</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>2161</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,17 +4956,17 @@
       <c r="AU21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV21" s="13" t="s">
-        <v>57</v>
+      <c r="AV21" s="13" t="n">
+        <v>513340</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>513340</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>0</v>
+        <v>39203</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>39203</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="13" t="n">
         <v>0</v>
@@ -5089,8 +5089,8 @@
       <c r="T23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="20" t="s">
-        <v>57</v>
+      <c r="U23" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="20" t="n">
         <v>0</v>
@@ -5199,154 +5199,154 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="n">
-        <v>3883194</v>
+        <v>4353563</v>
       </c>
       <c r="F24" s="22" t="n">
-        <v>4353563</v>
+        <v>4911024</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>4911024</v>
+        <v>5005357</v>
       </c>
       <c r="H24" s="22" t="n">
-        <v>5005357</v>
+        <v>4169279</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>4169279</v>
+        <v>5015451</v>
       </c>
       <c r="J24" s="22" t="n">
-        <v>5015451</v>
+        <v>4075161</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>4075161</v>
+        <v>4760528</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>4760528</v>
+        <v>4963569</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>4963569</v>
+        <v>4566256</v>
       </c>
       <c r="N24" s="22" t="n">
-        <v>4566256</v>
+        <v>4746403</v>
       </c>
       <c r="O24" s="22" t="n">
-        <v>4746403</v>
+        <v>4538534</v>
       </c>
       <c r="P24" s="22" t="n">
-        <v>4538534</v>
+        <v>4364955</v>
       </c>
       <c r="Q24" s="22" t="n">
-        <v>4364955</v>
+        <v>4075217</v>
       </c>
       <c r="R24" s="22" t="n">
-        <v>4075217</v>
+        <v>34652</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v>34652</v>
+        <v>43038</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>43038</v>
+        <v>4855876</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>4855876</v>
+        <v>4212090</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>4212090</v>
+        <v>4231563</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>4231563</v>
+        <v>4807443</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>4807443</v>
+        <v>4897164</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>4897164</v>
+        <v>4527837</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>4527837</v>
+        <v>4541910</v>
       </c>
       <c r="AA24" s="22" t="n">
-        <v>4541910</v>
+        <v>4221521</v>
       </c>
       <c r="AB24" s="22" t="n">
-        <v>4221521</v>
+        <v>4995010</v>
       </c>
       <c r="AC24" s="22" t="n">
+        <v>4797074</v>
+      </c>
+      <c r="AD24" s="22" t="n">
+        <v>5044789</v>
+      </c>
+      <c r="AE24" s="22" t="n">
+        <v>5036751</v>
+      </c>
+      <c r="AF24" s="22" t="n">
+        <v>5104620</v>
+      </c>
+      <c r="AG24" s="22" t="n">
+        <v>3401659</v>
+      </c>
+      <c r="AH24" s="22" t="n">
+        <v>4364643</v>
+      </c>
+      <c r="AI24" s="22" t="n">
+        <v>5322827</v>
+      </c>
+      <c r="AJ24" s="22" t="n">
+        <v>5209301</v>
+      </c>
+      <c r="AK24" s="22" t="n">
+        <v>4827721</v>
+      </c>
+      <c r="AL24" s="22" t="n">
+        <v>4548801</v>
+      </c>
+      <c r="AM24" s="22" t="n">
+        <v>4644685</v>
+      </c>
+      <c r="AN24" s="22" t="n">
+        <v>4398407</v>
+      </c>
+      <c r="AO24" s="22" t="n">
+        <v>4497575</v>
+      </c>
+      <c r="AP24" s="22" t="n">
+        <v>227949</v>
+      </c>
+      <c r="AQ24" s="22" t="n">
         <v>4995010</v>
       </c>
-      <c r="AD24" s="22" t="n">
-        <v>4797074</v>
-      </c>
-      <c r="AE24" s="22" t="n">
-        <v>5044789</v>
-      </c>
-      <c r="AF24" s="22" t="n">
-        <v>5036751</v>
-      </c>
-      <c r="AG24" s="22" t="n">
-        <v>5104620</v>
-      </c>
-      <c r="AH24" s="22" t="n">
-        <v>3401659</v>
-      </c>
-      <c r="AI24" s="22" t="n">
-        <v>4364643</v>
-      </c>
-      <c r="AJ24" s="22" t="n">
-        <v>5322827</v>
-      </c>
-      <c r="AK24" s="22" t="n">
-        <v>5209301</v>
-      </c>
-      <c r="AL24" s="22" t="n">
-        <v>4827721</v>
-      </c>
-      <c r="AM24" s="22" t="n">
-        <v>4548801</v>
-      </c>
-      <c r="AN24" s="22" t="n">
-        <v>4644685</v>
-      </c>
-      <c r="AO24" s="22" t="n">
-        <v>4398407</v>
-      </c>
-      <c r="AP24" s="22" t="n">
-        <v>4497575</v>
-      </c>
-      <c r="AQ24" s="22" t="n">
-        <v>227949</v>
-      </c>
       <c r="AR24" s="22" t="n">
-        <v>4995010</v>
+        <v>10035598</v>
       </c>
       <c r="AS24" s="22" t="n">
-        <v>10035598</v>
+        <v>3924864</v>
       </c>
       <c r="AT24" s="22" t="n">
-        <v>3924864</v>
+        <v>4273584</v>
       </c>
       <c r="AU24" s="22" t="n">
-        <v>4273584</v>
+        <v>5174136</v>
       </c>
       <c r="AV24" s="22" t="n">
-        <v>5174136</v>
+        <v>5734979</v>
       </c>
       <c r="AW24" s="22" t="n">
-        <v>5734979</v>
+        <v>5015283</v>
       </c>
       <c r="AX24" s="22" t="n">
-        <v>5015283</v>
+        <v>4985525</v>
       </c>
       <c r="AY24" s="22" t="n">
-        <v>4985525</v>
+        <v>4354977</v>
       </c>
       <c r="AZ24" s="22" t="n">
-        <v>4354977</v>
+        <v>4428936</v>
       </c>
       <c r="BA24" s="22" t="n">
-        <v>4428936</v>
+        <v>4424861</v>
       </c>
       <c r="BB24" s="22" t="n">
-        <v>4424861</v>
+        <v>5298799</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,154 +5792,154 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="n">
-        <v>9499</v>
+        <v>28578</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>28578</v>
+        <v>20</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>20</v>
+        <v>2004</v>
       </c>
       <c r="H31" s="13" t="n">
-        <v>2004</v>
+        <v>3561</v>
       </c>
       <c r="I31" s="13" t="n">
-        <v>3561</v>
+        <v>22647</v>
       </c>
       <c r="J31" s="13" t="n">
-        <v>22647</v>
+        <v>3706</v>
       </c>
       <c r="K31" s="13" t="n">
-        <v>3706</v>
+        <v>11007</v>
       </c>
       <c r="L31" s="13" t="n">
-        <v>11007</v>
+        <v>5548</v>
       </c>
       <c r="M31" s="13" t="n">
-        <v>5548</v>
+        <v>19977</v>
       </c>
       <c r="N31" s="13" t="n">
-        <v>19977</v>
+        <v>16197</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>16197</v>
+        <v>6154</v>
       </c>
       <c r="P31" s="13" t="n">
-        <v>6154</v>
+        <v>20658</v>
       </c>
       <c r="Q31" s="13" t="n">
-        <v>20658</v>
+        <v>27632</v>
       </c>
       <c r="R31" s="13" t="n">
-        <v>27632</v>
+        <v>0</v>
       </c>
       <c r="S31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T31" s="13" t="n">
-        <v>0</v>
+        <v>34675</v>
       </c>
       <c r="U31" s="13" t="n">
-        <v>34675</v>
+        <v>25133</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>25133</v>
+        <v>4451</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>4451</v>
+        <v>13665</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>13665</v>
+        <v>22494</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>22494</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>0</v>
+        <v>19180</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>19180</v>
+        <v>20466</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>20466</v>
+        <v>20599</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>20599</v>
-      </c>
-      <c r="AD31" s="13" t="n">
         <v>55208</v>
       </c>
-      <c r="AE31" s="13" t="s">
-        <v>57</v>
+      <c r="AD31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE31" s="13" t="n">
+        <v>6256</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>6256</v>
+        <v>3912</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>3912</v>
+        <v>2006</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>2006</v>
+        <v>31256</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>31256</v>
+        <v>4534</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>4534</v>
+        <v>44616</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>44616</v>
+        <v>22847</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>22847</v>
+        <v>7833</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>7833</v>
+        <v>6670</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>6670</v>
+        <v>829</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>829</v>
-      </c>
-      <c r="AP31" s="13" t="n">
         <v>9811</v>
       </c>
-      <c r="AQ31" s="13" t="s">
-        <v>57</v>
+      <c r="AP31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ31" s="13" t="n">
+        <v>4246</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>4246</v>
+        <v>9397</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>9397</v>
+        <v>6663</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>6663</v>
+        <v>17129</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>17129</v>
+        <v>11467</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>11467</v>
+        <v>15009</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>15009</v>
+        <v>7119</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>7119</v>
+        <v>24153</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>24153</v>
+        <v>8912</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>8912</v>
+        <v>12140</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>12140</v>
+        <v>15070</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>15070</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,154 +5951,154 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16" t="n">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="F32" s="16" t="n">
-        <v>424</v>
+        <v>204</v>
       </c>
       <c r="G32" s="16" t="n">
-        <v>204</v>
+        <v>458</v>
       </c>
       <c r="H32" s="16" t="n">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="I32" s="16" t="n">
-        <v>507</v>
+        <v>619</v>
       </c>
       <c r="J32" s="16" t="n">
-        <v>619</v>
+        <v>466</v>
       </c>
       <c r="K32" s="16" t="n">
-        <v>466</v>
+        <v>573</v>
       </c>
       <c r="L32" s="16" t="n">
+        <v>423</v>
+      </c>
+      <c r="M32" s="16" t="n">
+        <v>544</v>
+      </c>
+      <c r="N32" s="16" t="n">
+        <v>449</v>
+      </c>
+      <c r="O32" s="16" t="n">
+        <v>552</v>
+      </c>
+      <c r="P32" s="16" t="n">
+        <v>670</v>
+      </c>
+      <c r="Q32" s="16" t="n">
+        <v>550</v>
+      </c>
+      <c r="R32" s="16" t="n">
+        <v>130</v>
+      </c>
+      <c r="S32" s="16" t="n">
+        <v>630</v>
+      </c>
+      <c r="T32" s="16" t="n">
+        <v>1050</v>
+      </c>
+      <c r="U32" s="16" t="n">
+        <v>629</v>
+      </c>
+      <c r="V32" s="16" t="n">
+        <v>409</v>
+      </c>
+      <c r="W32" s="16" t="n">
+        <v>542</v>
+      </c>
+      <c r="X32" s="16" t="n">
+        <v>449</v>
+      </c>
+      <c r="Y32" s="16" t="n">
+        <v>502</v>
+      </c>
+      <c r="Z32" s="16" t="n">
+        <v>528</v>
+      </c>
+      <c r="AA32" s="16" t="n">
+        <v>455</v>
+      </c>
+      <c r="AB32" s="16" t="n">
         <v>573</v>
       </c>
-      <c r="M32" s="16" t="n">
-        <v>423</v>
-      </c>
-      <c r="N32" s="16" t="n">
-        <v>544</v>
-      </c>
-      <c r="O32" s="16" t="n">
-        <v>449</v>
-      </c>
-      <c r="P32" s="16" t="n">
-        <v>552</v>
-      </c>
-      <c r="Q32" s="16" t="n">
-        <v>670</v>
-      </c>
-      <c r="R32" s="16" t="n">
-        <v>550</v>
-      </c>
-      <c r="S32" s="16" t="n">
-        <v>130</v>
-      </c>
-      <c r="T32" s="16" t="n">
-        <v>630</v>
-      </c>
-      <c r="U32" s="16" t="n">
-        <v>1050</v>
-      </c>
-      <c r="V32" s="16" t="n">
-        <v>629</v>
-      </c>
-      <c r="W32" s="16" t="n">
-        <v>409</v>
-      </c>
-      <c r="X32" s="16" t="n">
-        <v>542</v>
-      </c>
-      <c r="Y32" s="16" t="n">
-        <v>449</v>
-      </c>
-      <c r="Z32" s="16" t="n">
-        <v>502</v>
-      </c>
-      <c r="AA32" s="16" t="n">
-        <v>528</v>
-      </c>
-      <c r="AB32" s="16" t="n">
-        <v>455</v>
-      </c>
       <c r="AC32" s="16" t="n">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="AD32" s="16" t="n">
-        <v>643</v>
+        <v>239</v>
       </c>
       <c r="AE32" s="16" t="n">
-        <v>239</v>
+        <v>533</v>
       </c>
       <c r="AF32" s="16" t="n">
-        <v>533</v>
+        <v>623</v>
       </c>
       <c r="AG32" s="16" t="n">
-        <v>623</v>
+        <v>372</v>
       </c>
       <c r="AH32" s="16" t="n">
-        <v>372</v>
+        <v>569</v>
       </c>
       <c r="AI32" s="16" t="n">
-        <v>569</v>
+        <v>728</v>
       </c>
       <c r="AJ32" s="16" t="n">
-        <v>728</v>
+        <v>430</v>
       </c>
       <c r="AK32" s="16" t="n">
-        <v>430</v>
+        <v>598</v>
       </c>
       <c r="AL32" s="16" t="n">
-        <v>598</v>
+        <v>438</v>
       </c>
       <c r="AM32" s="16" t="n">
-        <v>438</v>
+        <v>563</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>532</v>
+        <v>750</v>
       </c>
       <c r="AP32" s="16" t="n">
-        <v>750</v>
+        <v>269</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>269</v>
+        <v>600</v>
       </c>
       <c r="AR32" s="16" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="AS32" s="16" t="n">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="AT32" s="16" t="n">
-        <v>547</v>
+        <v>410</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>410</v>
+        <v>850</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>850</v>
+        <v>745</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>715</v>
+        <v>841</v>
       </c>
       <c r="AY32" s="16" t="n">
-        <v>841</v>
+        <v>795</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>795</v>
+        <v>724</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>724</v>
+        <v>1071</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>1071</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,154 +6110,154 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="n">
-        <v>155381</v>
+        <v>390743</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>390743</v>
+        <v>0</v>
       </c>
       <c r="G33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="13" t="n">
-        <v>0</v>
+        <v>93612</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>93612</v>
+        <v>0</v>
       </c>
       <c r="J33" s="13" t="n">
-        <v>0</v>
+        <v>174745</v>
       </c>
       <c r="K33" s="13" t="n">
-        <v>174745</v>
+        <v>6</v>
       </c>
       <c r="L33" s="13" t="n">
-        <v>6</v>
+        <v>118716</v>
       </c>
       <c r="M33" s="13" t="n">
-        <v>118716</v>
+        <v>99344</v>
       </c>
       <c r="N33" s="13" t="n">
-        <v>99344</v>
+        <v>111189</v>
       </c>
       <c r="O33" s="13" t="n">
-        <v>111189</v>
+        <v>84542</v>
       </c>
       <c r="P33" s="13" t="n">
-        <v>84542</v>
+        <v>72137</v>
       </c>
       <c r="Q33" s="13" t="n">
-        <v>72137</v>
-      </c>
-      <c r="R33" s="13" t="n">
         <v>355240</v>
       </c>
+      <c r="R33" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="13" t="s">
-        <v>57</v>
+      <c r="T33" s="13" t="n">
+        <v>75666</v>
       </c>
       <c r="U33" s="13" t="n">
-        <v>75666</v>
+        <v>100645</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>100645</v>
+        <v>72220</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>72220</v>
+        <v>13288</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>13288</v>
+        <v>78634</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>78634</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>0</v>
+        <v>241685</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>241685</v>
+        <v>10570</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>10570</v>
+        <v>102529</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>102529</v>
+        <v>686156</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>686156</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>938</v>
+        <v>404758</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>404758</v>
+        <v>42517</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>42517</v>
+        <v>77347</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>77347</v>
+        <v>321397</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>321397</v>
+        <v>82484</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>82484</v>
+        <v>172462</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>172462</v>
+        <v>74441</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>74441</v>
+        <v>211438</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>211438</v>
+        <v>186200</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>186200</v>
+        <v>193595</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>193595</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>0</v>
+        <v>349653</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>349653</v>
+        <v>45935</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>45935</v>
+        <v>26597</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>26597</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>0</v>
+        <v>230828</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>230828</v>
+        <v>11814</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>11814</v>
+        <v>722243</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>722243</v>
+        <v>59002</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>59002</v>
+        <v>381563</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>381563</v>
+        <v>19076</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>19076</v>
+        <v>48744</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>48744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,152 +6271,152 @@
       <c r="E34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>57</v>
+      <c r="F34" s="16" t="n">
+        <v>4863</v>
       </c>
       <c r="G34" s="16" t="n">
-        <v>4863</v>
+        <v>18420</v>
       </c>
       <c r="H34" s="16" t="n">
-        <v>18420</v>
+        <v>24114</v>
       </c>
       <c r="I34" s="16" t="n">
-        <v>24114</v>
+        <v>22877</v>
       </c>
       <c r="J34" s="16" t="n">
-        <v>22877</v>
+        <v>20196</v>
       </c>
       <c r="K34" s="16" t="n">
-        <v>20196</v>
+        <v>13092</v>
       </c>
       <c r="L34" s="16" t="n">
-        <v>13092</v>
+        <v>12135</v>
       </c>
       <c r="M34" s="16" t="n">
-        <v>12135</v>
+        <v>12812</v>
       </c>
       <c r="N34" s="16" t="n">
-        <v>12812</v>
+        <v>12363</v>
       </c>
       <c r="O34" s="16" t="n">
-        <v>12363</v>
+        <v>12821</v>
       </c>
       <c r="P34" s="16" t="n">
-        <v>12821</v>
+        <v>17598</v>
       </c>
       <c r="Q34" s="16" t="n">
-        <v>17598</v>
+        <v>20158</v>
       </c>
       <c r="R34" s="16" t="n">
-        <v>20158</v>
+        <v>6907</v>
       </c>
       <c r="S34" s="16" t="n">
-        <v>6907</v>
+        <v>12684</v>
       </c>
       <c r="T34" s="16" t="n">
-        <v>12684</v>
+        <v>21061</v>
       </c>
       <c r="U34" s="16" t="n">
-        <v>21061</v>
+        <v>8945</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>8945</v>
+        <v>30026</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>30026</v>
+        <v>24333</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>24333</v>
+        <v>14417</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>14417</v>
+        <v>10633</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>10633</v>
+        <v>64784</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>64784</v>
+        <v>61745</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>61745</v>
+        <v>63149</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>63149</v>
+        <v>87069</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>87069</v>
+        <v>35532</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>35532</v>
+        <v>84182</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>84182</v>
+        <v>66703</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>66703</v>
+        <v>38353</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>38353</v>
+        <v>56153</v>
       </c>
       <c r="AI34" s="16" t="n">
-        <v>56153</v>
+        <v>49476</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>49476</v>
+        <v>42768</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>42768</v>
+        <v>66188</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>66188</v>
+        <v>79385</v>
       </c>
       <c r="AM34" s="16" t="n">
-        <v>79385</v>
+        <v>73605</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>73605</v>
+        <v>75633</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>75633</v>
+        <v>78106</v>
       </c>
       <c r="AP34" s="16" t="n">
-        <v>78106</v>
+        <v>58540</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>58540</v>
+        <v>85836</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>85836</v>
+        <v>76284</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>76284</v>
+        <v>62325</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>62325</v>
+        <v>38458</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>38458</v>
+        <v>61127</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>61127</v>
+        <v>51110</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>51110</v>
+        <v>74359</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>74359</v>
+        <v>66636</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>66636</v>
+        <v>65910</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>65910</v>
+        <v>58472</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>58472</v>
+        <v>89145</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>89145</v>
+        <v>37151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6428,154 +6428,154 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="F35" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="G35" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" s="13" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I35" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J35" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="K35" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="L35" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="M35" s="13" t="n">
+        <v>42</v>
+      </c>
+      <c r="N35" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="O35" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="P35" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="R35" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="S35" s="13" t="n">
+        <v>58</v>
+      </c>
+      <c r="T35" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="U35" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="V35" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="W35" s="13" t="n">
+        <v>58</v>
+      </c>
+      <c r="X35" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA35" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB35" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="J35" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="K35" s="13" t="n">
-        <v>48</v>
-      </c>
-      <c r="L35" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="M35" s="13" t="n">
+      <c r="AC35" s="13" t="n">
+        <v>112</v>
+      </c>
+      <c r="AD35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="N35" s="13" t="n">
-        <v>42</v>
-      </c>
-      <c r="O35" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="P35" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="Q35" s="13" t="n">
+      <c r="AF35" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="AG35" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AH35" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="AI35" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AJ35" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="AK35" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="AL35" s="13" t="n">
+        <v>93</v>
+      </c>
+      <c r="AM35" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN35" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="R35" s="13" t="n">
-        <v>44</v>
-      </c>
-      <c r="S35" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="T35" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="U35" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="V35" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="W35" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="X35" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="Y35" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB35" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="AC35" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AD35" s="13" t="n">
-        <v>112</v>
-      </c>
-      <c r="AE35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG35" s="13" t="n">
-        <v>119</v>
-      </c>
-      <c r="AH35" s="13" t="n">
-        <v>82</v>
-      </c>
-      <c r="AI35" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="AJ35" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AK35" s="13" t="n">
-        <v>86</v>
-      </c>
-      <c r="AL35" s="13" t="n">
-        <v>103</v>
-      </c>
-      <c r="AM35" s="13" t="n">
-        <v>93</v>
-      </c>
-      <c r="AN35" s="13" t="n">
-        <v>38</v>
-      </c>
       <c r="AO35" s="13" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AP35" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ35" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="AQ35" s="13" t="n">
-        <v>28</v>
-      </c>
       <c r="AR35" s="13" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,142 +6587,142 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="n">
-        <v>167</v>
+        <v>1454</v>
       </c>
       <c r="F36" s="16" t="n">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="G36" s="16" t="n">
-        <v>0</v>
+        <v>68175</v>
       </c>
       <c r="H36" s="16" t="n">
-        <v>68175</v>
+        <v>19430</v>
       </c>
       <c r="I36" s="16" t="n">
-        <v>19430</v>
+        <v>29568</v>
       </c>
       <c r="J36" s="16" t="n">
-        <v>29568</v>
+        <v>0</v>
       </c>
       <c r="K36" s="16" t="n">
-        <v>0</v>
+        <v>2776</v>
       </c>
       <c r="L36" s="16" t="n">
-        <v>2776</v>
+        <v>52157</v>
       </c>
       <c r="M36" s="16" t="n">
-        <v>52157</v>
+        <v>2396</v>
       </c>
       <c r="N36" s="16" t="n">
-        <v>2396</v>
+        <v>0</v>
       </c>
       <c r="O36" s="16" t="n">
-        <v>0</v>
+        <v>59953</v>
       </c>
       <c r="P36" s="16" t="n">
-        <v>59953</v>
+        <v>1072</v>
       </c>
       <c r="Q36" s="16" t="n">
-        <v>1072</v>
-      </c>
-      <c r="R36" s="16" t="n">
         <v>30503</v>
       </c>
-      <c r="S36" s="16" t="s">
-        <v>57</v>
+      <c r="R36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T36" s="16" t="n">
-        <v>0</v>
+        <v>3271</v>
       </c>
       <c r="U36" s="16" t="n">
-        <v>3271</v>
+        <v>1180</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>1180</v>
+        <v>3869</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>3869</v>
+        <v>1387</v>
       </c>
       <c r="X36" s="16" t="n">
-        <v>1387</v>
+        <v>1115</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>1115</v>
+        <v>466</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>466</v>
+        <v>1589</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>1589</v>
+        <v>25194</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>25194</v>
+        <v>1850</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>1850</v>
+        <v>2841</v>
       </c>
       <c r="AD36" s="16" t="n">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="16" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>445</v>
+        <v>2324</v>
       </c>
       <c r="AG36" s="16" t="n">
-        <v>2324</v>
+        <v>3179</v>
       </c>
       <c r="AH36" s="16" t="n">
-        <v>3179</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="16" t="n">
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="AJ36" s="16" t="n">
-        <v>1857</v>
+        <v>952</v>
       </c>
       <c r="AK36" s="16" t="n">
-        <v>952</v>
+        <v>1825</v>
       </c>
       <c r="AL36" s="16" t="n">
-        <v>1825</v>
+        <v>1806</v>
       </c>
       <c r="AM36" s="16" t="n">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AO36" s="16" t="n">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="AP36" s="16" t="n">
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR36" s="16" t="n">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="AS36" s="16" t="n">
-        <v>902</v>
+        <v>1367</v>
       </c>
       <c r="AT36" s="16" t="n">
-        <v>1367</v>
+        <v>899</v>
       </c>
       <c r="AU36" s="16" t="n">
-        <v>899</v>
+        <v>1134</v>
       </c>
       <c r="AV36" s="16" t="n">
-        <v>1134</v>
+        <v>480</v>
       </c>
       <c r="AW36" s="16" t="n">
-        <v>480</v>
+        <v>1399</v>
       </c>
       <c r="AX36" s="16" t="n">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="16" t="n">
         <v>0</v>
@@ -6746,154 +6746,154 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="n">
-        <v>18346</v>
+        <v>24431</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>24431</v>
+        <v>3768</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>3768</v>
+        <v>19428</v>
       </c>
       <c r="H37" s="13" t="n">
-        <v>19428</v>
+        <v>20644</v>
       </c>
       <c r="I37" s="13" t="n">
-        <v>20644</v>
+        <v>17478</v>
       </c>
       <c r="J37" s="13" t="n">
-        <v>17478</v>
+        <v>22818</v>
       </c>
       <c r="K37" s="13" t="n">
-        <v>22818</v>
+        <v>21586</v>
       </c>
       <c r="L37" s="13" t="n">
-        <v>21586</v>
+        <v>13491</v>
       </c>
       <c r="M37" s="13" t="n">
-        <v>13491</v>
+        <v>23941</v>
       </c>
       <c r="N37" s="13" t="n">
-        <v>23941</v>
+        <v>29785</v>
       </c>
       <c r="O37" s="13" t="n">
-        <v>29785</v>
+        <v>22293</v>
       </c>
       <c r="P37" s="13" t="n">
-        <v>22293</v>
+        <v>22385</v>
       </c>
       <c r="Q37" s="13" t="n">
-        <v>22385</v>
+        <v>21259</v>
       </c>
       <c r="R37" s="13" t="n">
-        <v>21259</v>
+        <v>8883</v>
       </c>
       <c r="S37" s="13" t="n">
-        <v>8883</v>
+        <v>35061</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>35061</v>
+        <v>32703</v>
       </c>
       <c r="U37" s="13" t="n">
-        <v>32703</v>
+        <v>26695</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>26695</v>
+        <v>22809</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>22809</v>
+        <v>27317</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>27317</v>
+        <v>19840</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>19840</v>
+        <v>20135</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>20135</v>
+        <v>22686</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>22686</v>
+        <v>8180</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>8180</v>
+        <v>15956</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>15956</v>
+        <v>30993</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>30993</v>
+        <v>6222</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>6222</v>
+        <v>23171</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>23171</v>
+        <v>24945</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>24945</v>
+        <v>33574</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>33574</v>
+        <v>19343</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>19343</v>
+        <v>35466</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>35466</v>
+        <v>21432</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>21432</v>
+        <v>27878</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>27878</v>
+        <v>27583</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>27583</v>
+        <v>29230</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>29230</v>
+        <v>31832</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>31832</v>
+        <v>33740</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>33740</v>
+        <v>15232</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>15232</v>
+        <v>27921</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>27921</v>
+        <v>34477</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>34477</v>
+        <v>21133</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>21133</v>
+        <v>16535</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>16535</v>
+        <v>26341</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>26341</v>
+        <v>20125</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>20125</v>
+        <v>22206</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>22206</v>
+        <v>21425</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>21425</v>
+        <v>22606</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>22606</v>
+        <v>26800</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>26800</v>
+        <v>28445</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>28445</v>
+        <v>11716</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,40 +6905,40 @@
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16" t="n">
-        <v>3524</v>
+        <v>2360</v>
       </c>
       <c r="F38" s="16" t="n">
-        <v>2360</v>
+        <v>973</v>
       </c>
       <c r="G38" s="16" t="n">
-        <v>973</v>
+        <v>4025</v>
       </c>
       <c r="H38" s="16" t="n">
-        <v>4025</v>
+        <v>1773</v>
       </c>
       <c r="I38" s="16" t="n">
-        <v>1773</v>
+        <v>694</v>
       </c>
       <c r="J38" s="16" t="n">
-        <v>694</v>
+        <v>50</v>
       </c>
       <c r="K38" s="16" t="n">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="L38" s="16" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M38" s="16" t="n">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="N38" s="16" t="n">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="O38" s="16" t="n">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="P38" s="16" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="16" t="n">
         <v>0</v>
@@ -6953,22 +6953,22 @@
         <v>0</v>
       </c>
       <c r="U38" s="16" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="W38" s="16" t="n">
         <v>0</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="16" t="n">
         <v>0</v>
@@ -6979,14 +6979,14 @@
       <c r="AC38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD38" s="16" t="n">
-        <v>0</v>
+      <c r="AD38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="16" t="s">
-        <v>57</v>
+      <c r="AF38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG38" s="16" t="n">
         <v>0</v>
@@ -7015,8 +7015,8 @@
       <c r="AO38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP38" s="16" t="n">
-        <v>0</v>
+      <c r="AP38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ38" s="16" t="s">
         <v>57</v>
@@ -7105,113 +7105,113 @@
       <c r="R39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S39" s="13" t="s">
-        <v>57</v>
+      <c r="S39" s="13" t="n">
+        <v>40</v>
       </c>
       <c r="T39" s="13" t="n">
         <v>40</v>
       </c>
       <c r="U39" s="13" t="n">
+        <v>148</v>
+      </c>
+      <c r="V39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="13" t="n">
+        <v>160</v>
+      </c>
+      <c r="X39" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="V39" s="13" t="n">
-        <v>148</v>
-      </c>
-      <c r="W39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="13" t="n">
-        <v>160</v>
-      </c>
       <c r="Y39" s="13" t="n">
+        <v>194</v>
+      </c>
+      <c r="Z39" s="13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA39" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="13" t="n">
+        <v>302</v>
+      </c>
+      <c r="AD39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE39" s="13" t="n">
+        <v>294</v>
+      </c>
+      <c r="AF39" s="13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG39" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="Z39" s="13" t="n">
-        <v>194</v>
-      </c>
-      <c r="AA39" s="13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AB39" s="13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="13" t="n">
-        <v>302</v>
-      </c>
-      <c r="AE39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF39" s="13" t="n">
-        <v>294</v>
-      </c>
-      <c r="AG39" s="13" t="n">
+      <c r="AH39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ39" s="13" t="n">
+        <v>335</v>
+      </c>
+      <c r="AK39" s="13" t="n">
         <v>42</v>
-      </c>
-      <c r="AH39" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK39" s="13" t="n">
-        <v>335</v>
       </c>
       <c r="AL39" s="13" t="n">
         <v>42</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="AO39" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="AP39" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AQ39" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="AR39" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS39" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AT39" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AU39" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AV39" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="AS39" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AT39" s="13" t="n">
+      <c r="AW39" s="13" t="n">
+        <v>275</v>
+      </c>
+      <c r="AX39" s="13" t="n">
+        <v>148</v>
+      </c>
+      <c r="AY39" s="13" t="n">
         <v>63</v>
       </c>
-      <c r="AU39" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AV39" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW39" s="13" t="n">
+      <c r="AZ39" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="BA39" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="BB39" s="13" t="n">
         <v>21</v>
-      </c>
-      <c r="AX39" s="13" t="n">
-        <v>275</v>
-      </c>
-      <c r="AY39" s="13" t="n">
-        <v>148</v>
-      </c>
-      <c r="AZ39" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="BA39" s="13" t="n">
-        <v>107</v>
-      </c>
-      <c r="BB39" s="13" t="n">
-        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,17 +7360,17 @@
       <c r="AX40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY40" s="16" t="s">
-        <v>57</v>
+      <c r="AY40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>2232</v>
+        <v>1380</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>1380</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7510,17 +7510,17 @@
       <c r="AU41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV41" s="13" t="s">
-        <v>57</v>
+      <c r="AV41" s="13" t="n">
+        <v>513340</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>513340</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>0</v>
+        <v>39203</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>39203</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="13" t="n">
         <v>0</v>
@@ -7643,8 +7643,8 @@
       <c r="T43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>57</v>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="20" t="n">
         <v>0</v>
@@ -7907,11 +7907,11 @@
       <c r="AJ45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK45" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL45" s="13" t="n">
+      <c r="AK45" s="13" t="n">
         <v>-326882</v>
+      </c>
+      <c r="AL45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM45" s="13" t="s">
         <v>57</v>
@@ -8016,8 +8016,8 @@
       <c r="T46" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U46" s="22" t="s">
-        <v>57</v>
+      <c r="U46" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V46" s="22" t="n">
         <v>0</v>
@@ -8065,10 +8065,10 @@
         <v>0</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>0</v>
+        <v>-326882</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>-326882</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="22" t="n">
         <v>0</v>
@@ -8126,154 +8126,154 @@
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="n">
-        <v>187379</v>
+        <v>448047</v>
       </c>
       <c r="F47" s="20" t="n">
-        <v>448047</v>
+        <v>9828</v>
       </c>
       <c r="G47" s="20" t="n">
-        <v>9828</v>
+        <v>112574</v>
       </c>
       <c r="H47" s="20" t="n">
-        <v>112574</v>
+        <v>163679</v>
       </c>
       <c r="I47" s="20" t="n">
-        <v>163679</v>
+        <v>93912</v>
       </c>
       <c r="J47" s="20" t="n">
-        <v>93912</v>
+        <v>222029</v>
       </c>
       <c r="K47" s="20" t="n">
-        <v>222029</v>
+        <v>49273</v>
       </c>
       <c r="L47" s="20" t="n">
-        <v>49273</v>
+        <v>202695</v>
       </c>
       <c r="M47" s="20" t="n">
-        <v>202695</v>
+        <v>159351</v>
       </c>
       <c r="N47" s="20" t="n">
-        <v>159351</v>
+        <v>170230</v>
       </c>
       <c r="O47" s="20" t="n">
-        <v>170230</v>
+        <v>186606</v>
       </c>
       <c r="P47" s="20" t="n">
-        <v>186606</v>
+        <v>134572</v>
       </c>
       <c r="Q47" s="20" t="n">
-        <v>134572</v>
+        <v>455386</v>
       </c>
       <c r="R47" s="20" t="n">
-        <v>455386</v>
+        <v>15934</v>
       </c>
       <c r="S47" s="20" t="n">
-        <v>15934</v>
+        <v>48473</v>
       </c>
       <c r="T47" s="20" t="n">
-        <v>48473</v>
+        <v>168542</v>
       </c>
       <c r="U47" s="20" t="n">
-        <v>168542</v>
+        <v>164445</v>
       </c>
       <c r="V47" s="20" t="n">
-        <v>164445</v>
+        <v>133834</v>
       </c>
       <c r="W47" s="20" t="n">
-        <v>133834</v>
+        <v>80750</v>
       </c>
       <c r="X47" s="20" t="n">
-        <v>80750</v>
+        <v>137085</v>
       </c>
       <c r="Y47" s="20" t="n">
-        <v>137085</v>
+        <v>32067</v>
       </c>
       <c r="Z47" s="20" t="n">
-        <v>32067</v>
+        <v>350576</v>
       </c>
       <c r="AA47" s="20" t="n">
-        <v>350576</v>
+        <v>126766</v>
       </c>
       <c r="AB47" s="20" t="n">
-        <v>126766</v>
+        <v>204694</v>
       </c>
       <c r="AC47" s="20" t="n">
-        <v>204694</v>
+        <v>863324</v>
       </c>
       <c r="AD47" s="20" t="n">
-        <v>863324</v>
+        <v>41993</v>
       </c>
       <c r="AE47" s="20" t="n">
-        <v>41993</v>
+        <v>115863</v>
       </c>
       <c r="AF47" s="20" t="n">
-        <v>115863</v>
+        <v>503426</v>
       </c>
       <c r="AG47" s="20" t="n">
-        <v>503426</v>
+        <v>120123</v>
       </c>
       <c r="AH47" s="20" t="n">
-        <v>120123</v>
+        <v>184761</v>
       </c>
       <c r="AI47" s="20" t="n">
-        <v>184761</v>
+        <v>413575</v>
       </c>
       <c r="AJ47" s="20" t="n">
-        <v>413575</v>
+        <v>193103</v>
       </c>
       <c r="AK47" s="20" t="n">
-        <v>193103</v>
+        <v>-34939</v>
       </c>
       <c r="AL47" s="20" t="n">
-        <v>-34939</v>
+        <v>191621</v>
       </c>
       <c r="AM47" s="20" t="n">
-        <v>191621</v>
+        <v>321796</v>
       </c>
       <c r="AN47" s="20" t="n">
-        <v>321796</v>
+        <v>295099</v>
       </c>
       <c r="AO47" s="20" t="n">
-        <v>295099</v>
+        <v>319776</v>
       </c>
       <c r="AP47" s="20" t="n">
-        <v>319776</v>
+        <v>74069</v>
       </c>
       <c r="AQ47" s="20" t="n">
-        <v>74069</v>
+        <v>468311</v>
       </c>
       <c r="AR47" s="20" t="n">
-        <v>468311</v>
+        <v>167696</v>
       </c>
       <c r="AS47" s="20" t="n">
-        <v>167696</v>
+        <v>118755</v>
       </c>
       <c r="AT47" s="20" t="n">
-        <v>118755</v>
+        <v>73519</v>
       </c>
       <c r="AU47" s="20" t="n">
-        <v>73519</v>
+        <v>331851</v>
       </c>
       <c r="AV47" s="20" t="n">
-        <v>331851</v>
+        <v>612679</v>
       </c>
       <c r="AW47" s="20" t="n">
-        <v>612679</v>
+        <v>828396</v>
       </c>
       <c r="AX47" s="20" t="n">
-        <v>828396</v>
+        <v>211495</v>
       </c>
       <c r="AY47" s="20" t="n">
-        <v>211495</v>
+        <v>479905</v>
       </c>
       <c r="AZ47" s="20" t="n">
-        <v>479905</v>
+        <v>119604</v>
       </c>
       <c r="BA47" s="20" t="n">
-        <v>119604</v>
+        <v>183993</v>
       </c>
       <c r="BB47" s="20" t="n">
-        <v>183993</v>
+        <v>59798</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,154 +8719,154 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="n">
-        <v>227465</v>
+        <v>361257</v>
       </c>
       <c r="F54" s="13" t="n">
-        <v>361257</v>
+        <v>27539</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>27539</v>
+        <v>31911</v>
       </c>
       <c r="H54" s="13" t="n">
-        <v>31911</v>
+        <v>200558</v>
       </c>
       <c r="I54" s="13" t="n">
-        <v>200558</v>
+        <v>12255</v>
       </c>
       <c r="J54" s="13" t="n">
-        <v>12255</v>
+        <v>400803</v>
       </c>
       <c r="K54" s="13" t="n">
-        <v>400803</v>
+        <v>232122</v>
       </c>
       <c r="L54" s="13" t="n">
-        <v>232122</v>
+        <v>34559</v>
       </c>
       <c r="M54" s="13" t="n">
-        <v>34559</v>
+        <v>9551</v>
       </c>
       <c r="N54" s="13" t="n">
-        <v>9551</v>
+        <v>135966</v>
       </c>
       <c r="O54" s="13" t="n">
-        <v>135966</v>
+        <v>200924</v>
       </c>
       <c r="P54" s="13" t="n">
-        <v>200924</v>
+        <v>299435</v>
       </c>
       <c r="Q54" s="13" t="n">
-        <v>299435</v>
+        <v>85089</v>
       </c>
       <c r="R54" s="13" t="n">
-        <v>85089</v>
+        <v>0</v>
       </c>
       <c r="S54" s="13" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="T54" s="13" t="n">
-        <v>524</v>
+        <v>8744</v>
       </c>
       <c r="U54" s="13" t="n">
-        <v>8744</v>
+        <v>8690</v>
       </c>
       <c r="V54" s="13" t="n">
-        <v>8690</v>
+        <v>6882</v>
       </c>
       <c r="W54" s="13" t="n">
-        <v>6882</v>
+        <v>14512</v>
       </c>
       <c r="X54" s="13" t="n">
-        <v>14512</v>
+        <v>12533</v>
       </c>
       <c r="Y54" s="13" t="n">
-        <v>12533</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="13" t="n">
-        <v>0</v>
+        <v>18626</v>
       </c>
       <c r="AA54" s="13" t="n">
-        <v>18626</v>
+        <v>43543</v>
       </c>
       <c r="AB54" s="13" t="n">
-        <v>43543</v>
+        <v>18446</v>
       </c>
       <c r="AC54" s="13" t="n">
-        <v>18446</v>
-      </c>
-      <c r="AD54" s="13" t="n">
         <v>53442</v>
       </c>
-      <c r="AE54" s="13" t="s">
-        <v>57</v>
+      <c r="AD54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE54" s="13" t="n">
+        <v>19301</v>
       </c>
       <c r="AF54" s="13" t="n">
-        <v>19301</v>
+        <v>14310</v>
       </c>
       <c r="AG54" s="13" t="n">
-        <v>14310</v>
+        <v>7335</v>
       </c>
       <c r="AH54" s="13" t="n">
-        <v>7335</v>
+        <v>23307</v>
       </c>
       <c r="AI54" s="13" t="n">
-        <v>23307</v>
+        <v>18082</v>
       </c>
       <c r="AJ54" s="13" t="n">
-        <v>18082</v>
+        <v>24610</v>
       </c>
       <c r="AK54" s="13" t="n">
-        <v>24610</v>
+        <v>106504</v>
       </c>
       <c r="AL54" s="13" t="n">
-        <v>106504</v>
+        <v>46875</v>
       </c>
       <c r="AM54" s="13" t="n">
-        <v>46875</v>
+        <v>26230</v>
       </c>
       <c r="AN54" s="13" t="n">
-        <v>26230</v>
+        <v>5564</v>
       </c>
       <c r="AO54" s="13" t="n">
-        <v>5564</v>
-      </c>
-      <c r="AP54" s="13" t="n">
         <v>58197</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>57</v>
+      <c r="AP54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ54" s="13" t="n">
+        <v>758754</v>
       </c>
       <c r="AR54" s="13" t="n">
-        <v>758754</v>
+        <v>41332</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>41332</v>
+        <v>28752</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>28752</v>
+        <v>77261</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>77261</v>
+        <v>42840</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>42840</v>
+        <v>66207</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>66207</v>
+        <v>22731</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>22731</v>
+        <v>122775</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>122775</v>
+        <v>40704</v>
       </c>
       <c r="AZ54" s="13" t="n">
-        <v>40704</v>
+        <v>1318945</v>
       </c>
       <c r="BA54" s="13" t="n">
-        <v>1318945</v>
+        <v>48933</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>48933</v>
+        <v>50360</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8878,154 +8878,154 @@
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16" t="n">
-        <v>302018</v>
+        <v>379855</v>
       </c>
       <c r="F55" s="16" t="n">
-        <v>379855</v>
+        <v>219924</v>
       </c>
       <c r="G55" s="16" t="n">
-        <v>219924</v>
+        <v>404666</v>
       </c>
       <c r="H55" s="16" t="n">
-        <v>404666</v>
+        <v>530172</v>
       </c>
       <c r="I55" s="16" t="n">
-        <v>530172</v>
+        <v>687155</v>
       </c>
       <c r="J55" s="16" t="n">
-        <v>687155</v>
+        <v>517498</v>
       </c>
       <c r="K55" s="16" t="n">
-        <v>517498</v>
+        <v>611775</v>
       </c>
       <c r="L55" s="16" t="n">
-        <v>611775</v>
+        <v>422841</v>
       </c>
       <c r="M55" s="16" t="n">
-        <v>422841</v>
+        <v>448135</v>
       </c>
       <c r="N55" s="16" t="n">
-        <v>448135</v>
+        <v>372630</v>
       </c>
       <c r="O55" s="16" t="n">
-        <v>372630</v>
+        <v>495615</v>
       </c>
       <c r="P55" s="16" t="n">
-        <v>495615</v>
+        <v>714146</v>
       </c>
       <c r="Q55" s="16" t="n">
-        <v>714146</v>
+        <v>616351</v>
       </c>
       <c r="R55" s="16" t="n">
-        <v>616351</v>
+        <v>132475</v>
       </c>
       <c r="S55" s="16" t="n">
-        <v>132475</v>
+        <v>660093</v>
       </c>
       <c r="T55" s="16" t="n">
-        <v>660093</v>
+        <v>1035801</v>
       </c>
       <c r="U55" s="16" t="n">
-        <v>1035801</v>
+        <v>712383</v>
       </c>
       <c r="V55" s="16" t="n">
-        <v>712383</v>
+        <v>571647</v>
       </c>
       <c r="W55" s="16" t="n">
-        <v>571647</v>
+        <v>965201</v>
       </c>
       <c r="X55" s="16" t="n">
-        <v>965201</v>
+        <v>943988</v>
       </c>
       <c r="Y55" s="16" t="n">
-        <v>943988</v>
+        <v>1227208</v>
       </c>
       <c r="Z55" s="16" t="n">
-        <v>1227208</v>
+        <v>1214238</v>
       </c>
       <c r="AA55" s="16" t="n">
-        <v>1214238</v>
+        <v>1288925</v>
       </c>
       <c r="AB55" s="16" t="n">
-        <v>1288925</v>
+        <v>1493786</v>
       </c>
       <c r="AC55" s="16" t="n">
-        <v>1493786</v>
+        <v>1560935</v>
       </c>
       <c r="AD55" s="16" t="n">
-        <v>1560935</v>
+        <v>627567</v>
       </c>
       <c r="AE55" s="16" t="n">
-        <v>627567</v>
+        <v>1259011</v>
       </c>
       <c r="AF55" s="16" t="n">
-        <v>1259011</v>
+        <v>1658798</v>
       </c>
       <c r="AG55" s="16" t="n">
-        <v>1658798</v>
+        <v>1300440</v>
       </c>
       <c r="AH55" s="16" t="n">
-        <v>1300440</v>
+        <v>1915761</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>1915761</v>
+        <v>3437773</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>3437773</v>
+        <v>1778820</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>1778820</v>
+        <v>2900199</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>2900199</v>
+        <v>1852091</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>1852091</v>
+        <v>2744730</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>2744730</v>
+        <v>2506558</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>2506558</v>
+        <v>3301399</v>
       </c>
       <c r="AP55" s="16" t="n">
-        <v>3301399</v>
+        <v>1259291</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>1259291</v>
+        <v>2505799</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>2505799</v>
+        <v>2097296</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>2097296</v>
+        <v>1882173</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>1882173</v>
+        <v>1279521</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>1279521</v>
+        <v>2778111</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>2778111</v>
+        <v>2832255</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>2832255</v>
+        <v>2927757</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>2927757</v>
+        <v>3895132</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>3895132</v>
+        <v>5307635</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>5307635</v>
+        <v>5355176</v>
       </c>
       <c r="BA55" s="16" t="n">
-        <v>5355176</v>
+        <v>8390493</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>8390493</v>
+        <v>2640964</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9037,154 +9037,154 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="n">
-        <v>128960</v>
+        <v>265648</v>
       </c>
       <c r="F56" s="13" t="n">
-        <v>265648</v>
+        <v>0</v>
       </c>
       <c r="G56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="H56" s="13" t="n">
-        <v>0</v>
+        <v>60466</v>
       </c>
       <c r="I56" s="13" t="n">
-        <v>60466</v>
+        <v>0</v>
       </c>
       <c r="J56" s="13" t="n">
-        <v>0</v>
+        <v>143647</v>
       </c>
       <c r="K56" s="13" t="n">
-        <v>143647</v>
+        <v>4489</v>
       </c>
       <c r="L56" s="13" t="n">
-        <v>4489</v>
+        <v>94684</v>
       </c>
       <c r="M56" s="13" t="n">
-        <v>94684</v>
+        <v>68286</v>
       </c>
       <c r="N56" s="13" t="n">
-        <v>68286</v>
+        <v>73650</v>
       </c>
       <c r="O56" s="13" t="n">
-        <v>73650</v>
+        <v>55205</v>
       </c>
       <c r="P56" s="13" t="n">
-        <v>55205</v>
+        <v>50176</v>
       </c>
       <c r="Q56" s="13" t="n">
-        <v>50176</v>
-      </c>
-      <c r="R56" s="13" t="n">
         <v>273589</v>
       </c>
+      <c r="R56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T56" s="13" t="s">
-        <v>57</v>
+      <c r="T56" s="13" t="n">
+        <v>62087</v>
       </c>
       <c r="U56" s="13" t="n">
-        <v>62087</v>
+        <v>81388</v>
       </c>
       <c r="V56" s="13" t="n">
-        <v>81388</v>
+        <v>70178</v>
       </c>
       <c r="W56" s="13" t="n">
-        <v>70178</v>
+        <v>19017</v>
       </c>
       <c r="X56" s="13" t="n">
-        <v>19017</v>
+        <v>84994</v>
       </c>
       <c r="Y56" s="13" t="n">
-        <v>84994</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="13" t="n">
-        <v>0</v>
+        <v>377091</v>
       </c>
       <c r="AA56" s="13" t="n">
-        <v>377091</v>
+        <v>24222</v>
       </c>
       <c r="AB56" s="13" t="n">
-        <v>24222</v>
+        <v>243060</v>
       </c>
       <c r="AC56" s="13" t="n">
-        <v>243060</v>
+        <v>1341096</v>
       </c>
       <c r="AD56" s="13" t="n">
-        <v>1341096</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="13" t="n">
-        <v>0</v>
+        <v>2484</v>
       </c>
       <c r="AF56" s="13" t="n">
-        <v>2484</v>
+        <v>479952</v>
       </c>
       <c r="AG56" s="13" t="n">
-        <v>479952</v>
+        <v>72409</v>
       </c>
       <c r="AH56" s="13" t="n">
-        <v>72409</v>
+        <v>115545</v>
       </c>
       <c r="AI56" s="13" t="n">
-        <v>115545</v>
+        <v>692234</v>
       </c>
       <c r="AJ56" s="13" t="n">
-        <v>692234</v>
+        <v>189206</v>
       </c>
       <c r="AK56" s="13" t="n">
-        <v>189206</v>
+        <v>375884</v>
       </c>
       <c r="AL56" s="13" t="n">
-        <v>375884</v>
+        <v>219398</v>
       </c>
       <c r="AM56" s="13" t="n">
-        <v>219398</v>
+        <v>675514</v>
       </c>
       <c r="AN56" s="13" t="n">
-        <v>675514</v>
+        <v>366517</v>
       </c>
       <c r="AO56" s="13" t="n">
-        <v>366517</v>
+        <v>472657</v>
       </c>
       <c r="AP56" s="13" t="n">
-        <v>472657</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="13" t="n">
-        <v>0</v>
+        <v>948442</v>
       </c>
       <c r="AR56" s="13" t="n">
-        <v>948442</v>
+        <v>64667</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>64667</v>
+        <v>75291</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>75291</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>0</v>
+        <v>574898</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>574898</v>
+        <v>31683</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>31683</v>
+        <v>2014136</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>2014136</v>
+        <v>69470</v>
       </c>
       <c r="AY56" s="13" t="n">
-        <v>69470</v>
+        <v>817414</v>
       </c>
       <c r="AZ56" s="13" t="n">
-        <v>817414</v>
+        <v>49920</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>49920</v>
+        <v>73287</v>
       </c>
       <c r="BB56" s="13" t="n">
-        <v>73287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,152 +9198,152 @@
       <c r="E57" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>57</v>
+      <c r="F57" s="16" t="n">
+        <v>8586</v>
       </c>
       <c r="G57" s="16" t="n">
-        <v>8586</v>
+        <v>32257</v>
       </c>
       <c r="H57" s="16" t="n">
-        <v>32257</v>
+        <v>42444</v>
       </c>
       <c r="I57" s="16" t="n">
-        <v>42444</v>
+        <v>40035</v>
       </c>
       <c r="J57" s="16" t="n">
-        <v>40035</v>
+        <v>35515</v>
       </c>
       <c r="K57" s="16" t="n">
-        <v>35515</v>
+        <v>23002</v>
       </c>
       <c r="L57" s="16" t="n">
-        <v>23002</v>
+        <v>21237</v>
       </c>
       <c r="M57" s="16" t="n">
-        <v>21237</v>
+        <v>22539</v>
       </c>
       <c r="N57" s="16" t="n">
-        <v>22539</v>
+        <v>21635</v>
       </c>
       <c r="O57" s="16" t="n">
-        <v>21635</v>
+        <v>21966</v>
       </c>
       <c r="P57" s="16" t="n">
-        <v>21966</v>
+        <v>22882</v>
       </c>
       <c r="Q57" s="16" t="n">
-        <v>22882</v>
+        <v>24237</v>
       </c>
       <c r="R57" s="16" t="n">
-        <v>24237</v>
+        <v>8289</v>
       </c>
       <c r="S57" s="16" t="n">
-        <v>8289</v>
+        <v>15221</v>
       </c>
       <c r="T57" s="16" t="n">
-        <v>15221</v>
+        <v>25293</v>
       </c>
       <c r="U57" s="16" t="n">
-        <v>25293</v>
+        <v>10759</v>
       </c>
       <c r="V57" s="16" t="n">
-        <v>10759</v>
+        <v>35858</v>
       </c>
       <c r="W57" s="16" t="n">
-        <v>35858</v>
+        <v>28090</v>
       </c>
       <c r="X57" s="16" t="n">
-        <v>28090</v>
+        <v>15281</v>
       </c>
       <c r="Y57" s="16" t="n">
-        <v>15281</v>
+        <v>9727</v>
       </c>
       <c r="Z57" s="16" t="n">
-        <v>9727</v>
+        <v>64072</v>
       </c>
       <c r="AA57" s="16" t="n">
-        <v>64072</v>
+        <v>59754</v>
       </c>
       <c r="AB57" s="16" t="n">
-        <v>59754</v>
+        <v>60956</v>
       </c>
       <c r="AC57" s="16" t="n">
-        <v>60956</v>
+        <v>85296</v>
       </c>
       <c r="AD57" s="16" t="n">
-        <v>85296</v>
+        <v>69662</v>
       </c>
       <c r="AE57" s="16" t="n">
-        <v>69662</v>
+        <v>265175</v>
       </c>
       <c r="AF57" s="16" t="n">
-        <v>265175</v>
+        <v>259503</v>
       </c>
       <c r="AG57" s="16" t="n">
-        <v>259503</v>
+        <v>151456</v>
       </c>
       <c r="AH57" s="16" t="n">
-        <v>151456</v>
+        <v>214109</v>
       </c>
       <c r="AI57" s="16" t="n">
-        <v>214109</v>
+        <v>195750</v>
       </c>
       <c r="AJ57" s="16" t="n">
-        <v>195750</v>
+        <v>216902</v>
       </c>
       <c r="AK57" s="16" t="n">
-        <v>216902</v>
+        <v>396433</v>
       </c>
       <c r="AL57" s="16" t="n">
-        <v>396433</v>
+        <v>475155</v>
       </c>
       <c r="AM57" s="16" t="n">
-        <v>475155</v>
+        <v>487486</v>
       </c>
       <c r="AN57" s="16" t="n">
-        <v>487486</v>
+        <v>472291</v>
       </c>
       <c r="AO57" s="16" t="n">
-        <v>472291</v>
+        <v>554459</v>
       </c>
       <c r="AP57" s="16" t="n">
-        <v>554459</v>
+        <v>560441</v>
       </c>
       <c r="AQ57" s="16" t="n">
-        <v>560441</v>
+        <v>929998</v>
       </c>
       <c r="AR57" s="16" t="n">
-        <v>929998</v>
+        <v>1064038</v>
       </c>
       <c r="AS57" s="16" t="n">
-        <v>1064038</v>
+        <v>921918</v>
       </c>
       <c r="AT57" s="16" t="n">
-        <v>921918</v>
+        <v>565372</v>
       </c>
       <c r="AU57" s="16" t="n">
-        <v>565372</v>
+        <v>916476</v>
       </c>
       <c r="AV57" s="16" t="n">
-        <v>916476</v>
+        <v>765012</v>
       </c>
       <c r="AW57" s="16" t="n">
-        <v>765012</v>
+        <v>838802</v>
       </c>
       <c r="AX57" s="16" t="n">
-        <v>838802</v>
+        <v>671482</v>
       </c>
       <c r="AY57" s="16" t="n">
-        <v>671482</v>
+        <v>659100</v>
       </c>
       <c r="AZ57" s="16" t="n">
-        <v>659100</v>
+        <v>578939</v>
       </c>
       <c r="BA57" s="16" t="n">
-        <v>578939</v>
+        <v>685300</v>
       </c>
       <c r="BB57" s="16" t="n">
-        <v>685300</v>
+        <v>260211</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9355,154 +9355,154 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="n">
-        <v>941112</v>
+        <v>801797</v>
       </c>
       <c r="F58" s="13" t="n">
-        <v>801797</v>
+        <v>0</v>
       </c>
       <c r="G58" s="13" t="n">
-        <v>0</v>
+        <v>904084</v>
       </c>
       <c r="H58" s="13" t="n">
-        <v>904084</v>
+        <v>480218</v>
       </c>
       <c r="I58" s="13" t="n">
-        <v>480218</v>
+        <v>365348</v>
       </c>
       <c r="J58" s="13" t="n">
-        <v>365348</v>
+        <v>668837</v>
       </c>
       <c r="K58" s="13" t="n">
-        <v>668837</v>
+        <v>644970</v>
       </c>
       <c r="L58" s="13" t="n">
-        <v>644970</v>
+        <v>595036</v>
       </c>
       <c r="M58" s="13" t="n">
-        <v>595036</v>
+        <v>524647</v>
       </c>
       <c r="N58" s="13" t="n">
-        <v>524647</v>
+        <v>702651</v>
       </c>
       <c r="O58" s="13" t="n">
-        <v>702651</v>
+        <v>930748</v>
       </c>
       <c r="P58" s="13" t="n">
-        <v>930748</v>
+        <v>794664</v>
       </c>
       <c r="Q58" s="13" t="n">
-        <v>794664</v>
+        <v>775266</v>
       </c>
       <c r="R58" s="13" t="n">
-        <v>775266</v>
+        <v>232451</v>
       </c>
       <c r="S58" s="13" t="n">
-        <v>232451</v>
+        <v>1287639</v>
       </c>
       <c r="T58" s="13" t="n">
-        <v>1287639</v>
+        <v>2029558</v>
       </c>
       <c r="U58" s="13" t="n">
-        <v>2029558</v>
+        <v>2287734</v>
       </c>
       <c r="V58" s="13" t="n">
-        <v>2287734</v>
+        <v>1757312</v>
       </c>
       <c r="W58" s="13" t="n">
-        <v>1757312</v>
+        <v>2061511</v>
       </c>
       <c r="X58" s="13" t="n">
-        <v>2061511</v>
+        <v>1608740</v>
       </c>
       <c r="Y58" s="13" t="n">
-        <v>1608740</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="13" t="n">
-        <v>0</v>
+        <v>2585740</v>
       </c>
       <c r="AA58" s="13" t="n">
-        <v>2585740</v>
+        <v>2373975</v>
       </c>
       <c r="AB58" s="13" t="n">
-        <v>2373975</v>
+        <v>1493423</v>
       </c>
       <c r="AC58" s="13" t="n">
-        <v>1493423</v>
+        <v>3760821</v>
       </c>
       <c r="AD58" s="13" t="n">
-        <v>3760821</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="13" t="n">
-        <v>0</v>
+        <v>1384833</v>
       </c>
       <c r="AF58" s="13" t="n">
-        <v>1384833</v>
+        <v>4038815</v>
       </c>
       <c r="AG58" s="13" t="n">
-        <v>4038815</v>
+        <v>2887879</v>
       </c>
       <c r="AH58" s="13" t="n">
-        <v>2887879</v>
+        <v>3365323</v>
       </c>
       <c r="AI58" s="13" t="n">
-        <v>3365323</v>
+        <v>2577813</v>
       </c>
       <c r="AJ58" s="13" t="n">
-        <v>2577813</v>
+        <v>3130161</v>
       </c>
       <c r="AK58" s="13" t="n">
-        <v>3130161</v>
+        <v>3637703</v>
       </c>
       <c r="AL58" s="13" t="n">
-        <v>3637703</v>
+        <v>3467924</v>
       </c>
       <c r="AM58" s="13" t="n">
-        <v>3467924</v>
+        <v>1292211</v>
       </c>
       <c r="AN58" s="13" t="n">
-        <v>1292211</v>
+        <v>1891174</v>
       </c>
       <c r="AO58" s="13" t="n">
-        <v>1891174</v>
+        <v>1101271</v>
       </c>
       <c r="AP58" s="13" t="n">
-        <v>1101271</v>
+        <v>1201201</v>
       </c>
       <c r="AQ58" s="13" t="n">
-        <v>1201201</v>
+        <v>1294398</v>
       </c>
       <c r="AR58" s="13" t="n">
-        <v>1294398</v>
+        <v>2931514</v>
       </c>
       <c r="AS58" s="13" t="n">
-        <v>2931514</v>
+        <v>2604493</v>
       </c>
       <c r="AT58" s="13" t="n">
-        <v>2604493</v>
+        <v>3136088</v>
       </c>
       <c r="AU58" s="13" t="n">
-        <v>3136088</v>
+        <v>2587501</v>
       </c>
       <c r="AV58" s="13" t="n">
-        <v>2587501</v>
+        <v>1369500</v>
       </c>
       <c r="AW58" s="13" t="n">
-        <v>1369500</v>
+        <v>2958887</v>
       </c>
       <c r="AX58" s="13" t="n">
-        <v>2958887</v>
+        <v>3233344</v>
       </c>
       <c r="AY58" s="13" t="n">
-        <v>3233344</v>
+        <v>2434480</v>
       </c>
       <c r="AZ58" s="13" t="n">
-        <v>2434480</v>
+        <v>3219234</v>
       </c>
       <c r="BA58" s="13" t="n">
-        <v>3219234</v>
+        <v>3158498</v>
       </c>
       <c r="BB58" s="13" t="n">
-        <v>3158498</v>
+        <v>3249482</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9514,145 +9514,145 @@
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16" t="n">
-        <v>23629</v>
+        <v>209349</v>
       </c>
       <c r="F59" s="16" t="n">
-        <v>209349</v>
+        <v>0</v>
       </c>
       <c r="G59" s="16" t="n">
-        <v>0</v>
+        <v>10806569</v>
       </c>
       <c r="H59" s="16" t="n">
-        <v>10806569</v>
+        <v>2879719</v>
       </c>
       <c r="I59" s="16" t="n">
-        <v>2879719</v>
+        <v>4317578</v>
       </c>
       <c r="J59" s="16" t="n">
-        <v>4317578</v>
+        <v>0</v>
       </c>
       <c r="K59" s="16" t="n">
-        <v>0</v>
+        <v>486318</v>
       </c>
       <c r="L59" s="16" t="n">
-        <v>486318</v>
+        <v>7239306</v>
       </c>
       <c r="M59" s="16" t="n">
-        <v>7239306</v>
+        <v>345879</v>
       </c>
       <c r="N59" s="16" t="n">
-        <v>345879</v>
+        <v>0</v>
       </c>
       <c r="O59" s="16" t="n">
-        <v>0</v>
+        <v>9584705</v>
       </c>
       <c r="P59" s="16" t="n">
-        <v>9584705</v>
+        <v>159252</v>
       </c>
       <c r="Q59" s="16" t="n">
-        <v>159252</v>
-      </c>
-      <c r="R59" s="16" t="n">
         <v>4880484</v>
       </c>
-      <c r="S59" s="16" t="s">
-        <v>57</v>
+      <c r="R59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T59" s="16" t="n">
-        <v>0</v>
+        <v>497134</v>
       </c>
       <c r="U59" s="16" t="n">
-        <v>497134</v>
+        <v>-1483589</v>
       </c>
       <c r="V59" s="16" t="n">
-        <v>-1483589</v>
+        <v>784143</v>
       </c>
       <c r="W59" s="16" t="n">
-        <v>784143</v>
+        <v>327946</v>
       </c>
       <c r="X59" s="16" t="n">
-        <v>327946</v>
+        <v>233748</v>
       </c>
       <c r="Y59" s="16" t="n">
-        <v>233748</v>
+        <v>136512</v>
       </c>
       <c r="Z59" s="16" t="n">
-        <v>136512</v>
+        <v>468331</v>
       </c>
       <c r="AA59" s="16" t="n">
-        <v>468331</v>
+        <v>11751930</v>
       </c>
       <c r="AB59" s="16" t="n">
-        <v>11751930</v>
+        <v>724361</v>
       </c>
       <c r="AC59" s="16" t="n">
-        <v>724361</v>
+        <v>1349631</v>
       </c>
       <c r="AD59" s="16" t="n">
-        <v>1349631</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="16" t="n">
-        <v>0</v>
+        <v>212845</v>
       </c>
       <c r="AF59" s="16" t="n">
-        <v>212845</v>
+        <v>1042584</v>
       </c>
       <c r="AG59" s="16" t="n">
-        <v>1042584</v>
+        <v>1477444</v>
       </c>
       <c r="AH59" s="16" t="n">
-        <v>1477444</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>0</v>
+        <v>847938</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>847938</v>
+        <v>398958</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>398958</v>
+        <v>807112</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>807112</v>
+        <v>873760</v>
       </c>
       <c r="AM59" s="16" t="n">
-        <v>873760</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AO59" s="16" t="n">
-        <v>0</v>
+        <v>1822503</v>
       </c>
       <c r="AP59" s="16" t="n">
-        <v>1822503</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR59" s="16" t="n">
-        <v>0</v>
+        <v>524398</v>
       </c>
       <c r="AS59" s="16" t="n">
-        <v>524398</v>
+        <v>694239</v>
       </c>
       <c r="AT59" s="16" t="n">
-        <v>694239</v>
+        <v>404208</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>404208</v>
+        <v>501848</v>
       </c>
       <c r="AV59" s="16" t="n">
-        <v>501848</v>
+        <v>226763</v>
       </c>
       <c r="AW59" s="16" t="n">
-        <v>226763</v>
+        <v>621871</v>
       </c>
       <c r="AX59" s="16" t="n">
-        <v>621871</v>
+        <v>-180</v>
       </c>
       <c r="AY59" s="16" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="16" t="n">
         <v>0</v>
@@ -9673,154 +9673,154 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="n">
-        <v>9416492</v>
+        <v>15085336</v>
       </c>
       <c r="F60" s="13" t="n">
-        <v>15085336</v>
+        <v>2435499</v>
       </c>
       <c r="G60" s="13" t="n">
-        <v>2435499</v>
+        <v>12796371</v>
       </c>
       <c r="H60" s="13" t="n">
-        <v>12796371</v>
+        <v>14373482</v>
       </c>
       <c r="I60" s="13" t="n">
-        <v>14373482</v>
+        <v>11843347</v>
       </c>
       <c r="J60" s="13" t="n">
-        <v>11843347</v>
+        <v>15285567</v>
       </c>
       <c r="K60" s="13" t="n">
-        <v>15285567</v>
+        <v>13802886</v>
       </c>
       <c r="L60" s="13" t="n">
-        <v>13802886</v>
+        <v>8706788</v>
       </c>
       <c r="M60" s="13" t="n">
-        <v>8706788</v>
+        <v>15312900</v>
       </c>
       <c r="N60" s="13" t="n">
-        <v>15312900</v>
+        <v>20462043</v>
       </c>
       <c r="O60" s="13" t="n">
-        <v>20462043</v>
+        <v>15774274</v>
       </c>
       <c r="P60" s="13" t="n">
-        <v>15774274</v>
+        <v>16665938</v>
       </c>
       <c r="Q60" s="13" t="n">
-        <v>16665938</v>
+        <v>15632324</v>
       </c>
       <c r="R60" s="13" t="n">
-        <v>15632324</v>
+        <v>6208025</v>
       </c>
       <c r="S60" s="13" t="n">
-        <v>6208025</v>
+        <v>25741905</v>
       </c>
       <c r="T60" s="13" t="n">
-        <v>25741905</v>
+        <v>26133439</v>
       </c>
       <c r="U60" s="13" t="n">
-        <v>26133439</v>
+        <v>24506188</v>
       </c>
       <c r="V60" s="13" t="n">
-        <v>24506188</v>
+        <v>25827072</v>
       </c>
       <c r="W60" s="13" t="n">
-        <v>25827072</v>
+        <v>39224608</v>
       </c>
       <c r="X60" s="13" t="n">
-        <v>39224608</v>
+        <v>29807915</v>
       </c>
       <c r="Y60" s="13" t="n">
-        <v>29807915</v>
+        <v>33896217</v>
       </c>
       <c r="Z60" s="13" t="n">
-        <v>33896217</v>
+        <v>43979808</v>
       </c>
       <c r="AA60" s="13" t="n">
-        <v>43979808</v>
+        <v>16372723</v>
       </c>
       <c r="AB60" s="13" t="n">
-        <v>16372723</v>
+        <v>30741940</v>
       </c>
       <c r="AC60" s="13" t="n">
-        <v>30741940</v>
+        <v>66778722</v>
       </c>
       <c r="AD60" s="13" t="n">
-        <v>66778722</v>
+        <v>13310717</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>13310717</v>
+        <v>51344382</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>51344382</v>
+        <v>58163501</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>58163501</v>
+        <v>70923594</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>70923594</v>
+        <v>42708038</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>42708038</v>
+        <v>78790683</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>78790683</v>
+        <v>47155826</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>47155826</v>
+        <v>66714172</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>66714172</v>
+        <v>65729984</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>65729984</v>
+        <v>70129728</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>70129728</v>
+        <v>79404023</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>79404023</v>
+        <v>88672888</v>
       </c>
       <c r="AP60" s="13" t="n">
-        <v>88672888</v>
+        <v>40003845</v>
       </c>
       <c r="AQ60" s="13" t="n">
-        <v>40003845</v>
+        <v>74775505</v>
       </c>
       <c r="AR60" s="13" t="n">
-        <v>74775505</v>
+        <v>90151268</v>
       </c>
       <c r="AS60" s="13" t="n">
-        <v>90151268</v>
+        <v>54258612</v>
       </c>
       <c r="AT60" s="13" t="n">
-        <v>54258612</v>
+        <v>41209768</v>
       </c>
       <c r="AU60" s="13" t="n">
-        <v>41209768</v>
+        <v>60837437</v>
       </c>
       <c r="AV60" s="13" t="n">
-        <v>60837437</v>
+        <v>46687849</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>46687849</v>
+        <v>52274183</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>52274183</v>
+        <v>52251542</v>
       </c>
       <c r="AY60" s="13" t="n">
-        <v>52251542</v>
+        <v>60413763</v>
       </c>
       <c r="AZ60" s="13" t="n">
-        <v>60413763</v>
+        <v>82272069</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>82272069</v>
+        <v>117338348</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>117338348</v>
+        <v>48542576</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9832,40 +9832,40 @@
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="n">
-        <v>1792193</v>
+        <v>1619329</v>
       </c>
       <c r="F61" s="16" t="n">
-        <v>1619329</v>
+        <v>679390</v>
       </c>
       <c r="G61" s="16" t="n">
-        <v>679390</v>
+        <v>2869663</v>
       </c>
       <c r="H61" s="16" t="n">
-        <v>2869663</v>
+        <v>1248934</v>
       </c>
       <c r="I61" s="16" t="n">
-        <v>1248934</v>
+        <v>476254</v>
       </c>
       <c r="J61" s="16" t="n">
-        <v>476254</v>
+        <v>35004</v>
       </c>
       <c r="K61" s="16" t="n">
-        <v>35004</v>
+        <v>128932</v>
       </c>
       <c r="L61" s="16" t="n">
-        <v>128932</v>
+        <v>120504</v>
       </c>
       <c r="M61" s="16" t="n">
-        <v>120504</v>
+        <v>196665</v>
       </c>
       <c r="N61" s="16" t="n">
-        <v>196665</v>
+        <v>135619</v>
       </c>
       <c r="O61" s="16" t="n">
-        <v>135619</v>
+        <v>160294</v>
       </c>
       <c r="P61" s="16" t="n">
-        <v>160294</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="16" t="n">
         <v>0</v>
@@ -9880,22 +9880,22 @@
         <v>0</v>
       </c>
       <c r="U61" s="16" t="n">
-        <v>0</v>
+        <v>1000713</v>
       </c>
       <c r="V61" s="16" t="n">
-        <v>1000713</v>
+        <v>0</v>
       </c>
       <c r="W61" s="16" t="n">
         <v>0</v>
       </c>
       <c r="X61" s="16" t="n">
-        <v>0</v>
+        <v>97094</v>
       </c>
       <c r="Y61" s="16" t="n">
-        <v>97094</v>
+        <v>228397</v>
       </c>
       <c r="Z61" s="16" t="n">
-        <v>228397</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="16" t="n">
         <v>0</v>
@@ -9906,14 +9906,14 @@
       <c r="AC61" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD61" s="16" t="n">
-        <v>0</v>
+      <c r="AD61" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF61" s="16" t="s">
-        <v>57</v>
+      <c r="AF61" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG61" s="16" t="n">
         <v>0</v>
@@ -9942,8 +9942,8 @@
       <c r="AO61" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP61" s="16" t="n">
-        <v>0</v>
+      <c r="AP61" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ61" s="16" t="s">
         <v>57</v>
@@ -10032,113 +10032,113 @@
       <c r="R62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S62" s="13" t="s">
-        <v>57</v>
+      <c r="S62" s="13" t="n">
+        <v>53207</v>
       </c>
       <c r="T62" s="13" t="n">
-        <v>53207</v>
+        <v>45036</v>
       </c>
       <c r="U62" s="13" t="n">
-        <v>45036</v>
+        <v>318244</v>
       </c>
       <c r="V62" s="13" t="n">
-        <v>318244</v>
+        <v>-3722</v>
       </c>
       <c r="W62" s="13" t="n">
-        <v>-3722</v>
+        <v>222760</v>
       </c>
       <c r="X62" s="13" t="n">
-        <v>222760</v>
+        <v>78722</v>
       </c>
       <c r="Y62" s="13" t="n">
-        <v>78722</v>
+        <v>512304</v>
       </c>
       <c r="Z62" s="13" t="n">
-        <v>512304</v>
+        <v>157984</v>
       </c>
       <c r="AA62" s="13" t="n">
-        <v>157984</v>
+        <v>277397</v>
       </c>
       <c r="AB62" s="13" t="n">
-        <v>277397</v>
+        <v>7818</v>
       </c>
       <c r="AC62" s="13" t="n">
-        <v>7818</v>
-      </c>
-      <c r="AD62" s="13" t="n">
         <v>777922</v>
       </c>
-      <c r="AE62" s="13" t="s">
-        <v>57</v>
+      <c r="AD62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE62" s="13" t="n">
+        <v>892834</v>
       </c>
       <c r="AF62" s="13" t="n">
-        <v>892834</v>
+        <v>143375</v>
       </c>
       <c r="AG62" s="13" t="n">
-        <v>143375</v>
+        <v>617863</v>
       </c>
       <c r="AH62" s="13" t="n">
-        <v>617863</v>
+        <v>39403</v>
       </c>
       <c r="AI62" s="13" t="n">
-        <v>39403</v>
+        <v>180385</v>
       </c>
       <c r="AJ62" s="13" t="n">
-        <v>180385</v>
+        <v>1535800</v>
       </c>
       <c r="AK62" s="13" t="n">
-        <v>1535800</v>
+        <v>196586</v>
       </c>
       <c r="AL62" s="13" t="n">
-        <v>196586</v>
+        <v>186293</v>
       </c>
       <c r="AM62" s="13" t="n">
-        <v>186293</v>
+        <v>1233248</v>
       </c>
       <c r="AN62" s="13" t="n">
-        <v>1233248</v>
+        <v>97703</v>
       </c>
       <c r="AO62" s="13" t="n">
-        <v>97703</v>
+        <v>272464</v>
       </c>
       <c r="AP62" s="13" t="n">
-        <v>272464</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="13" t="n">
-        <v>0</v>
+        <v>106734</v>
       </c>
       <c r="AR62" s="13" t="n">
-        <v>106734</v>
+        <v>217436</v>
       </c>
       <c r="AS62" s="13" t="n">
-        <v>217436</v>
+        <v>291423</v>
       </c>
       <c r="AT62" s="13" t="n">
-        <v>291423</v>
+        <v>-19978</v>
       </c>
       <c r="AU62" s="13" t="n">
-        <v>-19978</v>
+        <v>177696</v>
       </c>
       <c r="AV62" s="13" t="n">
-        <v>177696</v>
+        <v>116811</v>
       </c>
       <c r="AW62" s="13" t="n">
-        <v>116811</v>
+        <v>1840170</v>
       </c>
       <c r="AX62" s="13" t="n">
-        <v>1840170</v>
+        <v>1125278</v>
       </c>
       <c r="AY62" s="13" t="n">
-        <v>1125278</v>
+        <v>627684</v>
       </c>
       <c r="AZ62" s="13" t="n">
-        <v>627684</v>
+        <v>1257970</v>
       </c>
       <c r="BA62" s="13" t="n">
-        <v>1257970</v>
+        <v>1170537</v>
       </c>
       <c r="BB62" s="13" t="n">
-        <v>1170537</v>
+        <v>243192</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10287,17 +10287,17 @@
       <c r="AX63" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY63" s="16" t="s">
-        <v>57</v>
+      <c r="AY63" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AZ63" s="16" t="n">
-        <v>0</v>
+        <v>8276741</v>
       </c>
       <c r="BA63" s="16" t="n">
-        <v>8276741</v>
+        <v>6012716</v>
       </c>
       <c r="BB63" s="16" t="n">
-        <v>6012716</v>
+        <v>8740789</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10437,17 +10437,17 @@
       <c r="AU64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV64" s="13" t="s">
-        <v>57</v>
+      <c r="AV64" s="13" t="n">
+        <v>743246</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>743246</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>0</v>
+        <v>44989</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>44989</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="13" t="n">
         <v>0</v>
@@ -10572,8 +10572,8 @@
       <c r="T66" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="20" t="s">
-        <v>57</v>
+      <c r="U66" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="23" t="n">
         <v>0</v>
@@ -10836,11 +10836,11 @@
       <c r="AJ68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK68" s="13" t="s">
-        <v>57</v>
+      <c r="AK68" s="13" t="n">
+        <v>-350335</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="13" t="n">
         <v>0</v>
@@ -10851,8 +10851,8 @@
       <c r="AO68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP68" s="13" t="n">
-        <v>0</v>
+      <c r="AP68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ68" s="13" t="s">
         <v>57</v>
@@ -10872,8 +10872,8 @@
       <c r="AV68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW68" s="13" t="s">
-        <v>57</v>
+      <c r="AW68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX68" s="13" t="n">
         <v>0</v>
@@ -10887,8 +10887,8 @@
       <c r="BA68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB68" s="13" t="n">
-        <v>0</v>
+      <c r="BB68" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,8 +10947,8 @@
       <c r="T69" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U69" s="22" t="s">
-        <v>57</v>
+      <c r="U69" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="24" t="n">
         <v>0</v>
@@ -10996,10 +10996,10 @@
         <v>0</v>
       </c>
       <c r="AK69" s="24" t="n">
-        <v>0</v>
+        <v>-350335</v>
       </c>
       <c r="AL69" s="24" t="n">
-        <v>-350335</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="24" t="n">
         <v>0</v>
@@ -11163,8 +11163,8 @@
       <c r="T71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U71" s="13" t="s">
-        <v>57</v>
+      <c r="U71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V71" s="13" t="n">
         <v>0</v>
@@ -11273,154 +11273,154 @@
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24" t="n">
-        <v>12831869</v>
+        <v>18722571</v>
       </c>
       <c r="F72" s="24" t="n">
-        <v>18722571</v>
+        <v>3370938</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>3370938</v>
+        <v>27845521</v>
       </c>
       <c r="H72" s="24" t="n">
-        <v>27845521</v>
+        <v>19815993</v>
       </c>
       <c r="I72" s="24" t="n">
-        <v>19815993</v>
+        <v>17741972</v>
       </c>
       <c r="J72" s="24" t="n">
-        <v>17741972</v>
+        <v>17086871</v>
       </c>
       <c r="K72" s="24" t="n">
-        <v>17086871</v>
+        <v>15934494</v>
       </c>
       <c r="L72" s="24" t="n">
-        <v>15934494</v>
+        <v>17234955</v>
       </c>
       <c r="M72" s="24" t="n">
-        <v>17234955</v>
+        <v>16928602</v>
       </c>
       <c r="N72" s="24" t="n">
-        <v>16928602</v>
+        <v>21904194</v>
       </c>
       <c r="O72" s="24" t="n">
-        <v>21904194</v>
+        <v>27223731</v>
       </c>
       <c r="P72" s="24" t="n">
-        <v>27223731</v>
+        <v>18706493</v>
       </c>
       <c r="Q72" s="24" t="n">
-        <v>18706493</v>
+        <v>22287340</v>
       </c>
       <c r="R72" s="24" t="n">
-        <v>22287340</v>
+        <v>6581240</v>
       </c>
       <c r="S72" s="24" t="n">
-        <v>6581240</v>
+        <v>27758589</v>
       </c>
       <c r="T72" s="24" t="n">
-        <v>27758589</v>
+        <v>29837092</v>
       </c>
       <c r="U72" s="24" t="n">
-        <v>29837092</v>
+        <v>27442510</v>
       </c>
       <c r="V72" s="24" t="n">
-        <v>27442510</v>
+        <v>29049370</v>
       </c>
       <c r="W72" s="24" t="n">
-        <v>29049370</v>
+        <v>42863645</v>
       </c>
       <c r="X72" s="24" t="n">
-        <v>42863645</v>
+        <v>32883015</v>
       </c>
       <c r="Y72" s="24" t="n">
-        <v>32883015</v>
+        <v>36010365</v>
       </c>
       <c r="Z72" s="24" t="n">
-        <v>36010365</v>
+        <v>48865890</v>
       </c>
       <c r="AA72" s="24" t="n">
-        <v>48865890</v>
+        <v>32192469</v>
       </c>
       <c r="AB72" s="24" t="n">
-        <v>32192469</v>
+        <v>34783790</v>
       </c>
       <c r="AC72" s="24" t="n">
-        <v>34783790</v>
+        <v>75707865</v>
       </c>
       <c r="AD72" s="24" t="n">
-        <v>75707865</v>
+        <v>14007946</v>
       </c>
       <c r="AE72" s="24" t="n">
-        <v>14007946</v>
+        <v>55380865</v>
       </c>
       <c r="AF72" s="24" t="n">
-        <v>55380865</v>
+        <v>65800838</v>
       </c>
       <c r="AG72" s="24" t="n">
-        <v>65800838</v>
+        <v>77438420</v>
       </c>
       <c r="AH72" s="24" t="n">
-        <v>77438420</v>
+        <v>48381486</v>
       </c>
       <c r="AI72" s="24" t="n">
-        <v>48381486</v>
+        <v>86740658</v>
       </c>
       <c r="AJ72" s="24" t="n">
-        <v>86740658</v>
+        <v>54430283</v>
       </c>
       <c r="AK72" s="24" t="n">
-        <v>54430283</v>
+        <v>74784258</v>
       </c>
       <c r="AL72" s="24" t="n">
-        <v>74784258</v>
+        <v>72851480</v>
       </c>
       <c r="AM72" s="24" t="n">
-        <v>72851480</v>
+        <v>76589147</v>
       </c>
       <c r="AN72" s="24" t="n">
-        <v>76589147</v>
+        <v>84743830</v>
       </c>
       <c r="AO72" s="24" t="n">
-        <v>84743830</v>
+        <v>96255838</v>
       </c>
       <c r="AP72" s="24" t="n">
-        <v>96255838</v>
+        <v>43024778</v>
       </c>
       <c r="AQ72" s="24" t="n">
-        <v>43024778</v>
+        <v>81319630</v>
       </c>
       <c r="AR72" s="24" t="n">
-        <v>81319630</v>
+        <v>97091949</v>
       </c>
       <c r="AS72" s="24" t="n">
-        <v>97091949</v>
+        <v>60756901</v>
       </c>
       <c r="AT72" s="24" t="n">
-        <v>60756901</v>
+        <v>46652240</v>
       </c>
       <c r="AU72" s="24" t="n">
-        <v>46652240</v>
+        <v>68416807</v>
       </c>
       <c r="AV72" s="24" t="n">
-        <v>68416807</v>
+        <v>52839326</v>
       </c>
       <c r="AW72" s="24" t="n">
-        <v>52839326</v>
+        <v>63498537</v>
       </c>
       <c r="AX72" s="24" t="n">
-        <v>63498537</v>
+        <v>61413832</v>
       </c>
       <c r="AY72" s="24" t="n">
-        <v>61413832</v>
+        <v>70300780</v>
       </c>
       <c r="AZ72" s="24" t="n">
-        <v>70300780</v>
+        <v>102328994</v>
       </c>
       <c r="BA72" s="24" t="n">
-        <v>102328994</v>
+        <v>136878112</v>
       </c>
       <c r="BB72" s="24" t="n">
-        <v>136878112</v>
+        <v>63727574</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11866,154 +11866,154 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="n">
-        <v>23946205</v>
+        <v>12641088</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>12641088</v>
+        <v>1376950000</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>1376950000</v>
+        <v>15923653</v>
       </c>
       <c r="H79" s="13" t="n">
-        <v>15923653</v>
+        <v>56320696</v>
       </c>
       <c r="I79" s="13" t="n">
-        <v>56320696</v>
+        <v>541131</v>
       </c>
       <c r="J79" s="13" t="n">
-        <v>541131</v>
+        <v>108149757</v>
       </c>
       <c r="K79" s="13" t="n">
-        <v>108149757</v>
+        <v>21088580</v>
       </c>
       <c r="L79" s="13" t="n">
-        <v>21088580</v>
+        <v>6229092</v>
       </c>
       <c r="M79" s="13" t="n">
-        <v>6229092</v>
+        <v>478100</v>
       </c>
       <c r="N79" s="13" t="n">
-        <v>478100</v>
+        <v>8394518</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>8394518</v>
+        <v>32649334</v>
       </c>
       <c r="P79" s="13" t="n">
-        <v>32649334</v>
+        <v>14494869</v>
       </c>
       <c r="Q79" s="13" t="n">
-        <v>14494869</v>
-      </c>
-      <c r="R79" s="13" t="n">
         <v>3079365</v>
       </c>
+      <c r="R79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T79" s="13" t="s">
-        <v>57</v>
+      <c r="T79" s="13" t="n">
+        <v>252170</v>
       </c>
       <c r="U79" s="13" t="n">
-        <v>252170</v>
+        <v>345761</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>345761</v>
+        <v>1546169</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>1546169</v>
+        <v>1061983</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>1061983</v>
-      </c>
-      <c r="Y79" s="13" t="n">
         <v>557171</v>
       </c>
-      <c r="Z79" s="13" t="s">
-        <v>57</v>
+      <c r="Y79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z79" s="13" t="n">
+        <v>971116</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>971116</v>
+        <v>2127577</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>2127577</v>
+        <v>895480</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>895480</v>
-      </c>
-      <c r="AD79" s="13" t="n">
         <v>968012</v>
       </c>
-      <c r="AE79" s="13" t="s">
-        <v>57</v>
+      <c r="AD79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE79" s="13" t="n">
+        <v>3085198</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>3085198</v>
+        <v>3657975</v>
       </c>
       <c r="AG79" s="13" t="n">
-        <v>3657975</v>
+        <v>3656530</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>3656530</v>
+        <v>745681</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>745681</v>
+        <v>3988090</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>3988090</v>
+        <v>551596</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>551596</v>
+        <v>4661619</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>4661619</v>
+        <v>5984297</v>
       </c>
       <c r="AM79" s="13" t="n">
-        <v>5984297</v>
+        <v>3932534</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>3932534</v>
+        <v>6711701</v>
       </c>
       <c r="AO79" s="13" t="n">
-        <v>6711701</v>
-      </c>
-      <c r="AP79" s="13" t="n">
         <v>5931811</v>
       </c>
-      <c r="AQ79" s="13" t="s">
-        <v>57</v>
+      <c r="AP79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ79" s="13" t="n">
+        <v>178698540</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>178698540</v>
+        <v>4398425</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>4398425</v>
+        <v>4315173</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>4315173</v>
+        <v>4510538</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>4510538</v>
+        <v>3735938</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>3735938</v>
+        <v>4411153</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>4411153</v>
+        <v>3193005</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>3193005</v>
+        <v>5083219</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>5083219</v>
+        <v>4567325</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>4567325</v>
+        <v>108644563</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>108644563</v>
+        <v>3247047</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>3247047</v>
+        <v>5918439</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12025,154 +12025,154 @@
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="n">
-        <v>758839196</v>
+        <v>895884434</v>
       </c>
       <c r="F80" s="16" t="n">
-        <v>895884434</v>
+        <v>1078058824</v>
       </c>
       <c r="G80" s="16" t="n">
-        <v>1078058824</v>
+        <v>883550218</v>
       </c>
       <c r="H80" s="16" t="n">
-        <v>883550218</v>
+        <v>1045704142</v>
       </c>
       <c r="I80" s="16" t="n">
-        <v>1045704142</v>
+        <v>1110105008</v>
       </c>
       <c r="J80" s="16" t="n">
-        <v>1110105008</v>
+        <v>1110510730</v>
       </c>
       <c r="K80" s="16" t="n">
-        <v>1110510730</v>
+        <v>1067670157</v>
       </c>
       <c r="L80" s="16" t="n">
-        <v>1067670157</v>
+        <v>999624113</v>
       </c>
       <c r="M80" s="16" t="n">
-        <v>999624113</v>
+        <v>823777574</v>
       </c>
       <c r="N80" s="16" t="n">
-        <v>823777574</v>
+        <v>829910913</v>
       </c>
       <c r="O80" s="16" t="n">
-        <v>829910913</v>
+        <v>897853261</v>
       </c>
       <c r="P80" s="16" t="n">
-        <v>897853261</v>
+        <v>1065889552</v>
       </c>
       <c r="Q80" s="16" t="n">
-        <v>1065889552</v>
+        <v>1120638182</v>
       </c>
       <c r="R80" s="16" t="n">
-        <v>1120638182</v>
+        <v>1019038462</v>
       </c>
       <c r="S80" s="16" t="n">
-        <v>1019038462</v>
+        <v>1047766667</v>
       </c>
       <c r="T80" s="16" t="n">
-        <v>1047766667</v>
+        <v>986477143</v>
       </c>
       <c r="U80" s="16" t="n">
-        <v>986477143</v>
+        <v>1132564388</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>1132564388</v>
+        <v>1397669927</v>
       </c>
       <c r="W80" s="16" t="n">
-        <v>1397669927</v>
+        <v>1780813653</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>1780813653</v>
+        <v>2102423163</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>2102423163</v>
+        <v>2444637450</v>
       </c>
       <c r="Z80" s="16" t="n">
-        <v>2444637450</v>
+        <v>2299693182</v>
       </c>
       <c r="AA80" s="16" t="n">
-        <v>2299693182</v>
+        <v>2832802198</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>2832802198</v>
+        <v>2606956370</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>2606956370</v>
+        <v>2427581649</v>
       </c>
       <c r="AD80" s="16" t="n">
-        <v>2427581649</v>
+        <v>2625803347</v>
       </c>
       <c r="AE80" s="16" t="n">
-        <v>2625803347</v>
+        <v>2362121951</v>
       </c>
       <c r="AF80" s="16" t="n">
-        <v>2362121951</v>
+        <v>2662597111</v>
       </c>
       <c r="AG80" s="16" t="n">
-        <v>2662597111</v>
+        <v>3495806452</v>
       </c>
       <c r="AH80" s="16" t="n">
-        <v>3495806452</v>
+        <v>3366891037</v>
       </c>
       <c r="AI80" s="16" t="n">
-        <v>3366891037</v>
+        <v>4722215659</v>
       </c>
       <c r="AJ80" s="16" t="n">
-        <v>4722215659</v>
+        <v>4136790698</v>
       </c>
       <c r="AK80" s="16" t="n">
-        <v>4136790698</v>
+        <v>4849831104</v>
       </c>
       <c r="AL80" s="16" t="n">
-        <v>4849831104</v>
+        <v>4228518265</v>
       </c>
       <c r="AM80" s="16" t="n">
-        <v>4228518265</v>
+        <v>4875186501</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>4875186501</v>
+        <v>4711575188</v>
       </c>
       <c r="AO80" s="16" t="n">
-        <v>4711575188</v>
+        <v>4401865333</v>
       </c>
       <c r="AP80" s="16" t="n">
-        <v>4401865333</v>
+        <v>4681379182</v>
       </c>
       <c r="AQ80" s="16" t="n">
-        <v>4681379182</v>
+        <v>4176331667</v>
       </c>
       <c r="AR80" s="16" t="n">
-        <v>4176331667</v>
+        <v>3603601375</v>
       </c>
       <c r="AS80" s="16" t="n">
-        <v>3603601375</v>
+        <v>3440901280</v>
       </c>
       <c r="AT80" s="16" t="n">
-        <v>3440901280</v>
+        <v>3120782927</v>
       </c>
       <c r="AU80" s="16" t="n">
-        <v>3120782927</v>
+        <v>3268365882</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>3268365882</v>
+        <v>3801684564</v>
       </c>
       <c r="AW80" s="16" t="n">
-        <v>3801684564</v>
+        <v>4094765035</v>
       </c>
       <c r="AX80" s="16" t="n">
-        <v>4094765035</v>
+        <v>4631548157</v>
       </c>
       <c r="AY80" s="16" t="n">
-        <v>4631548157</v>
+        <v>6676270440</v>
       </c>
       <c r="AZ80" s="16" t="n">
-        <v>6676270440</v>
+        <v>7396651934</v>
       </c>
       <c r="BA80" s="16" t="n">
-        <v>7396651934</v>
+        <v>7834260504</v>
       </c>
       <c r="BB80" s="16" t="n">
-        <v>7834260504</v>
+        <v>5536612159</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12184,154 +12184,154 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="n">
-        <v>829960</v>
+        <v>679854</v>
       </c>
       <c r="F81" s="13" t="n">
-        <v>679854</v>
+        <v>0</v>
       </c>
       <c r="G81" s="13" t="n">
         <v>0</v>
       </c>
       <c r="H81" s="13" t="n">
-        <v>0</v>
+        <v>645921</v>
       </c>
       <c r="I81" s="13" t="n">
-        <v>645921</v>
+        <v>0</v>
       </c>
       <c r="J81" s="13" t="n">
-        <v>0</v>
+        <v>822038</v>
       </c>
       <c r="K81" s="13" t="n">
-        <v>822038</v>
+        <v>748166667</v>
       </c>
       <c r="L81" s="13" t="n">
-        <v>748166667</v>
+        <v>797567</v>
       </c>
       <c r="M81" s="13" t="n">
-        <v>797567</v>
+        <v>687369</v>
       </c>
       <c r="N81" s="13" t="n">
-        <v>687369</v>
+        <v>662386</v>
       </c>
       <c r="O81" s="13" t="n">
-        <v>662386</v>
+        <v>652989</v>
       </c>
       <c r="P81" s="13" t="n">
-        <v>652989</v>
+        <v>695565</v>
       </c>
       <c r="Q81" s="13" t="n">
-        <v>695565</v>
-      </c>
-      <c r="R81" s="13" t="n">
         <v>770153</v>
       </c>
+      <c r="R81" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T81" s="13" t="s">
-        <v>57</v>
+      <c r="T81" s="13" t="n">
+        <v>820540</v>
       </c>
       <c r="U81" s="13" t="n">
-        <v>820540</v>
+        <v>808664</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>808664</v>
+        <v>971725</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>971725</v>
+        <v>1431141</v>
       </c>
       <c r="X81" s="13" t="n">
-        <v>1431141</v>
-      </c>
-      <c r="Y81" s="13" t="n">
         <v>1080881</v>
       </c>
-      <c r="Z81" s="13" t="s">
-        <v>57</v>
+      <c r="Y81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z81" s="13" t="n">
+        <v>1560258</v>
       </c>
       <c r="AA81" s="13" t="n">
-        <v>1560258</v>
+        <v>2291580</v>
       </c>
       <c r="AB81" s="13" t="n">
-        <v>2291580</v>
+        <v>2370646</v>
       </c>
       <c r="AC81" s="13" t="n">
-        <v>2370646</v>
-      </c>
-      <c r="AD81" s="13" t="n">
         <v>1954506</v>
       </c>
-      <c r="AE81" s="13" t="s">
-        <v>57</v>
+      <c r="AD81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE81" s="13" t="n">
+        <v>2648188</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>2648188</v>
+        <v>1185775</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>1185775</v>
+        <v>1703060</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>1703060</v>
+        <v>1493852</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>1493852</v>
+        <v>2153828</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>2153828</v>
+        <v>2293851</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>2293851</v>
+        <v>2179518</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>2179518</v>
+        <v>2947274</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>2947274</v>
+        <v>3194856</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>3194856</v>
+        <v>1968405</v>
       </c>
       <c r="AO81" s="13" t="n">
-        <v>1968405</v>
-      </c>
-      <c r="AP81" s="13" t="n">
         <v>2441473</v>
       </c>
-      <c r="AQ81" s="13" t="s">
-        <v>57</v>
+      <c r="AP81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ81" s="13" t="n">
+        <v>2712524</v>
       </c>
       <c r="AR81" s="13" t="n">
-        <v>2712524</v>
+        <v>1407794</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>1407794</v>
-      </c>
-      <c r="AT81" s="13" t="n">
         <v>2830808</v>
       </c>
-      <c r="AU81" s="13" t="s">
-        <v>57</v>
+      <c r="AT81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU81" s="13" t="n">
+        <v>2490590</v>
       </c>
       <c r="AV81" s="13" t="n">
-        <v>2490590</v>
+        <v>2681818</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>2681818</v>
+        <v>2788723</v>
       </c>
       <c r="AX81" s="13" t="n">
-        <v>2788723</v>
+        <v>1177418</v>
       </c>
       <c r="AY81" s="13" t="n">
-        <v>1177418</v>
+        <v>2142278</v>
       </c>
       <c r="AZ81" s="13" t="n">
-        <v>2142278</v>
+        <v>2616901</v>
       </c>
       <c r="BA81" s="13" t="n">
-        <v>2616901</v>
-      </c>
-      <c r="BB81" s="13" t="n">
         <v>1503508</v>
+      </c>
+      <c r="BB81" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12345,152 +12345,152 @@
       <c r="E82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>57</v>
+      <c r="F82" s="16" t="n">
+        <v>1765577</v>
       </c>
       <c r="G82" s="16" t="n">
-        <v>1765577</v>
+        <v>1751194</v>
       </c>
       <c r="H82" s="16" t="n">
-        <v>1751194</v>
+        <v>1760139</v>
       </c>
       <c r="I82" s="16" t="n">
-        <v>1760139</v>
+        <v>1750011</v>
       </c>
       <c r="J82" s="16" t="n">
-        <v>1750011</v>
+        <v>1758517</v>
       </c>
       <c r="K82" s="16" t="n">
-        <v>1758517</v>
+        <v>1756951</v>
       </c>
       <c r="L82" s="16" t="n">
-        <v>1756951</v>
+        <v>1750062</v>
       </c>
       <c r="M82" s="16" t="n">
-        <v>1750062</v>
+        <v>1759210</v>
       </c>
       <c r="N82" s="16" t="n">
-        <v>1759210</v>
+        <v>1749980</v>
       </c>
       <c r="O82" s="16" t="n">
-        <v>1749980</v>
+        <v>1713283</v>
       </c>
       <c r="P82" s="16" t="n">
-        <v>1713283</v>
+        <v>1300261</v>
       </c>
       <c r="Q82" s="16" t="n">
-        <v>1300261</v>
+        <v>1202351</v>
       </c>
       <c r="R82" s="16" t="n">
-        <v>1202351</v>
+        <v>1200087</v>
       </c>
       <c r="S82" s="16" t="n">
-        <v>1200087</v>
+        <v>1200016</v>
       </c>
       <c r="T82" s="16" t="n">
-        <v>1200016</v>
+        <v>1200940</v>
       </c>
       <c r="U82" s="16" t="n">
-        <v>1200940</v>
+        <v>1202795</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>1202795</v>
+        <v>1194232</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>1194232</v>
+        <v>1154399</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>1154399</v>
+        <v>1059929</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>1059929</v>
+        <v>914794</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>914794</v>
+        <v>989010</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>989010</v>
+        <v>967754</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>967754</v>
+        <v>965273</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>965273</v>
+        <v>979637</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>979637</v>
+        <v>1960543</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>1960543</v>
+        <v>3150020</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>3150020</v>
+        <v>3890425</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>3890425</v>
+        <v>3949000</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>3949000</v>
+        <v>3812957</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>3812957</v>
+        <v>3956464</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>3956464</v>
+        <v>5071596</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>5071596</v>
+        <v>5989500</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>5989500</v>
+        <v>5985451</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>5985451</v>
+        <v>6623001</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>6623001</v>
+        <v>6244510</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>6244510</v>
+        <v>7098802</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>7098802</v>
+        <v>9573642</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>9573642</v>
+        <v>10834592</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>10834592</v>
+        <v>13948377</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>13948377</v>
+        <v>14792106</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>14792106</v>
+        <v>14701024</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>14701024</v>
+        <v>14992982</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>14992982</v>
+        <v>14967951</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>14967951</v>
+        <v>11280437</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>11280437</v>
+        <v>10076865</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>10076865</v>
+        <v>10000000</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>10000000</v>
+        <v>9901132</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>9901132</v>
+        <v>7687475</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>7687475</v>
+        <v>7004145</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12502,154 +12502,154 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="n">
-        <v>14704875000</v>
+        <v>14066614035</v>
       </c>
       <c r="F83" s="13" t="n">
-        <v>14066614035</v>
+        <v>0</v>
       </c>
       <c r="G83" s="13" t="n">
-        <v>0</v>
+        <v>14126312500</v>
       </c>
       <c r="H83" s="13" t="n">
-        <v>14126312500</v>
+        <v>12637315789</v>
       </c>
       <c r="I83" s="13" t="n">
-        <v>12637315789</v>
+        <v>12598206897</v>
       </c>
       <c r="J83" s="13" t="n">
-        <v>12598206897</v>
+        <v>13934104167</v>
       </c>
       <c r="K83" s="13" t="n">
-        <v>13934104167</v>
+        <v>14332666667</v>
       </c>
       <c r="L83" s="13" t="n">
-        <v>14332666667</v>
+        <v>13523545455</v>
       </c>
       <c r="M83" s="13" t="n">
-        <v>13523545455</v>
+        <v>12491595238</v>
       </c>
       <c r="N83" s="13" t="n">
-        <v>12491595238</v>
+        <v>14053020000</v>
       </c>
       <c r="O83" s="13" t="n">
-        <v>14053020000</v>
+        <v>14102242424</v>
       </c>
       <c r="P83" s="13" t="n">
-        <v>14102242424</v>
+        <v>15282000000</v>
       </c>
       <c r="Q83" s="13" t="n">
-        <v>15282000000</v>
+        <v>17619681818</v>
       </c>
       <c r="R83" s="13" t="n">
-        <v>17619681818</v>
+        <v>16603642857</v>
       </c>
       <c r="S83" s="13" t="n">
-        <v>16603642857</v>
+        <v>22200672414</v>
       </c>
       <c r="T83" s="13" t="n">
-        <v>22200672414</v>
+        <v>26704710526</v>
       </c>
       <c r="U83" s="13" t="n">
-        <v>26704710526</v>
+        <v>27563060241</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>27563060241</v>
+        <v>35146240000</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>35146240000</v>
+        <v>35543293103</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>35543293103</v>
-      </c>
-      <c r="Y83" s="13" t="n">
         <v>43479459459</v>
       </c>
-      <c r="Z83" s="13" t="s">
-        <v>57</v>
+      <c r="Y83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z83" s="13" t="n">
+        <v>39780615385</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>39780615385</v>
+        <v>35969318182</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>35969318182</v>
+        <v>39300605263</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>39300605263</v>
-      </c>
-      <c r="AD83" s="13" t="n">
         <v>33578758929</v>
       </c>
-      <c r="AE83" s="13" t="s">
-        <v>57</v>
+      <c r="AD83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE83" s="13" t="n">
+        <v>31473477273</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>31473477273</v>
+        <v>33939621849</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>33939621849</v>
+        <v>35218036585</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>35218036585</v>
+        <v>36579597826</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>36579597826</v>
+        <v>33918592105</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>33918592105</v>
+        <v>36397220930</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>36397220930</v>
+        <v>35317504854</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>35317504854</v>
+        <v>37289505376</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>37289505376</v>
+        <v>34005552632</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>34005552632</v>
+        <v>36368730769</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>36368730769</v>
+        <v>32390323529</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>32390323529</v>
+        <v>42900035714</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>42900035714</v>
+        <v>38070529412</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>38070529412</v>
+        <v>37583512821</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>37583512821</v>
+        <v>43408216667</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>43408216667</v>
+        <v>35236943820</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>35236943820</v>
+        <v>41071444444</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>41071444444</v>
+        <v>39128571429</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>39128571429</v>
+        <v>36986087500</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>36986087500</v>
+        <v>37164873563</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>37164873563</v>
+        <v>43472857143</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>43472857143</v>
+        <v>60740264151</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>60740264151</v>
+        <v>57427236364</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>57427236364</v>
+        <v>70640913043</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12661,142 +12661,142 @@
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16" t="n">
-        <v>141491018</v>
+        <v>143981431</v>
       </c>
       <c r="F84" s="16" t="n">
-        <v>143981431</v>
+        <v>0</v>
       </c>
       <c r="G84" s="16" t="n">
-        <v>0</v>
+        <v>158512197</v>
       </c>
       <c r="H84" s="16" t="n">
-        <v>158512197</v>
+        <v>148209933</v>
       </c>
       <c r="I84" s="16" t="n">
-        <v>148209933</v>
+        <v>146021983</v>
       </c>
       <c r="J84" s="16" t="n">
-        <v>146021983</v>
+        <v>0</v>
       </c>
       <c r="K84" s="16" t="n">
-        <v>0</v>
+        <v>175186599</v>
       </c>
       <c r="L84" s="16" t="n">
-        <v>175186599</v>
+        <v>138798359</v>
       </c>
       <c r="M84" s="16" t="n">
-        <v>138798359</v>
+        <v>144356845</v>
       </c>
       <c r="N84" s="16" t="n">
-        <v>144356845</v>
+        <v>0</v>
       </c>
       <c r="O84" s="16" t="n">
-        <v>0</v>
+        <v>159870315</v>
       </c>
       <c r="P84" s="16" t="n">
-        <v>159870315</v>
+        <v>148555970</v>
       </c>
       <c r="Q84" s="16" t="n">
-        <v>148555970</v>
-      </c>
-      <c r="R84" s="16" t="n">
         <v>160000131</v>
       </c>
+      <c r="R84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T84" s="16" t="s">
-        <v>57</v>
+      <c r="T84" s="16" t="n">
+        <v>151982268</v>
       </c>
       <c r="U84" s="16" t="n">
-        <v>151982268</v>
+        <v>-1257278814</v>
       </c>
       <c r="V84" s="16" t="n">
-        <v>-1257278814</v>
+        <v>202673301</v>
       </c>
       <c r="W84" s="16" t="n">
-        <v>202673301</v>
+        <v>236442682</v>
       </c>
       <c r="X84" s="16" t="n">
-        <v>236442682</v>
+        <v>209639462</v>
       </c>
       <c r="Y84" s="16" t="n">
-        <v>209639462</v>
+        <v>292944206</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>292944206</v>
+        <v>294733166</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>294733166</v>
+        <v>466457490</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>466457490</v>
+        <v>391546486</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>391546486</v>
-      </c>
-      <c r="AD84" s="16" t="n">
         <v>475054910</v>
       </c>
-      <c r="AE84" s="16" t="s">
-        <v>57</v>
+      <c r="AD84" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE84" s="16" t="n">
+        <v>478303371</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>478303371</v>
+        <v>448616179</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>448616179</v>
-      </c>
-      <c r="AH84" s="16" t="n">
         <v>464751180</v>
       </c>
-      <c r="AI84" s="16" t="s">
-        <v>57</v>
+      <c r="AH84" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI84" s="16" t="n">
+        <v>456617124</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>456617124</v>
+        <v>419073529</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>419073529</v>
+        <v>442253151</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>442253151</v>
-      </c>
-      <c r="AM84" s="16" t="n">
         <v>483809524</v>
       </c>
+      <c r="AM84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AN84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO84" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP84" s="16" t="n">
+      <c r="AO84" s="16" t="n">
         <v>495919184</v>
       </c>
+      <c r="AP84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR84" s="16" t="s">
-        <v>57</v>
+      <c r="AR84" s="16" t="n">
+        <v>581372506</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>581372506</v>
+        <v>507855889</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>507855889</v>
+        <v>449619577</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>449619577</v>
+        <v>442546737</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>442546737</v>
+        <v>472422917</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>472422917</v>
-      </c>
-      <c r="AX84" s="16" t="n">
         <v>444511079</v>
+      </c>
+      <c r="AX84" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY84" s="16" t="s">
         <v>57</v>
@@ -12820,154 +12820,154 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="n">
-        <v>513272212</v>
+        <v>617466989</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>617466989</v>
+        <v>646363854</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>646363854</v>
+        <v>658656115</v>
       </c>
       <c r="H85" s="13" t="n">
-        <v>658656115</v>
+        <v>696254699</v>
       </c>
       <c r="I85" s="13" t="n">
-        <v>696254699</v>
+        <v>677614544</v>
       </c>
       <c r="J85" s="13" t="n">
-        <v>677614544</v>
+        <v>669890744</v>
       </c>
       <c r="K85" s="13" t="n">
-        <v>669890744</v>
+        <v>639436950</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>639436950</v>
+        <v>645377511</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>645377511</v>
+        <v>639609874</v>
       </c>
       <c r="N85" s="13" t="n">
-        <v>639609874</v>
+        <v>686991539</v>
       </c>
       <c r="O85" s="13" t="n">
-        <v>686991539</v>
+        <v>707588660</v>
       </c>
       <c r="P85" s="13" t="n">
-        <v>707588660</v>
+        <v>744513648</v>
       </c>
       <c r="Q85" s="13" t="n">
-        <v>744513648</v>
+        <v>735327344</v>
       </c>
       <c r="R85" s="13" t="n">
-        <v>735327344</v>
+        <v>698865811</v>
       </c>
       <c r="S85" s="13" t="n">
-        <v>698865811</v>
+        <v>734203388</v>
       </c>
       <c r="T85" s="13" t="n">
-        <v>734203388</v>
+        <v>799114424</v>
       </c>
       <c r="U85" s="13" t="n">
-        <v>799114424</v>
+        <v>918006668</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>918006668</v>
+        <v>1132319348</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>1132319348</v>
+        <v>1435904675</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>1435904675</v>
+        <v>1502415071</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>1502415071</v>
+        <v>1683447579</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>1683447579</v>
+        <v>1938632108</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>1938632108</v>
+        <v>2001555379</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>2001555379</v>
+        <v>1926669591</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>1926669591</v>
+        <v>2154638854</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>2154638854</v>
+        <v>2139298779</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>2139298779</v>
+        <v>2215889776</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>2215889776</v>
+        <v>2331669713</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>2331669713</v>
+        <v>2112455888</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>2112455888</v>
+        <v>2207932482</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>2207932482</v>
+        <v>2221583573</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>2221583573</v>
+        <v>2200253173</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>2200253173</v>
+        <v>2393075974</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>2393075974</v>
+        <v>2382988942</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>2382988942</v>
+        <v>2399238043</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>2399238043</v>
+        <v>2494471695</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>2494471695</v>
+        <v>2628123533</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>2628123533</v>
+        <v>2626302849</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>2626302849</v>
+        <v>2678109846</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>2678109846</v>
+        <v>2614823448</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>2614823448</v>
+        <v>2567482705</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>2567482705</v>
+        <v>2492275053</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>2492275053</v>
+        <v>2309610000</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>2309610000</v>
+        <v>2319893118</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>2319893118</v>
+        <v>2354056696</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>2354056696</v>
+        <v>2438811762</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>2438811762</v>
+        <v>2672465850</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>2672465850</v>
+        <v>3069853321</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>3069853321</v>
+        <v>4125095729</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>4125095729</v>
+        <v>4143272107</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12979,46 +12979,46 @@
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16" t="n">
-        <v>508567821</v>
+        <v>686156356</v>
       </c>
       <c r="F86" s="16" t="n">
-        <v>686156356</v>
+        <v>698242549</v>
       </c>
       <c r="G86" s="16" t="n">
-        <v>698242549</v>
+        <v>712959752</v>
       </c>
       <c r="H86" s="16" t="n">
-        <v>712959752</v>
+        <v>704418500</v>
       </c>
       <c r="I86" s="16" t="n">
-        <v>704418500</v>
+        <v>686244957</v>
       </c>
       <c r="J86" s="16" t="n">
-        <v>686244957</v>
+        <v>700080000</v>
       </c>
       <c r="K86" s="16" t="n">
-        <v>700080000</v>
+        <v>685808511</v>
       </c>
       <c r="L86" s="16" t="n">
-        <v>685808511</v>
+        <v>665767956</v>
       </c>
       <c r="M86" s="16" t="n">
-        <v>665767956</v>
+        <v>666661017</v>
       </c>
       <c r="N86" s="16" t="n">
-        <v>666661017</v>
+        <v>688421320</v>
       </c>
       <c r="O86" s="16" t="n">
-        <v>688421320</v>
+        <v>712417778</v>
       </c>
       <c r="P86" s="16" t="n">
-        <v>712417778</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R86" s="16" t="n">
-        <v>0</v>
+      <c r="R86" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S86" s="16" t="s">
         <v>57</v>
@@ -13026,23 +13026,23 @@
       <c r="T86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V86" s="16" t="n">
+      <c r="U86" s="16" t="n">
         <v>1013893617</v>
       </c>
+      <c r="V86" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="W86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="X86" s="16" t="s">
-        <v>57</v>
+      <c r="X86" s="16" t="n">
+        <v>1645661017</v>
       </c>
       <c r="Y86" s="16" t="n">
-        <v>1645661017</v>
-      </c>
-      <c r="Z86" s="16" t="n">
         <v>1667131387</v>
+      </c>
+      <c r="Z86" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AA86" s="16" t="s">
         <v>57</v>
@@ -13179,113 +13179,113 @@
       <c r="R87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S87" s="13" t="s">
-        <v>57</v>
+      <c r="S87" s="13" t="n">
+        <v>1330175000</v>
       </c>
       <c r="T87" s="13" t="n">
-        <v>1330175000</v>
+        <v>1125900000</v>
       </c>
       <c r="U87" s="13" t="n">
-        <v>1125900000</v>
-      </c>
-      <c r="V87" s="13" t="n">
         <v>2150297297</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>57</v>
+      <c r="V87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W87" s="13" t="n">
+        <v>1392250000</v>
       </c>
       <c r="X87" s="13" t="n">
-        <v>1392250000</v>
+        <v>1968050000</v>
       </c>
       <c r="Y87" s="13" t="n">
-        <v>1968050000</v>
+        <v>2640742268</v>
       </c>
       <c r="Z87" s="13" t="n">
-        <v>2640742268</v>
+        <v>2677694915</v>
       </c>
       <c r="AA87" s="13" t="n">
-        <v>2677694915</v>
-      </c>
-      <c r="AB87" s="13" t="n">
         <v>3082188889</v>
       </c>
-      <c r="AC87" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD87" s="13" t="n">
+      <c r="AB87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC87" s="13" t="n">
         <v>2575900662</v>
       </c>
-      <c r="AE87" s="13" t="s">
-        <v>57</v>
+      <c r="AD87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE87" s="13" t="n">
+        <v>3036850340</v>
       </c>
       <c r="AF87" s="13" t="n">
-        <v>3036850340</v>
+        <v>3413690476</v>
       </c>
       <c r="AG87" s="13" t="n">
-        <v>3413690476</v>
+        <v>15446575000</v>
       </c>
       <c r="AH87" s="13" t="n">
-        <v>15446575000</v>
+        <v>39403000000</v>
       </c>
       <c r="AI87" s="13" t="n">
-        <v>39403000000</v>
+        <v>4399634146</v>
       </c>
       <c r="AJ87" s="13" t="n">
-        <v>4399634146</v>
+        <v>4584477612</v>
       </c>
       <c r="AK87" s="13" t="n">
-        <v>4584477612</v>
+        <v>4680619048</v>
       </c>
       <c r="AL87" s="13" t="n">
-        <v>4680619048</v>
+        <v>4435547619</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>4435547619</v>
+        <v>4893841270</v>
       </c>
       <c r="AN87" s="13" t="n">
-        <v>4893841270</v>
+        <v>4652523810</v>
       </c>
       <c r="AO87" s="13" t="n">
-        <v>4652523810</v>
-      </c>
-      <c r="AP87" s="13" t="n">
         <v>4191753846</v>
       </c>
-      <c r="AQ87" s="13" t="s">
-        <v>57</v>
+      <c r="AP87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ87" s="13" t="n">
+        <v>5082571429</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>5082571429</v>
+        <v>5303317073</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>5303317073</v>
+        <v>4625761905</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>4625761905</v>
+        <v>19978000000</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>19978000000</v>
+        <v>4334048780</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>4334048780</v>
+        <v>5562428571</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>5562428571</v>
+        <v>6691527273</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>6691527273</v>
+        <v>7603229730</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>7603229730</v>
+        <v>9963238095</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>9963238095</v>
+        <v>11747945461</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>11747945461</v>
+        <v>14101156487</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>14101156487</v>
+        <v>11580571429</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13437,14 +13437,14 @@
       <c r="AY88" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AZ88" s="16" t="s">
-        <v>57</v>
+      <c r="AZ88" s="16" t="n">
+        <v>3708217294</v>
       </c>
       <c r="BA88" s="16" t="n">
-        <v>3708217294</v>
+        <v>4357040580</v>
       </c>
       <c r="BB88" s="16" t="n">
-        <v>4357040580</v>
+        <v>4654307242</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,17 +13584,17 @@
       <c r="AU89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV89" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW89" s="13" t="n">
+      <c r="AV89" s="13" t="n">
         <v>1447863</v>
       </c>
-      <c r="AX89" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY89" s="13" t="n">
+      <c r="AW89" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX89" s="13" t="n">
         <v>1147591</v>
+      </c>
+      <c r="AY89" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ89" s="13" t="s">
         <v>57</v>
